--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -3847,7 +3847,7 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>251.5164444444444</v>
+        <v>254.6403333333334</v>
       </c>
       <c r="C205">
         <v>19330.8</v>
@@ -3864,7 +3864,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>251.3667037037037</v>
+        <v>252.408</v>
       </c>
       <c r="C206">
         <v>19396.3</v>
@@ -3881,7 +3881,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>252.0082716049383</v>
+        <v>253.3966666666667</v>
       </c>
       <c r="C207">
         <v>19466.4</v>
@@ -3898,7 +3898,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>251.6304732510288</v>
+        <v>253.4816666666667</v>
       </c>
       <c r="C208">
         <v>19542.1</v>
@@ -3915,7 +3915,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>251.6684828532236</v>
+        <v>253.0954444444445</v>
       </c>
       <c r="C209">
         <v>19623.7</v>
@@ -3932,7 +3932,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>251.7690759030636</v>
+        <v>253.3245925925926</v>
       </c>
       <c r="C210">
         <v>19708.4</v>
@@ -3949,7 +3949,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>251.6893440024387</v>
+        <v>253.3005679012346</v>
       </c>
       <c r="C211">
         <v>19794.5</v>
@@ -3966,7 +3966,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>251.7089675862419</v>
+        <v>253.2402016460906</v>
       </c>
       <c r="C212">
         <v>19881.7</v>
@@ -3983,7 +3983,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>251.7224624972481</v>
+        <v>253.2884540466393</v>
       </c>
       <c r="C213">
         <v>19970</v>
@@ -4000,7 +4000,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>251.7069246953095</v>
+        <v>253.2764078646548</v>
       </c>
       <c r="C214">
         <v>20059.6</v>
@@ -4017,7 +4017,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>251.7127849262665</v>
+        <v>253.2683545191282</v>
       </c>
       <c r="C215">
         <v>20149.6</v>
@@ -4034,7 +4034,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>251.7140573729414</v>
+        <v>253.2777388101408</v>
       </c>
       <c r="C216">
         <v>20240.9</v>
@@ -4051,7 +4051,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>251.7112556648391</v>
+        <v>253.2741670646413</v>
       </c>
       <c r="C217">
         <v>20333.5</v>
@@ -4068,7 +4068,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>251.712699321349</v>
+        <v>253.2734201313034</v>
       </c>
       <c r="C218">
         <v>20427.1</v>
@@ -4085,7 +4085,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>251.7126707863765</v>
+        <v>253.2751086686951</v>
       </c>
       <c r="C219">
         <v>20520.9</v>
@@ -4102,7 +4102,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>251.7122085908549</v>
+        <v>253.2742319548799</v>
       </c>
       <c r="C220">
         <v>20615.2</v>
@@ -4119,7 +4119,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>251.7125262328601</v>
+        <v>253.2742535849595</v>
       </c>
       <c r="C221">
         <v>20710</v>
@@ -4136,7 +4136,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>251.7124685366972</v>
+        <v>253.2745314028448</v>
       </c>
       <c r="C222">
         <v>20805</v>
@@ -4153,7 +4153,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>251.7124011201374</v>
+        <v>253.2743389808948</v>
       </c>
       <c r="C223">
         <v>20899.5</v>
@@ -4170,7 +4170,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>251.7124652965649</v>
+        <v>253.274374656233</v>
       </c>
       <c r="C224">
         <v>20994.1</v>
@@ -4187,7 +4187,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>251.7124449844665</v>
+        <v>253.2744150133242</v>
       </c>
       <c r="C225">
         <v>21088.7</v>
@@ -4204,7 +4204,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>251.7124371337229</v>
+        <v>253.2743762168173</v>
       </c>
       <c r="C226">
         <v>21183.2</v>
@@ -4221,7 +4221,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>251.7124491382514</v>
+        <v>253.2743886287915</v>
       </c>
       <c r="C227">
         <v>21277.3</v>
@@ -4238,7 +4238,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>251.712443752147</v>
+        <v>253.274393286311</v>
       </c>
       <c r="C228">
         <v>21371.1</v>
@@ -4255,7 +4255,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>251.7124433413738</v>
+        <v>253.2743860439733</v>
       </c>
       <c r="C229">
         <v>21465.2</v>
@@ -4272,7 +4272,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>251.7124454105907</v>
+        <v>253.274389319692</v>
       </c>
       <c r="C230">
         <v>21559.9</v>
@@ -4289,7 +4289,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>251.7124441680371</v>
+        <v>253.2743895499921</v>
       </c>
       <c r="C231">
         <v>21654.9</v>
@@ -4306,7 +4306,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>251.7124443066672</v>
+        <v>253.2743883045525</v>
       </c>
       <c r="C232">
         <v>21750.6</v>
@@ -4323,7 +4323,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>251.7124446284317</v>
+        <v>253.2743890580788</v>
       </c>
       <c r="C233">
         <v>21847.3</v>
@@ -4340,7 +4340,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>251.712444367712</v>
+        <v>253.2743889708745</v>
       </c>
       <c r="C234">
         <v>21944.5</v>
@@ -4357,7 +4357,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>251.7124444342703</v>
+        <v>253.2743887778352</v>
       </c>
       <c r="C235">
         <v>22042.9</v>
@@ -4374,7 +4374,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>251.7124444768047</v>
+        <v>253.2743889355962</v>
       </c>
       <c r="C236">
         <v>22142.1</v>
@@ -4391,7 +4391,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>251.7124444262623</v>
+        <v>253.2743888947686</v>
       </c>
       <c r="C237">
         <v>22242.1</v>
@@ -4408,7 +4408,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>251.7124444457791</v>
+        <v>253.2743888694</v>
       </c>
       <c r="C238">
         <v>22342.8</v>
@@ -4425,7 +4425,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>251.7124444496154</v>
+        <v>253.2743888999216</v>
       </c>
       <c r="C239">
         <v>22444</v>
@@ -4442,7 +4442,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>251.7124444405523</v>
+        <v>253.2743888880301</v>
       </c>
       <c r="C240">
         <v>22544.9</v>
@@ -4459,7 +4459,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>251.7124444453156</v>
+        <v>253.2743888857839</v>
       </c>
       <c r="C241">
         <v>22645.8</v>
@@ -4476,7 +4476,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>251.7124444451611</v>
+        <v>253.2743888912452</v>
       </c>
       <c r="C242">
         <v>22746.7</v>
@@ -4493,7 +4493,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>251.7124444436763</v>
+        <v>253.2743888883531</v>
       </c>
       <c r="C243">
         <v>22847.3</v>
@@ -4510,7 +4510,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>251.7124444447177</v>
+        <v>253.2743888884607</v>
       </c>
       <c r="C244">
         <v>22947.4</v>
@@ -4527,7 +4527,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>251.7124444445184</v>
+        <v>253.274388889353</v>
       </c>
       <c r="C245">
         <v>23047.2</v>

--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +390,21 @@
           <t>recessq</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lasgova</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lalgova</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cpgs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -399,13 +414,22 @@
         <v>38.3</v>
       </c>
       <c r="C2">
-        <v>4960</v>
+        <v>4940.7</v>
       </c>
       <c r="D2">
-        <v>1056.2</v>
+        <v>1052.1</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2613.333333333334</v>
+      </c>
+      <c r="G2">
+        <v>7048.666666666667</v>
+      </c>
+      <c r="H2">
+        <v>23545.66666666667</v>
       </c>
     </row>
     <row r="3">
@@ -416,13 +440,22 @@
         <v>38.83333333333334</v>
       </c>
       <c r="C3">
-        <v>4999.8</v>
+        <v>4982</v>
       </c>
       <c r="D3">
-        <v>1079.5</v>
+        <v>1075.7</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2648.333333333334</v>
+      </c>
+      <c r="G3">
+        <v>7104.333333333333</v>
+      </c>
+      <c r="H3">
+        <v>24037</v>
       </c>
     </row>
     <row r="4">
@@ -433,13 +466,22 @@
         <v>39.23333333333334</v>
       </c>
       <c r="C4">
-        <v>5038.1</v>
+        <v>5021.9</v>
       </c>
       <c r="D4">
-        <v>1096.7</v>
+        <v>1093.2</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2681.666666666667</v>
+      </c>
+      <c r="G4">
+        <v>7204.333333333333</v>
+      </c>
+      <c r="H4">
+        <v>25485.66666666667</v>
       </c>
     </row>
     <row r="5">
@@ -450,13 +492,22 @@
         <v>39.8</v>
       </c>
       <c r="C5">
-        <v>5075.2</v>
+        <v>5060.8</v>
       </c>
       <c r="D5">
-        <v>1119.4</v>
+        <v>1116.2</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2716.333333333334</v>
+      </c>
+      <c r="G5">
+        <v>7279.333333333333</v>
+      </c>
+      <c r="H5">
+        <v>25754.66666666667</v>
       </c>
     </row>
     <row r="6">
@@ -467,13 +518,22 @@
         <v>40.16666666666667</v>
       </c>
       <c r="C6">
-        <v>5112.2</v>
+        <v>5099.9</v>
       </c>
       <c r="D6">
-        <v>1144.7</v>
+        <v>1142</v>
       </c>
       <c r="E6">
         <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>2719.333333333334</v>
+      </c>
+      <c r="G6">
+        <v>7353.333333333333</v>
+      </c>
+      <c r="H6">
+        <v>25713</v>
       </c>
     </row>
     <row r="7">
@@ -484,13 +544,22 @@
         <v>40.53333333333334</v>
       </c>
       <c r="C7">
-        <v>5149.9</v>
+        <v>5139.7</v>
       </c>
       <c r="D7">
-        <v>1168.3</v>
+        <v>1165.9</v>
       </c>
       <c r="E7">
         <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>2739.666666666667</v>
+      </c>
+      <c r="G7">
+        <v>7419.666666666667</v>
+      </c>
+      <c r="H7">
+        <v>25998.66666666667</v>
       </c>
     </row>
     <row r="8">
@@ -501,13 +570,22 @@
         <v>40.96666666666667</v>
       </c>
       <c r="C8">
-        <v>5188.1</v>
+        <v>5180</v>
       </c>
       <c r="D8">
-        <v>1188.9</v>
+        <v>1187.1</v>
       </c>
       <c r="E8">
         <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>2751.666666666667</v>
+      </c>
+      <c r="G8">
+        <v>7443.666666666667</v>
+      </c>
+      <c r="H8">
+        <v>25691</v>
       </c>
     </row>
     <row r="9">
@@ -518,13 +596,22 @@
         <v>41.23333333333334</v>
       </c>
       <c r="C9">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="D9">
-        <v>1207.8</v>
+        <v>1206.4</v>
       </c>
       <c r="E9">
         <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>2781</v>
+      </c>
+      <c r="G9">
+        <v>7534</v>
+      </c>
+      <c r="H9">
+        <v>26178.66666666667</v>
       </c>
     </row>
     <row r="10">
@@ -535,13 +622,22 @@
         <v>41.6</v>
       </c>
       <c r="C10">
-        <v>5266.6</v>
+        <v>5262.8</v>
       </c>
       <c r="D10">
-        <v>1235.4</v>
+        <v>1234.6</v>
       </c>
       <c r="E10">
         <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>2815</v>
+      </c>
+      <c r="G10">
+        <v>7651.666666666667</v>
+      </c>
+      <c r="H10">
+        <v>25519</v>
       </c>
     </row>
     <row r="11">
@@ -552,13 +648,22 @@
         <v>41.8</v>
       </c>
       <c r="C11">
-        <v>5306.7</v>
+        <v>5305.2</v>
       </c>
       <c r="D11">
-        <v>1252.6</v>
+        <v>1252.3</v>
       </c>
       <c r="E11">
         <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>2849</v>
+      </c>
+      <c r="G11">
+        <v>7726.333333333333</v>
+      </c>
+      <c r="H11">
+        <v>24875</v>
       </c>
     </row>
     <row r="12">
@@ -569,13 +674,22 @@
         <v>42.2</v>
       </c>
       <c r="C12">
-        <v>5347.4</v>
+        <v>5348.2</v>
       </c>
       <c r="D12">
-        <v>1274.3</v>
+        <v>1274.5</v>
       </c>
       <c r="E12">
         <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>2874</v>
+      </c>
+      <c r="G12">
+        <v>7855</v>
+      </c>
+      <c r="H12">
+        <v>25641</v>
       </c>
     </row>
     <row r="13">
@@ -586,13 +700,22 @@
         <v>42.63333333333333</v>
       </c>
       <c r="C13">
-        <v>5388.7</v>
+        <v>5391.9</v>
       </c>
       <c r="D13">
-        <v>1300.5</v>
+        <v>1301.3</v>
       </c>
       <c r="E13">
         <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>2901.333333333334</v>
+      </c>
+      <c r="G13">
+        <v>7931.333333333333</v>
+      </c>
+      <c r="H13">
+        <v>27114.33333333333</v>
       </c>
     </row>
     <row r="14">
@@ -603,13 +726,22 @@
         <v>43.26666666666667</v>
       </c>
       <c r="C14">
-        <v>5431.5</v>
+        <v>5436.6</v>
       </c>
       <c r="D14">
-        <v>1325.9</v>
+        <v>1327.2</v>
       </c>
       <c r="E14">
         <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>2899.666666666667</v>
+      </c>
+      <c r="G14">
+        <v>8016</v>
+      </c>
+      <c r="H14">
+        <v>27472.66666666667</v>
       </c>
     </row>
     <row r="15">
@@ -620,13 +752,22 @@
         <v>44.16666666666666</v>
       </c>
       <c r="C15">
-        <v>5476.9</v>
+        <v>5483.5</v>
       </c>
       <c r="D15">
-        <v>1357.6</v>
+        <v>1359.2</v>
       </c>
       <c r="E15">
         <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>2911.666666666667</v>
+      </c>
+      <c r="G15">
+        <v>8115</v>
+      </c>
+      <c r="H15">
+        <v>27079.33333333333</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +778,22 @@
         <v>45.06666666666666</v>
       </c>
       <c r="C16">
-        <v>5523.2</v>
+        <v>5530.8</v>
       </c>
       <c r="D16">
-        <v>1395.7</v>
+        <v>1397.6</v>
       </c>
       <c r="E16">
         <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>2926.333333333334</v>
+      </c>
+      <c r="G16">
+        <v>8183.666666666667</v>
+      </c>
+      <c r="H16">
+        <v>27510</v>
       </c>
     </row>
     <row r="17">
@@ -654,13 +804,22 @@
         <v>46.16666666666666</v>
       </c>
       <c r="C17">
-        <v>5571</v>
+        <v>5579.2</v>
       </c>
       <c r="D17">
-        <v>1435.8</v>
+        <v>1437.9</v>
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2953.333333333334</v>
+      </c>
+      <c r="G17">
+        <v>8272.333333333334</v>
+      </c>
+      <c r="H17">
+        <v>28620</v>
       </c>
     </row>
     <row r="18">
@@ -671,13 +830,22 @@
         <v>47.56666666666666</v>
       </c>
       <c r="C18">
-        <v>5619.7</v>
+        <v>5628.2</v>
       </c>
       <c r="D18">
-        <v>1475.7</v>
+        <v>1477.9</v>
       </c>
       <c r="E18">
         <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2988.666666666667</v>
+      </c>
+      <c r="G18">
+        <v>8307.666666666666</v>
+      </c>
+      <c r="H18">
+        <v>30923.66666666667</v>
       </c>
     </row>
     <row r="19">
@@ -688,13 +856,22 @@
         <v>48.76666666666667</v>
       </c>
       <c r="C19">
-        <v>5669.1</v>
+        <v>5677.5</v>
       </c>
       <c r="D19">
-        <v>1523.9</v>
+        <v>1526.2</v>
       </c>
       <c r="E19">
         <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3018</v>
+      </c>
+      <c r="G19">
+        <v>8346.333333333334</v>
+      </c>
+      <c r="H19">
+        <v>33400.66666666666</v>
       </c>
     </row>
     <row r="20">
@@ -705,13 +882,22 @@
         <v>50.23333333333334</v>
       </c>
       <c r="C20">
-        <v>5718.1</v>
+        <v>5726.2</v>
       </c>
       <c r="D20">
-        <v>1582</v>
+        <v>1584.3</v>
       </c>
       <c r="E20">
         <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3048.333333333334</v>
+      </c>
+      <c r="G20">
+        <v>8424.666666666666</v>
+      </c>
+      <c r="H20">
+        <v>33701.66666666666</v>
       </c>
     </row>
     <row r="21">
@@ -722,13 +908,22 @@
         <v>51.76666666666667</v>
       </c>
       <c r="C21">
-        <v>5766.6</v>
+        <v>5774.2</v>
       </c>
       <c r="D21">
-        <v>1642.5</v>
+        <v>1644.6</v>
       </c>
       <c r="E21">
         <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3099</v>
+      </c>
+      <c r="G21">
+        <v>8551.333333333334</v>
+      </c>
+      <c r="H21">
+        <v>33884</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +934,22 @@
         <v>52.86666666666667</v>
       </c>
       <c r="C22">
-        <v>5814</v>
+        <v>5820.9</v>
       </c>
       <c r="D22">
-        <v>1693.5</v>
+        <v>1695.5</v>
       </c>
       <c r="E22">
         <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3161.666666666667</v>
+      </c>
+      <c r="G22">
+        <v>8673</v>
+      </c>
+      <c r="H22">
+        <v>37820.33333333334</v>
       </c>
     </row>
     <row r="23">
@@ -756,13 +960,22 @@
         <v>53.5</v>
       </c>
       <c r="C23">
-        <v>5860.5</v>
+        <v>5866.7</v>
       </c>
       <c r="D23">
-        <v>1732.5</v>
+        <v>1734.3</v>
       </c>
       <c r="E23">
         <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>3177.333333333334</v>
+      </c>
+      <c r="G23">
+        <v>8751.333333333334</v>
+      </c>
+      <c r="H23">
+        <v>35429.66666666666</v>
       </c>
     </row>
     <row r="24">
@@ -773,13 +986,22 @@
         <v>54.56666666666666</v>
       </c>
       <c r="C24">
-        <v>5906.6</v>
+        <v>5912</v>
       </c>
       <c r="D24">
-        <v>1776.9</v>
+        <v>1778.6</v>
       </c>
       <c r="E24">
         <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>3178</v>
+      </c>
+      <c r="G24">
+        <v>8786.333333333334</v>
+      </c>
+      <c r="H24">
+        <v>36988.33333333334</v>
       </c>
     </row>
     <row r="25">
@@ -790,13 +1012,22 @@
         <v>55.56666666666667</v>
       </c>
       <c r="C25">
-        <v>5952.7</v>
+        <v>5957.4</v>
       </c>
       <c r="D25">
-        <v>1820.7</v>
+        <v>1822.2</v>
       </c>
       <c r="E25">
         <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>3197.333333333334</v>
+      </c>
+      <c r="G25">
+        <v>8824.666666666666</v>
+      </c>
+      <c r="H25">
+        <v>39554</v>
       </c>
     </row>
     <row r="26">
@@ -807,13 +1038,22 @@
         <v>56.23333333333333</v>
       </c>
       <c r="C26">
-        <v>5998.7</v>
+        <v>6002.8</v>
       </c>
       <c r="D26">
-        <v>1854.3</v>
+        <v>1855.5</v>
       </c>
       <c r="E26">
         <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>3214.333333333334</v>
+      </c>
+      <c r="G26">
+        <v>8883</v>
+      </c>
+      <c r="H26">
+        <v>42554</v>
       </c>
     </row>
     <row r="27">
@@ -824,13 +1064,22 @@
         <v>56.73333333333333</v>
       </c>
       <c r="C27">
-        <v>6045.6</v>
+        <v>6048.9</v>
       </c>
       <c r="D27">
-        <v>1887.5</v>
+        <v>1888.6</v>
       </c>
       <c r="E27">
         <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>3241.666666666667</v>
+      </c>
+      <c r="G27">
+        <v>8868.666666666666</v>
+      </c>
+      <c r="H27">
+        <v>38830.66666666666</v>
       </c>
     </row>
     <row r="28">
@@ -841,13 +1090,22 @@
         <v>57.6</v>
       </c>
       <c r="C28">
-        <v>6093.8</v>
+        <v>6096.4</v>
       </c>
       <c r="D28">
-        <v>1927.2</v>
+        <v>1928.1</v>
       </c>
       <c r="E28">
         <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>3290.666666666667</v>
+      </c>
+      <c r="G28">
+        <v>8845</v>
+      </c>
+      <c r="H28">
+        <v>36130</v>
       </c>
     </row>
     <row r="29">
@@ -858,13 +1116,22 @@
         <v>58.43333333333334</v>
       </c>
       <c r="C29">
-        <v>6142.8</v>
+        <v>6144.7</v>
       </c>
       <c r="D29">
-        <v>1977.5</v>
+        <v>1978.1</v>
       </c>
       <c r="E29">
         <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>3342</v>
+      </c>
+      <c r="G29">
+        <v>8861</v>
+      </c>
+      <c r="H29">
+        <v>34359.66666666666</v>
       </c>
     </row>
     <row r="30">
@@ -875,13 +1142,22 @@
         <v>59.53333333333333</v>
       </c>
       <c r="C30">
-        <v>6193.4</v>
+        <v>6194.5</v>
       </c>
       <c r="D30">
-        <v>2025.9</v>
+        <v>2026.2</v>
       </c>
       <c r="E30">
         <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>3341.333333333334</v>
+      </c>
+      <c r="G30">
+        <v>8860.666666666666</v>
+      </c>
+      <c r="H30">
+        <v>36034</v>
       </c>
     </row>
     <row r="31">
@@ -892,13 +1168,22 @@
         <v>60.6</v>
       </c>
       <c r="C31">
-        <v>6245.2</v>
+        <v>6245.6</v>
       </c>
       <c r="D31">
-        <v>2071.7</v>
+        <v>2071.8</v>
       </c>
       <c r="E31">
         <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>3374.666666666667</v>
+      </c>
+      <c r="G31">
+        <v>8907.333333333334</v>
+      </c>
+      <c r="H31">
+        <v>37037.66666666666</v>
       </c>
     </row>
     <row r="32">
@@ -909,13 +1194,22 @@
         <v>61.43333333333334</v>
       </c>
       <c r="C32">
-        <v>6297.7</v>
+        <v>6297.4</v>
       </c>
       <c r="D32">
-        <v>2114.5</v>
+        <v>2114.4</v>
       </c>
       <c r="E32">
         <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>3385</v>
+      </c>
+      <c r="G32">
+        <v>9099.333333333334</v>
+      </c>
+      <c r="H32">
+        <v>35666.33333333334</v>
       </c>
     </row>
     <row r="33">
@@ -926,13 +1220,22 @@
         <v>62.26666666666666</v>
       </c>
       <c r="C33">
-        <v>6351.7</v>
+        <v>6350.6</v>
       </c>
       <c r="D33">
-        <v>2178.7</v>
+        <v>2178.3</v>
       </c>
       <c r="E33">
         <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>3404.666666666667</v>
+      </c>
+      <c r="G33">
+        <v>9231</v>
+      </c>
+      <c r="H33">
+        <v>35160</v>
       </c>
     </row>
     <row r="34">
@@ -943,13 +1246,22 @@
         <v>63.36666666666667</v>
       </c>
       <c r="C34">
-        <v>6407</v>
+        <v>6405.2</v>
       </c>
       <c r="D34">
-        <v>2229.7</v>
+        <v>2229</v>
       </c>
       <c r="E34">
         <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>3442.333333333334</v>
+      </c>
+      <c r="G34">
+        <v>9348.333333333334</v>
+      </c>
+      <c r="H34">
+        <v>34095.33333333334</v>
       </c>
     </row>
     <row r="35">
@@ -960,13 +1272,22 @@
         <v>64.76666666666667</v>
       </c>
       <c r="C35">
-        <v>6463.4</v>
+        <v>6460.8</v>
       </c>
       <c r="D35">
-        <v>2292.2</v>
+        <v>2291.3</v>
       </c>
       <c r="E35">
         <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>3479</v>
+      </c>
+      <c r="G35">
+        <v>9466</v>
+      </c>
+      <c r="H35">
+        <v>41889.66666666666</v>
       </c>
     </row>
     <row r="36">
@@ -977,13 +1298,22 @@
         <v>66.23333333333333</v>
       </c>
       <c r="C36">
-        <v>6521.2</v>
+        <v>6518</v>
       </c>
       <c r="D36">
-        <v>2352.1</v>
+        <v>2350.9</v>
       </c>
       <c r="E36">
         <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>3477.333333333334</v>
+      </c>
+      <c r="G36">
+        <v>9492.333333333334</v>
+      </c>
+      <c r="H36">
+        <v>43760.66666666666</v>
       </c>
     </row>
     <row r="37">
@@ -994,13 +1324,22 @@
         <v>67.83333333333333</v>
       </c>
       <c r="C37">
-        <v>6580.1</v>
+        <v>6576.2</v>
       </c>
       <c r="D37">
-        <v>2421.8</v>
+        <v>2420.4</v>
       </c>
       <c r="E37">
         <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>3494</v>
+      </c>
+      <c r="G37">
+        <v>9482.666666666666</v>
+      </c>
+      <c r="H37">
+        <v>45015.33333333334</v>
       </c>
     </row>
     <row r="38">
@@ -1011,13 +1350,22 @@
         <v>69.56666666666666</v>
       </c>
       <c r="C38">
-        <v>6640.6</v>
+        <v>6636</v>
       </c>
       <c r="D38">
-        <v>2488.7</v>
+        <v>2486.9</v>
       </c>
       <c r="E38">
         <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>3504.333333333334</v>
+      </c>
+      <c r="G38">
+        <v>9531.333333333334</v>
+      </c>
+      <c r="H38">
+        <v>40794</v>
       </c>
     </row>
     <row r="39">
@@ -1028,13 +1376,22 @@
         <v>71.89999999999999</v>
       </c>
       <c r="C39">
-        <v>6697.9</v>
+        <v>6693.8</v>
       </c>
       <c r="D39">
-        <v>2571.5</v>
+        <v>2570</v>
       </c>
       <c r="E39">
         <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>3518</v>
+      </c>
+      <c r="G39">
+        <v>9604.333333333334</v>
+      </c>
+      <c r="H39">
+        <v>45875.33333333334</v>
       </c>
     </row>
     <row r="40">
@@ -1045,13 +1402,22 @@
         <v>74.23333333333333</v>
       </c>
       <c r="C40">
-        <v>6750.5</v>
+        <v>6748.7</v>
       </c>
       <c r="D40">
-        <v>2648.5</v>
+        <v>2647.8</v>
       </c>
       <c r="E40">
         <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>3560.666666666667</v>
+      </c>
+      <c r="G40">
+        <v>9710.666666666666</v>
+      </c>
+      <c r="H40">
+        <v>49343.66666666666</v>
       </c>
     </row>
     <row r="41">
@@ -1062,13 +1428,22 @@
         <v>76.5</v>
       </c>
       <c r="C41">
-        <v>6798</v>
+        <v>6800.2</v>
       </c>
       <c r="D41">
-        <v>2716.6</v>
+        <v>2717.5</v>
       </c>
       <c r="E41">
         <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>3579.333333333334</v>
+      </c>
+      <c r="G41">
+        <v>9697.333333333334</v>
+      </c>
+      <c r="H41">
+        <v>52609</v>
       </c>
     </row>
     <row r="42">
@@ -1079,13 +1454,22 @@
         <v>79.5</v>
       </c>
       <c r="C42">
-        <v>6839.7</v>
+        <v>6847.6</v>
       </c>
       <c r="D42">
-        <v>2790.7</v>
+        <v>2793.9</v>
       </c>
       <c r="E42">
         <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3582</v>
+      </c>
+      <c r="G42">
+        <v>9741.333333333334</v>
+      </c>
+      <c r="H42">
+        <v>55934.33333333334</v>
       </c>
     </row>
     <row r="43">
@@ -1096,13 +1480,22 @@
         <v>82.2</v>
       </c>
       <c r="C43">
-        <v>6874.8</v>
+        <v>6890.3</v>
       </c>
       <c r="D43">
-        <v>2871.8</v>
+        <v>2878.2</v>
       </c>
       <c r="E43">
         <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3602.666666666667</v>
+      </c>
+      <c r="G43">
+        <v>9749.333333333334</v>
+      </c>
+      <c r="H43">
+        <v>54112</v>
       </c>
     </row>
     <row r="44">
@@ -1113,13 +1506,22 @@
         <v>83.73333333333333</v>
       </c>
       <c r="C44">
-        <v>6903.2</v>
+        <v>6928.3</v>
       </c>
       <c r="D44">
-        <v>2948.1</v>
+        <v>2958.8</v>
       </c>
       <c r="E44">
         <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3624</v>
+      </c>
+      <c r="G44">
+        <v>9782.333333333334</v>
+      </c>
+      <c r="H44">
+        <v>52797</v>
       </c>
     </row>
     <row r="45">
@@ -1130,13 +1532,22 @@
         <v>86.16666666666667</v>
       </c>
       <c r="C45">
-        <v>6934.7</v>
+        <v>6968.3</v>
       </c>
       <c r="D45">
-        <v>3038.7</v>
+        <v>3053.4</v>
       </c>
       <c r="E45">
         <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>3630.666666666667</v>
+      </c>
+      <c r="G45">
+        <v>9793</v>
+      </c>
+      <c r="H45">
+        <v>54381</v>
       </c>
     </row>
     <row r="46">
@@ -1147,13 +1558,22 @@
         <v>88.46666666666665</v>
       </c>
       <c r="C46">
-        <v>6971.9</v>
+        <v>7012.5</v>
       </c>
       <c r="D46">
-        <v>3135.4</v>
+        <v>3153.6</v>
       </c>
       <c r="E46">
         <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>3636</v>
+      </c>
+      <c r="G46">
+        <v>9750.333333333334</v>
+      </c>
+      <c r="H46">
+        <v>60484</v>
       </c>
     </row>
     <row r="47">
@@ -1164,13 +1584,22 @@
         <v>90.23333333333335</v>
       </c>
       <c r="C47">
-        <v>7013.8</v>
+        <v>7059.7</v>
       </c>
       <c r="D47">
-        <v>3216.7</v>
+        <v>3237.8</v>
       </c>
       <c r="E47">
         <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>3631.666666666667</v>
+      </c>
+      <c r="G47">
+        <v>9665</v>
+      </c>
+      <c r="H47">
+        <v>53862</v>
       </c>
     </row>
     <row r="48">
@@ -1181,13 +1610,22 @@
         <v>92.73333333333333</v>
       </c>
       <c r="C48">
-        <v>7059.8</v>
+        <v>7109.5</v>
       </c>
       <c r="D48">
-        <v>3298.8</v>
+        <v>3322</v>
       </c>
       <c r="E48">
         <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3640</v>
+      </c>
+      <c r="G48">
+        <v>9547.666666666666</v>
+      </c>
+      <c r="H48">
+        <v>52044</v>
       </c>
     </row>
     <row r="49">
@@ -1198,13 +1636,22 @@
         <v>94.16666666666667</v>
       </c>
       <c r="C49">
-        <v>7109.7</v>
+        <v>7161.9</v>
       </c>
       <c r="D49">
-        <v>3379.5</v>
+        <v>3404.3</v>
       </c>
       <c r="E49">
         <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3653</v>
+      </c>
+      <c r="G49">
+        <v>9507</v>
+      </c>
+      <c r="H49">
+        <v>54313.66666666666</v>
       </c>
     </row>
     <row r="50">
@@ -1215,13 +1662,22 @@
         <v>94.96666666666665</v>
       </c>
       <c r="C50">
-        <v>7163</v>
+        <v>7216.2</v>
       </c>
       <c r="D50">
-        <v>3451.7</v>
+        <v>3477.3</v>
       </c>
       <c r="E50">
         <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3645.666666666667</v>
+      </c>
+      <c r="G50">
+        <v>9484.333333333334</v>
+      </c>
+      <c r="H50">
+        <v>51944</v>
       </c>
     </row>
     <row r="51">
@@ -1232,13 +1688,22 @@
         <v>96.23333333333333</v>
       </c>
       <c r="C51">
-        <v>7218.8</v>
+        <v>7271.9</v>
       </c>
       <c r="D51">
-        <v>3523.8</v>
+        <v>3549.7</v>
       </c>
       <c r="E51">
         <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3647.333333333334</v>
+      </c>
+      <c r="G51">
+        <v>9495.666666666666</v>
+      </c>
+      <c r="H51">
+        <v>52182.66666666666</v>
       </c>
     </row>
     <row r="52">
@@ -1249,13 +1714,22 @@
         <v>98</v>
       </c>
       <c r="C52">
-        <v>7276.9</v>
+        <v>7328.5</v>
       </c>
       <c r="D52">
-        <v>3602.5</v>
+        <v>3628</v>
       </c>
       <c r="E52">
         <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3625.666666666667</v>
+      </c>
+      <c r="G52">
+        <v>9409.666666666666</v>
+      </c>
+      <c r="H52">
+        <v>52486.33333333334</v>
       </c>
     </row>
     <row r="53">
@@ -1266,13 +1740,22 @@
         <v>98.33333333333333</v>
       </c>
       <c r="C53">
-        <v>7337</v>
+        <v>7386.2</v>
       </c>
       <c r="D53">
-        <v>3670</v>
+        <v>3694.6</v>
       </c>
       <c r="E53">
         <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3640.333333333334</v>
+      </c>
+      <c r="G53">
+        <v>9437</v>
+      </c>
+      <c r="H53">
+        <v>54765.33333333334</v>
       </c>
     </row>
     <row r="54">
@@ -1283,13 +1766,22 @@
         <v>98.3</v>
       </c>
       <c r="C54">
-        <v>7397.1</v>
+        <v>7443.9</v>
       </c>
       <c r="D54">
-        <v>3727.9</v>
+        <v>3751.5</v>
       </c>
       <c r="E54">
         <v>-1</v>
+      </c>
+      <c r="F54">
+        <v>3650.333333333334</v>
+      </c>
+      <c r="G54">
+        <v>9447.333333333334</v>
+      </c>
+      <c r="H54">
+        <v>52678.33333333334</v>
       </c>
     </row>
     <row r="55">
@@ -1300,13 +1792,22 @@
         <v>99.43333333333334</v>
       </c>
       <c r="C55">
-        <v>7458.6</v>
+        <v>7502.9</v>
       </c>
       <c r="D55">
-        <v>3786.8</v>
+        <v>3809.3</v>
       </c>
       <c r="E55">
         <v>-1</v>
+      </c>
+      <c r="F55">
+        <v>3656</v>
+      </c>
+      <c r="G55">
+        <v>9445.333333333334</v>
+      </c>
+      <c r="H55">
+        <v>51386</v>
       </c>
     </row>
     <row r="56">
@@ -1317,13 +1818,22 @@
         <v>100.4</v>
       </c>
       <c r="C56">
-        <v>7521.8</v>
+        <v>7563.6</v>
       </c>
       <c r="D56">
-        <v>3859.5</v>
+        <v>3881</v>
       </c>
       <c r="E56">
         <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>3671.333333333334</v>
+      </c>
+      <c r="G56">
+        <v>9433</v>
+      </c>
+      <c r="H56">
+        <v>53662.33333333334</v>
       </c>
     </row>
     <row r="57">
@@ -1334,13 +1844,22 @@
         <v>101.1666666666667</v>
       </c>
       <c r="C57">
-        <v>7587.4</v>
+        <v>7626.8</v>
       </c>
       <c r="D57">
-        <v>3922.7</v>
+        <v>3943</v>
       </c>
       <c r="E57">
         <v>-1</v>
+      </c>
+      <c r="F57">
+        <v>3671.666666666667</v>
+      </c>
+      <c r="G57">
+        <v>9401.666666666666</v>
+      </c>
+      <c r="H57">
+        <v>53249</v>
       </c>
     </row>
     <row r="58">
@@ -1351,13 +1870,22 @@
         <v>101.9333333333333</v>
       </c>
       <c r="C58">
-        <v>7655.5</v>
+        <v>7692.5</v>
       </c>
       <c r="D58">
-        <v>3998</v>
+        <v>4017.3</v>
       </c>
       <c r="E58">
         <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>3687</v>
+      </c>
+      <c r="G58">
+        <v>9412</v>
+      </c>
+      <c r="H58">
+        <v>55752.33333333334</v>
       </c>
     </row>
     <row r="59">
@@ -1368,13 +1896,22 @@
         <v>102.4666666666667</v>
       </c>
       <c r="C59">
-        <v>7725.9</v>
+        <v>7760.5</v>
       </c>
       <c r="D59">
-        <v>4069.2</v>
+        <v>4087.5</v>
       </c>
       <c r="E59">
         <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>3720</v>
+      </c>
+      <c r="G59">
+        <v>9445.333333333334</v>
+      </c>
+      <c r="H59">
+        <v>57382.66666666666</v>
       </c>
     </row>
     <row r="60">
@@ -1385,13 +1922,22 @@
         <v>103.9333333333333</v>
       </c>
       <c r="C60">
-        <v>7798</v>
+        <v>7830.2</v>
       </c>
       <c r="D60">
-        <v>4143.8</v>
+        <v>4160.9</v>
       </c>
       <c r="E60">
         <v>-1</v>
+      </c>
+      <c r="F60">
+        <v>3758</v>
+      </c>
+      <c r="G60">
+        <v>9509</v>
+      </c>
+      <c r="H60">
+        <v>59910.33333333334</v>
       </c>
     </row>
     <row r="61">
@@ -1402,13 +1948,22 @@
         <v>104.8</v>
       </c>
       <c r="C61">
-        <v>7871.4</v>
+        <v>7901.2</v>
       </c>
       <c r="D61">
-        <v>4214</v>
+        <v>4230</v>
       </c>
       <c r="E61">
         <v>-1</v>
+      </c>
+      <c r="F61">
+        <v>3773</v>
+      </c>
+      <c r="G61">
+        <v>9555</v>
+      </c>
+      <c r="H61">
+        <v>60890.66666666666</v>
       </c>
     </row>
     <row r="62">
@@ -1419,13 +1974,22 @@
         <v>105.6666666666667</v>
       </c>
       <c r="C62">
-        <v>7945.2</v>
+        <v>7972.5</v>
       </c>
       <c r="D62">
-        <v>4295.6</v>
+        <v>4310.4</v>
       </c>
       <c r="E62">
         <v>-1</v>
+      </c>
+      <c r="F62">
+        <v>3798.333333333334</v>
+      </c>
+      <c r="G62">
+        <v>9595.666666666666</v>
+      </c>
+      <c r="H62">
+        <v>62514.66666666666</v>
       </c>
     </row>
     <row r="63">
@@ -1436,13 +2000,22 @@
         <v>106.6333333333333</v>
       </c>
       <c r="C63">
-        <v>8019.5</v>
+        <v>8044.2</v>
       </c>
       <c r="D63">
-        <v>4363.7</v>
+        <v>4377.1</v>
       </c>
       <c r="E63">
         <v>-1</v>
+      </c>
+      <c r="F63">
+        <v>3819.333333333334</v>
+      </c>
+      <c r="G63">
+        <v>9640.333333333334</v>
+      </c>
+      <c r="H63">
+        <v>65739.33333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1453,13 +2026,22 @@
         <v>107.1333333333333</v>
       </c>
       <c r="C64">
-        <v>8093.9</v>
+        <v>8115.9</v>
       </c>
       <c r="D64">
-        <v>4430.7</v>
+        <v>4442.8</v>
       </c>
       <c r="E64">
         <v>-1</v>
+      </c>
+      <c r="F64">
+        <v>3844.333333333334</v>
+      </c>
+      <c r="G64">
+        <v>9746.666666666666</v>
+      </c>
+      <c r="H64">
+        <v>67220</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +2052,22 @@
         <v>108.2</v>
       </c>
       <c r="C65">
-        <v>8167.9</v>
+        <v>8187.2</v>
       </c>
       <c r="D65">
-        <v>4496.2</v>
+        <v>4506.8</v>
       </c>
       <c r="E65">
         <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>3864.333333333334</v>
+      </c>
+      <c r="G65">
+        <v>9764.333333333334</v>
+      </c>
+      <c r="H65">
+        <v>66558.33333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1487,13 +2078,22 @@
         <v>108.6666666666667</v>
       </c>
       <c r="C66">
-        <v>8241.299999999999</v>
+        <v>8257.9</v>
       </c>
       <c r="D66">
-        <v>4559.2</v>
+        <v>4568.4</v>
       </c>
       <c r="E66">
         <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>3872.333333333334</v>
+      </c>
+      <c r="G66">
+        <v>9815.333333333334</v>
+      </c>
+      <c r="H66">
+        <v>70815.33333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1504,13 +2104,22 @@
         <v>107.9333333333333</v>
       </c>
       <c r="C67">
-        <v>8314.4</v>
+        <v>8328.299999999999</v>
       </c>
       <c r="D67">
-        <v>4617</v>
+        <v>4624.7</v>
       </c>
       <c r="E67">
         <v>-1</v>
+      </c>
+      <c r="F67">
+        <v>3883</v>
+      </c>
+      <c r="G67">
+        <v>9854.333333333334</v>
+      </c>
+      <c r="H67">
+        <v>72215.33333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1521,13 +2130,22 @@
         <v>108.5</v>
       </c>
       <c r="C68">
-        <v>8387.5</v>
+        <v>8398.5</v>
       </c>
       <c r="D68">
-        <v>4676.8</v>
+        <v>4682.9</v>
       </c>
       <c r="E68">
         <v>-1</v>
+      </c>
+      <c r="F68">
+        <v>3889.333333333334</v>
+      </c>
+      <c r="G68">
+        <v>9906.666666666666</v>
+      </c>
+      <c r="H68">
+        <v>73843.33333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1538,13 +2156,22 @@
         <v>109.2</v>
       </c>
       <c r="C69">
-        <v>8460.4</v>
+        <v>8468.4</v>
       </c>
       <c r="D69">
-        <v>4743.1</v>
+        <v>4747.5</v>
       </c>
       <c r="E69">
         <v>-1</v>
+      </c>
+      <c r="F69">
+        <v>3926.666666666667</v>
+      </c>
+      <c r="G69">
+        <v>10024.33333333333</v>
+      </c>
+      <c r="H69">
+        <v>71122.66666666667</v>
       </c>
     </row>
     <row r="70">
@@ -1555,13 +2182,22 @@
         <v>110.6666666666667</v>
       </c>
       <c r="C70">
-        <v>8532.9</v>
+        <v>8537.9</v>
       </c>
       <c r="D70">
-        <v>4814.2</v>
+        <v>4817</v>
       </c>
       <c r="E70">
         <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>3943.666666666667</v>
+      </c>
+      <c r="G70">
+        <v>10039.33333333333</v>
+      </c>
+      <c r="H70">
+        <v>75290</v>
       </c>
     </row>
     <row r="71">
@@ -1572,13 +2208,22 @@
         <v>111.9666666666667</v>
       </c>
       <c r="C71">
-        <v>8604.9</v>
+        <v>8606.700000000001</v>
       </c>
       <c r="D71">
-        <v>4888.4</v>
+        <v>4889.4</v>
       </c>
       <c r="E71">
         <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>3953</v>
+      </c>
+      <c r="G71">
+        <v>10083.33333333333</v>
+      </c>
+      <c r="H71">
+        <v>75025.66666666667</v>
       </c>
     </row>
     <row r="72">
@@ -1589,13 +2234,22 @@
         <v>113.1666666666667</v>
       </c>
       <c r="C72">
-        <v>8676.5</v>
+        <v>8675.1</v>
       </c>
       <c r="D72">
-        <v>4966.4</v>
+        <v>4965.6</v>
       </c>
       <c r="E72">
         <v>-1</v>
+      </c>
+      <c r="F72">
+        <v>3969</v>
+      </c>
+      <c r="G72">
+        <v>10092.33333333333</v>
+      </c>
+      <c r="H72">
+        <v>77047</v>
       </c>
     </row>
     <row r="73">
@@ -1606,13 +2260,22 @@
         <v>114.1666666666667</v>
       </c>
       <c r="C73">
-        <v>8748.1</v>
+        <v>8743.5</v>
       </c>
       <c r="D73">
-        <v>5047.2</v>
+        <v>5044.5</v>
       </c>
       <c r="E73">
         <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>4000.666666666667</v>
+      </c>
+      <c r="G73">
+        <v>10184.66666666667</v>
+      </c>
+      <c r="H73">
+        <v>78058</v>
       </c>
     </row>
     <row r="74">
@@ -1623,13 +2286,22 @@
         <v>114.9333333333333</v>
       </c>
       <c r="C74">
-        <v>8819.1</v>
+        <v>8811.200000000001</v>
       </c>
       <c r="D74">
-        <v>5128.1</v>
+        <v>5123.5</v>
       </c>
       <c r="E74">
         <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>4030.666666666667</v>
+      </c>
+      <c r="G74">
+        <v>10250.66666666667</v>
+      </c>
+      <c r="H74">
+        <v>79349.66666666667</v>
       </c>
     </row>
     <row r="75">
@@ -1640,13 +2312,22 @@
         <v>116.2</v>
       </c>
       <c r="C75">
-        <v>8890.200000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="D75">
-        <v>5219.7</v>
+        <v>5213.1</v>
       </c>
       <c r="E75">
         <v>-1</v>
+      </c>
+      <c r="F75">
+        <v>4065.333333333334</v>
+      </c>
+      <c r="G75">
+        <v>10315.33333333333</v>
+      </c>
+      <c r="H75">
+        <v>83348</v>
       </c>
     </row>
     <row r="76">
@@ -1657,13 +2338,22 @@
         <v>117.7333333333333</v>
       </c>
       <c r="C76">
-        <v>8960.9</v>
+        <v>8946.299999999999</v>
       </c>
       <c r="D76">
-        <v>5324.1</v>
+        <v>5315.4</v>
       </c>
       <c r="E76">
         <v>-1</v>
+      </c>
+      <c r="F76">
+        <v>4094.333333333334</v>
+      </c>
+      <c r="G76">
+        <v>10341.66666666667</v>
+      </c>
+      <c r="H76">
+        <v>82022.66666666667</v>
       </c>
     </row>
     <row r="77">
@@ -1674,13 +2364,22 @@
         <v>118.9333333333333</v>
       </c>
       <c r="C77">
-        <v>9031.6</v>
+        <v>9013.700000000001</v>
       </c>
       <c r="D77">
-        <v>5412.5</v>
+        <v>5401.8</v>
       </c>
       <c r="E77">
         <v>-1</v>
+      </c>
+      <c r="F77">
+        <v>4114.666666666667</v>
+      </c>
+      <c r="G77">
+        <v>10446.66666666667</v>
+      </c>
+      <c r="H77">
+        <v>84604</v>
       </c>
     </row>
     <row r="78">
@@ -1691,13 +2390,22 @@
         <v>120.3666666666667</v>
       </c>
       <c r="C78">
-        <v>9102.1</v>
+        <v>9080.700000000001</v>
       </c>
       <c r="D78">
-        <v>5511.6</v>
+        <v>5498.7</v>
       </c>
       <c r="E78">
         <v>-1</v>
+      </c>
+      <c r="F78">
+        <v>4135.666666666667</v>
+      </c>
+      <c r="G78">
+        <v>10510.66666666667</v>
+      </c>
+      <c r="H78">
+        <v>83566.66666666667</v>
       </c>
     </row>
     <row r="79">
@@ -1708,13 +2416,22 @@
         <v>122.4</v>
       </c>
       <c r="C79">
-        <v>9172.4</v>
+        <v>9147.6</v>
       </c>
       <c r="D79">
-        <v>5613.3</v>
+        <v>5598.2</v>
       </c>
       <c r="E79">
         <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>4169</v>
+      </c>
+      <c r="G79">
+        <v>10566.33333333333</v>
+      </c>
+      <c r="H79">
+        <v>85684</v>
       </c>
     </row>
     <row r="80">
@@ -1725,13 +2442,22 @@
         <v>123.2666666666667</v>
       </c>
       <c r="C80">
-        <v>9242.4</v>
+        <v>9214.200000000001</v>
       </c>
       <c r="D80">
-        <v>5697.6</v>
+        <v>5680.2</v>
       </c>
       <c r="E80">
         <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>4201.333333333333</v>
+      </c>
+      <c r="G80">
+        <v>10640.66666666667</v>
+      </c>
+      <c r="H80">
+        <v>85730.33333333333</v>
       </c>
     </row>
     <row r="81">
@@ -1742,13 +2468,22 @@
         <v>124.4</v>
       </c>
       <c r="C81">
-        <v>9311.6</v>
+        <v>9280.700000000001</v>
       </c>
       <c r="D81">
-        <v>5781</v>
+        <v>5761.9</v>
       </c>
       <c r="E81">
         <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>4221</v>
+      </c>
+      <c r="G81">
+        <v>10719.66666666667</v>
+      </c>
+      <c r="H81">
+        <v>89358.33333333333</v>
       </c>
     </row>
     <row r="82">
@@ -1759,13 +2494,22 @@
         <v>126.5666666666667</v>
       </c>
       <c r="C82">
-        <v>9379</v>
+        <v>9346.4</v>
       </c>
       <c r="D82">
-        <v>5885.7</v>
+        <v>5865.2</v>
       </c>
       <c r="E82">
         <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>4258</v>
+      </c>
+      <c r="G82">
+        <v>10814</v>
+      </c>
+      <c r="H82">
+        <v>94388.33333333333</v>
       </c>
     </row>
     <row r="83">
@@ -1776,13 +2520,22 @@
         <v>127.6666666666667</v>
       </c>
       <c r="C83">
-        <v>9444.9</v>
+        <v>9411.5</v>
       </c>
       <c r="D83">
-        <v>5993.4</v>
+        <v>5972.2</v>
       </c>
       <c r="E83">
         <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>4295.666666666667</v>
+      </c>
+      <c r="G83">
+        <v>10873</v>
+      </c>
+      <c r="H83">
+        <v>93807</v>
       </c>
     </row>
     <row r="84">
@@ -1793,13 +2546,22 @@
         <v>129.8666666666667</v>
       </c>
       <c r="C84">
-        <v>9508.799999999999</v>
+        <v>9475.299999999999</v>
       </c>
       <c r="D84">
-        <v>6085.7</v>
+        <v>6064.3</v>
       </c>
       <c r="E84">
         <v>1</v>
+      </c>
+      <c r="F84">
+        <v>4322.666666666667</v>
+      </c>
+      <c r="G84">
+        <v>10967.33333333333</v>
+      </c>
+      <c r="H84">
+        <v>94972</v>
       </c>
     </row>
     <row r="85">
@@ -1810,13 +2572,22 @@
         <v>132.1</v>
       </c>
       <c r="C85">
-        <v>9570.6</v>
+        <v>9537.799999999999</v>
       </c>
       <c r="D85">
-        <v>6170.8</v>
+        <v>6149.7</v>
       </c>
       <c r="E85">
         <v>1</v>
+      </c>
+      <c r="F85">
+        <v>4342.666666666667</v>
+      </c>
+      <c r="G85">
+        <v>11000.33333333333</v>
+      </c>
+      <c r="H85">
+        <v>98807.66666666667</v>
       </c>
     </row>
     <row r="86">
@@ -1827,13 +2598,22 @@
         <v>132.9333333333333</v>
       </c>
       <c r="C86">
-        <v>9630.799999999999</v>
+        <v>9599.200000000001</v>
       </c>
       <c r="D86">
-        <v>6270.5</v>
+        <v>6249.9</v>
       </c>
       <c r="E86">
         <v>1</v>
+      </c>
+      <c r="F86">
+        <v>4358</v>
+      </c>
+      <c r="G86">
+        <v>11027</v>
+      </c>
+      <c r="H86">
+        <v>95253.66666666667</v>
       </c>
     </row>
     <row r="87">
@@ -1844,13 +2624,22 @@
         <v>133.7333333333334</v>
       </c>
       <c r="C87">
-        <v>9689.299999999999</v>
+        <v>9659.6</v>
       </c>
       <c r="D87">
-        <v>6355</v>
+        <v>6335.5</v>
       </c>
       <c r="E87">
         <v>-1</v>
+      </c>
+      <c r="F87">
+        <v>4362.333333333333</v>
+      </c>
+      <c r="G87">
+        <v>11057.33333333333</v>
+      </c>
+      <c r="H87">
+        <v>96128.66666666667</v>
       </c>
     </row>
     <row r="88">
@@ -1861,13 +2650,22 @@
         <v>134.6333333333333</v>
       </c>
       <c r="C88">
-        <v>9747</v>
+        <v>9719.4</v>
       </c>
       <c r="D88">
-        <v>6442.6</v>
+        <v>6424.4</v>
       </c>
       <c r="E88">
         <v>-1</v>
+      </c>
+      <c r="F88">
+        <v>4345</v>
+      </c>
+      <c r="G88">
+        <v>11099.33333333333</v>
+      </c>
+      <c r="H88">
+        <v>97326.33333333333</v>
       </c>
     </row>
     <row r="89">
@@ -1878,13 +2676,22 @@
         <v>135.7333333333333</v>
       </c>
       <c r="C89">
-        <v>9804.6</v>
+        <v>9779.4</v>
       </c>
       <c r="D89">
-        <v>6519.1</v>
+        <v>6502.4</v>
       </c>
       <c r="E89">
         <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>4354.333333333333</v>
+      </c>
+      <c r="G89">
+        <v>11139.33333333333</v>
+      </c>
+      <c r="H89">
+        <v>99221</v>
       </c>
     </row>
     <row r="90">
@@ -1895,13 +2702,22 @@
         <v>136.5333333333333</v>
       </c>
       <c r="C90">
-        <v>9862.4</v>
+        <v>9839.700000000001</v>
       </c>
       <c r="D90">
-        <v>6582</v>
+        <v>6566.9</v>
       </c>
       <c r="E90">
         <v>-1</v>
+      </c>
+      <c r="F90">
+        <v>4372</v>
+      </c>
+      <c r="G90">
+        <v>11199</v>
+      </c>
+      <c r="H90">
+        <v>106368.6666666667</v>
       </c>
     </row>
     <row r="91">
@@ -1912,13 +2728,22 @@
         <v>137.5666666666667</v>
       </c>
       <c r="C91">
-        <v>9921.1</v>
+        <v>9900.9</v>
       </c>
       <c r="D91">
-        <v>6661</v>
+        <v>6647.5</v>
       </c>
       <c r="E91">
         <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>4395.666666666667</v>
+      </c>
+      <c r="G91">
+        <v>11238</v>
+      </c>
+      <c r="H91">
+        <v>103446</v>
       </c>
     </row>
     <row r="92">
@@ -1929,13 +2754,22 @@
         <v>138.7</v>
       </c>
       <c r="C92">
-        <v>9981.200000000001</v>
+        <v>9963.6</v>
       </c>
       <c r="D92">
-        <v>6734.1</v>
+        <v>6722.2</v>
       </c>
       <c r="E92">
         <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>4425.333333333333</v>
+      </c>
+      <c r="G92">
+        <v>11306.66666666667</v>
+      </c>
+      <c r="H92">
+        <v>99580.33333333333</v>
       </c>
     </row>
     <row r="93">
@@ -1946,13 +2780,22 @@
         <v>139.8</v>
       </c>
       <c r="C93">
-        <v>10042.2</v>
+        <v>10027.2</v>
       </c>
       <c r="D93">
-        <v>6821.9</v>
+        <v>6811.7</v>
       </c>
       <c r="E93">
         <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>4438</v>
+      </c>
+      <c r="G93">
+        <v>11319.66666666667</v>
+      </c>
+      <c r="H93">
+        <v>98022.33333333333</v>
       </c>
     </row>
     <row r="94">
@@ -1963,13 +2806,22 @@
         <v>140.7666666666667</v>
       </c>
       <c r="C94">
-        <v>10104.3</v>
+        <v>10091.8</v>
       </c>
       <c r="D94">
-        <v>6902.5</v>
+        <v>6894</v>
       </c>
       <c r="E94">
         <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>4456</v>
+      </c>
+      <c r="G94">
+        <v>11366.66666666667</v>
+      </c>
+      <c r="H94">
+        <v>102495</v>
       </c>
     </row>
     <row r="95">
@@ -1980,13 +2832,22 @@
         <v>141.7333333333334</v>
       </c>
       <c r="C95">
-        <v>10167.9</v>
+        <v>10158.1</v>
       </c>
       <c r="D95">
-        <v>6987.3</v>
+        <v>6980.6</v>
       </c>
       <c r="E95">
         <v>-1</v>
+      </c>
+      <c r="F95">
+        <v>4478</v>
+      </c>
+      <c r="G95">
+        <v>11407.66666666667</v>
+      </c>
+      <c r="H95">
+        <v>111962</v>
       </c>
     </row>
     <row r="96">
@@ -1997,13 +2858,22 @@
         <v>142.3333333333333</v>
       </c>
       <c r="C96">
-        <v>10232.3</v>
+        <v>10225.2</v>
       </c>
       <c r="D96">
-        <v>7073.4</v>
+        <v>7068.5</v>
       </c>
       <c r="E96">
         <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>4496</v>
+      </c>
+      <c r="G96">
+        <v>11483</v>
+      </c>
+      <c r="H96">
+        <v>116124.6666666667</v>
       </c>
     </row>
     <row r="97">
@@ -2014,13 +2884,22 @@
         <v>143.4333333333333</v>
       </c>
       <c r="C97">
-        <v>10297.7</v>
+        <v>10293.3</v>
       </c>
       <c r="D97">
-        <v>7157.4</v>
+        <v>7154.3</v>
       </c>
       <c r="E97">
         <v>-1</v>
+      </c>
+      <c r="F97">
+        <v>4515</v>
+      </c>
+      <c r="G97">
+        <v>11520.66666666667</v>
+      </c>
+      <c r="H97">
+        <v>118029</v>
       </c>
     </row>
     <row r="98">
@@ -2031,13 +2910,22 @@
         <v>144.0333333333333</v>
       </c>
       <c r="C98">
-        <v>10363.7</v>
+        <v>10362.2</v>
       </c>
       <c r="D98">
-        <v>7237.7</v>
+        <v>7236.6</v>
       </c>
       <c r="E98">
         <v>-1</v>
+      </c>
+      <c r="F98">
+        <v>4523.666666666667</v>
+      </c>
+      <c r="G98">
+        <v>11591.33333333333</v>
+      </c>
+      <c r="H98">
+        <v>111803</v>
       </c>
     </row>
     <row r="99">
@@ -2048,13 +2936,22 @@
         <v>144.8666666666667</v>
       </c>
       <c r="C99">
-        <v>10430.1</v>
+        <v>10431.5</v>
       </c>
       <c r="D99">
-        <v>7319.2</v>
+        <v>7320.2</v>
       </c>
       <c r="E99">
         <v>-1</v>
+      </c>
+      <c r="F99">
+        <v>4555.333333333333</v>
+      </c>
+      <c r="G99">
+        <v>11672.33333333333</v>
+      </c>
+      <c r="H99">
+        <v>113545</v>
       </c>
     </row>
     <row r="100">
@@ -2065,13 +2962,22 @@
         <v>146.4</v>
       </c>
       <c r="C100">
-        <v>10497.7</v>
+        <v>10502</v>
       </c>
       <c r="D100">
-        <v>7409</v>
+        <v>7412</v>
       </c>
       <c r="E100">
         <v>-1</v>
+      </c>
+      <c r="F100">
+        <v>4600</v>
+      </c>
+      <c r="G100">
+        <v>11710.33333333333</v>
+      </c>
+      <c r="H100">
+        <v>118942</v>
       </c>
     </row>
     <row r="101">
@@ -2082,13 +2988,22 @@
         <v>147.2666666666667</v>
       </c>
       <c r="C101">
-        <v>10566.2</v>
+        <v>10573.5</v>
       </c>
       <c r="D101">
-        <v>7497.7</v>
+        <v>7502.9</v>
       </c>
       <c r="E101">
         <v>-1</v>
+      </c>
+      <c r="F101">
+        <v>4626.333333333333</v>
+      </c>
+      <c r="G101">
+        <v>11752</v>
+      </c>
+      <c r="H101">
+        <v>117294.3333333333</v>
       </c>
     </row>
     <row r="102">
@@ -2099,13 +3014,22 @@
         <v>148.3333333333333</v>
       </c>
       <c r="C102">
-        <v>10635.1</v>
+        <v>10645.4</v>
       </c>
       <c r="D102">
-        <v>7587.5</v>
+        <v>7595</v>
       </c>
       <c r="E102">
         <v>-1</v>
+      </c>
+      <c r="F102">
+        <v>4649.666666666667</v>
+      </c>
+      <c r="G102">
+        <v>11791.33333333333</v>
+      </c>
+      <c r="H102">
+        <v>116848.6666666667</v>
       </c>
     </row>
     <row r="103">
@@ -2116,13 +3040,22 @@
         <v>149.5</v>
       </c>
       <c r="C103">
-        <v>10704.9</v>
+        <v>10718.4</v>
       </c>
       <c r="D103">
-        <v>7674.1</v>
+        <v>7683.7</v>
       </c>
       <c r="E103">
         <v>-1</v>
+      </c>
+      <c r="F103">
+        <v>4643</v>
+      </c>
+      <c r="G103">
+        <v>11828.66666666667</v>
+      </c>
+      <c r="H103">
+        <v>124434.3333333333</v>
       </c>
     </row>
     <row r="104">
@@ -2133,13 +3066,22 @@
         <v>150.1666666666667</v>
       </c>
       <c r="C104">
-        <v>10775.4</v>
+        <v>10792</v>
       </c>
       <c r="D104">
-        <v>7762.6</v>
+        <v>7774.5</v>
       </c>
       <c r="E104">
         <v>-1</v>
+      </c>
+      <c r="F104">
+        <v>4623.666666666667</v>
+      </c>
+      <c r="G104">
+        <v>11868</v>
+      </c>
+      <c r="H104">
+        <v>125240</v>
       </c>
     </row>
     <row r="105">
@@ -2150,13 +3092,22 @@
         <v>151</v>
       </c>
       <c r="C105">
-        <v>10847.6</v>
+        <v>10867.2</v>
       </c>
       <c r="D105">
-        <v>7852.3</v>
+        <v>7866.5</v>
       </c>
       <c r="E105">
         <v>-1</v>
+      </c>
+      <c r="F105">
+        <v>4624.666666666667</v>
+      </c>
+      <c r="G105">
+        <v>11923</v>
+      </c>
+      <c r="H105">
+        <v>127572.6666666667</v>
       </c>
     </row>
     <row r="106">
@@ -2167,13 +3118,22 @@
         <v>152.4</v>
       </c>
       <c r="C106">
-        <v>10921</v>
+        <v>10943.8</v>
       </c>
       <c r="D106">
-        <v>7943.5</v>
+        <v>7960.1</v>
       </c>
       <c r="E106">
         <v>-1</v>
+      </c>
+      <c r="F106">
+        <v>4621.333333333333</v>
+      </c>
+      <c r="G106">
+        <v>11966</v>
+      </c>
+      <c r="H106">
+        <v>126179.3333333333</v>
       </c>
     </row>
     <row r="107">
@@ -2184,13 +3144,22 @@
         <v>153.7333333333334</v>
       </c>
       <c r="C107">
-        <v>10999.7</v>
+        <v>11025.2</v>
       </c>
       <c r="D107">
-        <v>8033.9</v>
+        <v>8052.5</v>
       </c>
       <c r="E107">
         <v>-1</v>
+      </c>
+      <c r="F107">
+        <v>4618.333333333333</v>
+      </c>
+      <c r="G107">
+        <v>12017.33333333333</v>
+      </c>
+      <c r="H107">
+        <v>131672</v>
       </c>
     </row>
     <row r="108">
@@ -2201,13 +3170,22 @@
         <v>154.5666666666667</v>
       </c>
       <c r="C108">
-        <v>11084.9</v>
+        <v>11112.4</v>
       </c>
       <c r="D108">
-        <v>8122.5</v>
+        <v>8142.7</v>
       </c>
       <c r="E108">
         <v>-1</v>
+      </c>
+      <c r="F108">
+        <v>4600.333333333333</v>
+      </c>
+      <c r="G108">
+        <v>12067</v>
+      </c>
+      <c r="H108">
+        <v>131615</v>
       </c>
     </row>
     <row r="109">
@@ -2218,13 +3196,22 @@
         <v>155.8666666666667</v>
       </c>
       <c r="C109">
-        <v>11176</v>
+        <v>11205.1</v>
       </c>
       <c r="D109">
-        <v>8233.1</v>
+        <v>8254.6</v>
       </c>
       <c r="E109">
         <v>-1</v>
+      </c>
+      <c r="F109">
+        <v>4581.333333333333</v>
+      </c>
+      <c r="G109">
+        <v>12139</v>
+      </c>
+      <c r="H109">
+        <v>135638.6666666667</v>
       </c>
     </row>
     <row r="110">
@@ -2235,13 +3222,22 @@
         <v>156.8</v>
       </c>
       <c r="C110">
-        <v>11273</v>
+        <v>11303.2</v>
       </c>
       <c r="D110">
-        <v>8354.1</v>
+        <v>8376.4</v>
       </c>
       <c r="E110">
         <v>-1</v>
+      </c>
+      <c r="F110">
+        <v>4574.333333333333</v>
+      </c>
+      <c r="G110">
+        <v>12185.66666666667</v>
+      </c>
+      <c r="H110">
+        <v>135471.6666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2252,13 +3248,22 @@
         <v>157.1</v>
       </c>
       <c r="C111">
-        <v>11375</v>
+        <v>11406</v>
       </c>
       <c r="D111">
-        <v>8446.700000000001</v>
+        <v>8469.700000000001</v>
       </c>
       <c r="E111">
         <v>-1</v>
+      </c>
+      <c r="F111">
+        <v>4577</v>
+      </c>
+      <c r="G111">
+        <v>12229.66666666667</v>
+      </c>
+      <c r="H111">
+        <v>139479.3333333333</v>
       </c>
     </row>
     <row r="112">
@@ -2269,13 +3274,22 @@
         <v>157.8</v>
       </c>
       <c r="C112">
-        <v>11482.5</v>
+        <v>11513.8</v>
       </c>
       <c r="D112">
-        <v>8563.5</v>
+        <v>8586.9</v>
       </c>
       <c r="E112">
         <v>-1</v>
+      </c>
+      <c r="F112">
+        <v>4589</v>
+      </c>
+      <c r="G112">
+        <v>12296</v>
+      </c>
+      <c r="H112">
+        <v>141385.3333333333</v>
       </c>
     </row>
     <row r="113">
@@ -2286,13 +3300,22 @@
         <v>158.5333333333333</v>
       </c>
       <c r="C113">
-        <v>11594.2</v>
+        <v>11625.6</v>
       </c>
       <c r="D113">
-        <v>8675.200000000001</v>
+        <v>8698.700000000001</v>
       </c>
       <c r="E113">
         <v>-1</v>
+      </c>
+      <c r="F113">
+        <v>4583</v>
+      </c>
+      <c r="G113">
+        <v>12380</v>
+      </c>
+      <c r="H113">
+        <v>140102.6666666667</v>
       </c>
     </row>
     <row r="114">
@@ -2303,13 +3326,22 @@
         <v>158.7333333333333</v>
       </c>
       <c r="C114">
-        <v>11709.6</v>
+        <v>11741</v>
       </c>
       <c r="D114">
-        <v>8774.4</v>
+        <v>8797.9</v>
       </c>
       <c r="E114">
         <v>-1</v>
+      </c>
+      <c r="F114">
+        <v>4578</v>
+      </c>
+      <c r="G114">
+        <v>12437.33333333333</v>
+      </c>
+      <c r="H114">
+        <v>133975</v>
       </c>
     </row>
     <row r="115">
@@ -2320,13 +3352,22 @@
         <v>159.2</v>
       </c>
       <c r="C115">
-        <v>11828.7</v>
+        <v>11860</v>
       </c>
       <c r="D115">
-        <v>8884.6</v>
+        <v>8908.1</v>
       </c>
       <c r="E115">
         <v>-1</v>
+      </c>
+      <c r="F115">
+        <v>4596.666666666667</v>
+      </c>
+      <c r="G115">
+        <v>12501.33333333333</v>
+      </c>
+      <c r="H115">
+        <v>137818</v>
       </c>
     </row>
     <row r="116">
@@ -2337,13 +3378,22 @@
         <v>159.9666666666667</v>
       </c>
       <c r="C116">
-        <v>11950.2</v>
+        <v>11981.4</v>
       </c>
       <c r="D116">
-        <v>9014.5</v>
+        <v>9038</v>
       </c>
       <c r="E116">
         <v>-1</v>
+      </c>
+      <c r="F116">
+        <v>4631.666666666667</v>
+      </c>
+      <c r="G116">
+        <v>12553.33333333333</v>
+      </c>
+      <c r="H116">
+        <v>143529.3333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2354,13 +3404,22 @@
         <v>160.7666666666667</v>
       </c>
       <c r="C117">
-        <v>12074</v>
+        <v>12105</v>
       </c>
       <c r="D117">
-        <v>9132.9</v>
+        <v>9156.299999999999</v>
       </c>
       <c r="E117">
         <v>-1</v>
+      </c>
+      <c r="F117">
+        <v>4640.666666666667</v>
+      </c>
+      <c r="G117">
+        <v>12616.33333333333</v>
+      </c>
+      <c r="H117">
+        <v>144434.6666666667</v>
       </c>
     </row>
     <row r="118">
@@ -2371,13 +3430,22 @@
         <v>161.3666666666667</v>
       </c>
       <c r="C118">
-        <v>12200.4</v>
+        <v>12231.2</v>
       </c>
       <c r="D118">
-        <v>9263.299999999999</v>
+        <v>9286.700000000001</v>
       </c>
       <c r="E118">
         <v>-1</v>
+      </c>
+      <c r="F118">
+        <v>4669</v>
+      </c>
+      <c r="G118">
+        <v>12694.66666666667</v>
+      </c>
+      <c r="H118">
+        <v>150497</v>
       </c>
     </row>
     <row r="119">
@@ -2388,13 +3456,22 @@
         <v>162.5333333333333</v>
       </c>
       <c r="C119">
-        <v>12328.4</v>
+        <v>12359</v>
       </c>
       <c r="D119">
-        <v>9394.4</v>
+        <v>9417.799999999999</v>
       </c>
       <c r="E119">
         <v>-1</v>
+      </c>
+      <c r="F119">
+        <v>4688.333333333333</v>
+      </c>
+      <c r="G119">
+        <v>12783.33333333333</v>
+      </c>
+      <c r="H119">
+        <v>152515.3333333333</v>
       </c>
     </row>
     <row r="120">
@@ -2405,13 +3482,22 @@
         <v>163.9</v>
       </c>
       <c r="C120">
-        <v>12458.5</v>
+        <v>12488.9</v>
       </c>
       <c r="D120">
-        <v>9526</v>
+        <v>9549.299999999999</v>
       </c>
       <c r="E120">
         <v>-1</v>
+      </c>
+      <c r="F120">
+        <v>4717.333333333333</v>
+      </c>
+      <c r="G120">
+        <v>12887.33333333333</v>
+      </c>
+      <c r="H120">
+        <v>155465.3333333333</v>
       </c>
     </row>
     <row r="121">
@@ -2422,13 +3508,22 @@
         <v>165.2</v>
       </c>
       <c r="C121">
-        <v>12590.9</v>
+        <v>12621</v>
       </c>
       <c r="D121">
-        <v>9679</v>
+        <v>9702.1</v>
       </c>
       <c r="E121">
         <v>-1</v>
+      </c>
+      <c r="F121">
+        <v>4757.333333333333</v>
+      </c>
+      <c r="G121">
+        <v>12972.33333333333</v>
+      </c>
+      <c r="H121">
+        <v>163365.3333333333</v>
       </c>
     </row>
     <row r="122">
@@ -2439,13 +3534,22 @@
         <v>166.8333333333333</v>
       </c>
       <c r="C122">
-        <v>12725</v>
+        <v>12754.4</v>
       </c>
       <c r="D122">
-        <v>9848.700000000001</v>
+        <v>9871.5</v>
       </c>
       <c r="E122">
         <v>-1</v>
+      </c>
+      <c r="F122">
+        <v>4768</v>
+      </c>
+      <c r="G122">
+        <v>13050.33333333333</v>
+      </c>
+      <c r="H122">
+        <v>168776.3333333333</v>
       </c>
     </row>
     <row r="123">
@@ -2456,13 +3560,22 @@
         <v>168.1666666666667</v>
       </c>
       <c r="C123">
-        <v>12857</v>
+        <v>12885.1</v>
       </c>
       <c r="D123">
-        <v>10011.1</v>
+        <v>10033</v>
       </c>
       <c r="E123">
         <v>-1</v>
+      </c>
+      <c r="F123">
+        <v>4779.333333333333</v>
+      </c>
+      <c r="G123">
+        <v>13113</v>
+      </c>
+      <c r="H123">
+        <v>165200.6666666667</v>
       </c>
     </row>
     <row r="124">
@@ -2473,13 +3586,22 @@
         <v>169.7</v>
       </c>
       <c r="C124">
-        <v>12985.1</v>
+        <v>13011.4</v>
       </c>
       <c r="D124">
-        <v>10168.4</v>
+        <v>10189</v>
       </c>
       <c r="E124">
         <v>-1</v>
+      </c>
+      <c r="F124">
+        <v>4793.333333333333</v>
+      </c>
+      <c r="G124">
+        <v>13168</v>
+      </c>
+      <c r="H124">
+        <v>166145</v>
       </c>
     </row>
     <row r="125">
@@ -2490,13 +3612,22 @@
         <v>170.8333333333333</v>
       </c>
       <c r="C125">
-        <v>13108.3</v>
+        <v>13131.9</v>
       </c>
       <c r="D125">
-        <v>10319.2</v>
+        <v>10337.8</v>
       </c>
       <c r="E125">
         <v>-1</v>
+      </c>
+      <c r="F125">
+        <v>4809</v>
+      </c>
+      <c r="G125">
+        <v>13220.66666666667</v>
+      </c>
+      <c r="H125">
+        <v>170616.6666666667</v>
       </c>
     </row>
     <row r="126">
@@ -2507,13 +3638,22 @@
         <v>172.4333333333333</v>
       </c>
       <c r="C126">
-        <v>13227</v>
+        <v>13247.1</v>
       </c>
       <c r="D126">
-        <v>10476.3</v>
+        <v>10492.2</v>
       </c>
       <c r="E126">
         <v>1</v>
+      </c>
+      <c r="F126">
+        <v>4832</v>
+      </c>
+      <c r="G126">
+        <v>13310</v>
+      </c>
+      <c r="H126">
+        <v>176411.3333333333</v>
       </c>
     </row>
     <row r="127">
@@ -2524,13 +3664,22 @@
         <v>173.7333333333334</v>
       </c>
       <c r="C127">
-        <v>13340.3</v>
+        <v>13356.2</v>
       </c>
       <c r="D127">
-        <v>10629.9</v>
+        <v>10642.6</v>
       </c>
       <c r="E127">
         <v>1</v>
+      </c>
+      <c r="F127">
+        <v>4877.666666666667</v>
+      </c>
+      <c r="G127">
+        <v>13410.66666666667</v>
+      </c>
+      <c r="H127">
+        <v>189275.6666666667</v>
       </c>
     </row>
     <row r="128">
@@ -2541,13 +3690,22 @@
         <v>174.1</v>
       </c>
       <c r="C128">
-        <v>13448.4</v>
+        <v>13459.7</v>
       </c>
       <c r="D128">
-        <v>10759.2</v>
+        <v>10768.3</v>
       </c>
       <c r="E128">
         <v>1</v>
+      </c>
+      <c r="F128">
+        <v>4936.666666666667</v>
+      </c>
+      <c r="G128">
+        <v>13500.66666666667</v>
+      </c>
+      <c r="H128">
+        <v>187116</v>
       </c>
     </row>
     <row r="129">
@@ -2558,13 +3716,22 @@
         <v>173.6666666666667</v>
       </c>
       <c r="C129">
-        <v>13551.3</v>
+        <v>13557.8</v>
       </c>
       <c r="D129">
-        <v>10877.4</v>
+        <v>10882.5</v>
       </c>
       <c r="E129">
         <v>1</v>
+      </c>
+      <c r="F129">
+        <v>4977.333333333333</v>
+      </c>
+      <c r="G129">
+        <v>13583.66666666667</v>
+      </c>
+      <c r="H129">
+        <v>193037.6666666667</v>
       </c>
     </row>
     <row r="130">
@@ -2575,13 +3742,22 @@
         <v>174.0333333333333</v>
       </c>
       <c r="C130">
-        <v>13649.8</v>
+        <v>13651.1</v>
       </c>
       <c r="D130">
-        <v>10992.6</v>
+        <v>10993.6</v>
       </c>
       <c r="E130">
         <v>-1</v>
+      </c>
+      <c r="F130">
+        <v>5004.333333333333</v>
+      </c>
+      <c r="G130">
+        <v>13639</v>
+      </c>
+      <c r="H130">
+        <v>198023.3333333333</v>
       </c>
     </row>
     <row r="131">
@@ -2592,13 +3768,22 @@
         <v>175.5333333333333</v>
       </c>
       <c r="C131">
-        <v>13745.2</v>
+        <v>13741.2</v>
       </c>
       <c r="D131">
-        <v>11109</v>
+        <v>11105.7</v>
       </c>
       <c r="E131">
         <v>-1</v>
+      </c>
+      <c r="F131">
+        <v>5039</v>
+      </c>
+      <c r="G131">
+        <v>13699.33333333333</v>
+      </c>
+      <c r="H131">
+        <v>194794</v>
       </c>
     </row>
     <row r="132">
@@ -2609,13 +3794,22 @@
         <v>176.5</v>
       </c>
       <c r="C132">
-        <v>13838.7</v>
+        <v>13829.2</v>
       </c>
       <c r="D132">
-        <v>11236.2</v>
+        <v>11228.4</v>
       </c>
       <c r="E132">
         <v>-1</v>
+      </c>
+      <c r="F132">
+        <v>5052.666666666667</v>
+      </c>
+      <c r="G132">
+        <v>13744.66666666667</v>
+      </c>
+      <c r="H132">
+        <v>196443.6666666667</v>
       </c>
     </row>
     <row r="133">
@@ -2626,13 +3820,22 @@
         <v>177.4666666666667</v>
       </c>
       <c r="C133">
-        <v>13931.2</v>
+        <v>13916</v>
       </c>
       <c r="D133">
-        <v>11375.4</v>
+        <v>11363</v>
       </c>
       <c r="E133">
         <v>-1</v>
+      </c>
+      <c r="F133">
+        <v>5020.666666666667</v>
+      </c>
+      <c r="G133">
+        <v>13775</v>
+      </c>
+      <c r="H133">
+        <v>199770.6666666667</v>
       </c>
     </row>
     <row r="134">
@@ -2643,13 +3846,22 @@
         <v>179.4666666666667</v>
       </c>
       <c r="C134">
-        <v>14023.2</v>
+        <v>14002.4</v>
       </c>
       <c r="D134">
-        <v>11502.5</v>
+        <v>11485.5</v>
       </c>
       <c r="E134">
         <v>-1</v>
+      </c>
+      <c r="F134">
+        <v>5029.333333333333</v>
+      </c>
+      <c r="G134">
+        <v>13801</v>
+      </c>
+      <c r="H134">
+        <v>197410.6666666667</v>
       </c>
     </row>
     <row r="135">
@@ -2660,13 +3872,22 @@
         <v>178.9333333333333</v>
       </c>
       <c r="C135">
-        <v>14116.2</v>
+        <v>14089.7</v>
       </c>
       <c r="D135">
-        <v>11612.9</v>
+        <v>11591.1</v>
       </c>
       <c r="E135">
         <v>-1</v>
+      </c>
+      <c r="F135">
+        <v>5007.666666666667</v>
+      </c>
+      <c r="G135">
+        <v>13820</v>
+      </c>
+      <c r="H135">
+        <v>195858</v>
       </c>
     </row>
     <row r="136">
@@ -2677,13 +3898,22 @@
         <v>180.2</v>
       </c>
       <c r="C136">
-        <v>14209.6</v>
+        <v>14177.4</v>
       </c>
       <c r="D136">
-        <v>11753</v>
+        <v>11726.4</v>
       </c>
       <c r="E136">
         <v>-1</v>
+      </c>
+      <c r="F136">
+        <v>4978.666666666667</v>
+      </c>
+      <c r="G136">
+        <v>13832.33333333333</v>
+      </c>
+      <c r="H136">
+        <v>200686</v>
       </c>
     </row>
     <row r="137">
@@ -2694,13 +3924,22 @@
         <v>180.7333333333334</v>
       </c>
       <c r="C137">
-        <v>14304.5</v>
+        <v>14266.5</v>
       </c>
       <c r="D137">
-        <v>11901.5</v>
+        <v>11869.8</v>
       </c>
       <c r="E137">
         <v>-1</v>
+      </c>
+      <c r="F137">
+        <v>4985.333333333333</v>
+      </c>
+      <c r="G137">
+        <v>13824.33333333333</v>
+      </c>
+      <c r="H137">
+        <v>199340</v>
       </c>
     </row>
     <row r="138">
@@ -2711,13 +3950,22 @@
         <v>182.3333333333333</v>
       </c>
       <c r="C138">
-        <v>14401.4</v>
+        <v>14357.5</v>
       </c>
       <c r="D138">
-        <v>12071.3</v>
+        <v>12034.5</v>
       </c>
       <c r="E138">
         <v>-1</v>
+      </c>
+      <c r="F138">
+        <v>4968.333333333333</v>
+      </c>
+      <c r="G138">
+        <v>13859</v>
+      </c>
+      <c r="H138">
+        <v>197322.3333333333</v>
       </c>
     </row>
     <row r="139">
@@ -2728,13 +3976,22 @@
         <v>183.6666666666667</v>
       </c>
       <c r="C139">
-        <v>14500.3</v>
+        <v>14450.4</v>
       </c>
       <c r="D139">
-        <v>12253.3</v>
+        <v>12211.2</v>
       </c>
       <c r="E139">
         <v>-1</v>
+      </c>
+      <c r="F139">
+        <v>4974</v>
+      </c>
+      <c r="G139">
+        <v>13898</v>
+      </c>
+      <c r="H139">
+        <v>202356.3333333333</v>
       </c>
     </row>
     <row r="140">
@@ -2745,13 +4002,22 @@
         <v>184.8666666666667</v>
       </c>
       <c r="C140">
-        <v>14601.5</v>
+        <v>14545.5</v>
       </c>
       <c r="D140">
-        <v>12419.4</v>
+        <v>12371.8</v>
       </c>
       <c r="E140">
         <v>-1</v>
+      </c>
+      <c r="F140">
+        <v>4984</v>
+      </c>
+      <c r="G140">
+        <v>13909.33333333333</v>
+      </c>
+      <c r="H140">
+        <v>202328</v>
       </c>
     </row>
     <row r="141">
@@ -2762,13 +4028,22 @@
         <v>187.0666666666667</v>
       </c>
       <c r="C141">
-        <v>14704.3</v>
+        <v>14642.1</v>
       </c>
       <c r="D141">
-        <v>12603.3</v>
+        <v>12550</v>
       </c>
       <c r="E141">
         <v>-1</v>
+      </c>
+      <c r="F141">
+        <v>4995.333333333333</v>
+      </c>
+      <c r="G141">
+        <v>13958.66666666667</v>
+      </c>
+      <c r="H141">
+        <v>204931</v>
       </c>
     </row>
     <row r="142">
@@ -2779,13 +4054,22 @@
         <v>187.9333333333333</v>
       </c>
       <c r="C142">
-        <v>14805.1</v>
+        <v>14737.1</v>
       </c>
       <c r="D142">
-        <v>12790.3</v>
+        <v>12731.5</v>
       </c>
       <c r="E142">
         <v>-1</v>
+      </c>
+      <c r="F142">
+        <v>5015.666666666667</v>
+      </c>
+      <c r="G142">
+        <v>13994.66666666667</v>
+      </c>
+      <c r="H142">
+        <v>207202</v>
       </c>
     </row>
     <row r="143">
@@ -2796,13 +4080,22 @@
         <v>189.2333333333334</v>
       </c>
       <c r="C143">
-        <v>14902.8</v>
+        <v>14829.4</v>
       </c>
       <c r="D143">
-        <v>12964.8</v>
+        <v>12901</v>
       </c>
       <c r="E143">
         <v>-1</v>
+      </c>
+      <c r="F143">
+        <v>5023.333333333333</v>
+      </c>
+      <c r="G143">
+        <v>14012</v>
+      </c>
+      <c r="H143">
+        <v>215946</v>
       </c>
     </row>
     <row r="144">
@@ -2813,13 +4106,22 @@
         <v>192.5666666666667</v>
       </c>
       <c r="C144">
-        <v>14998.3</v>
+        <v>14920.2</v>
       </c>
       <c r="D144">
-        <v>13165.9</v>
+        <v>13097.4</v>
       </c>
       <c r="E144">
         <v>-1</v>
+      </c>
+      <c r="F144">
+        <v>5039.333333333333</v>
+      </c>
+      <c r="G144">
+        <v>14085.33333333333</v>
+      </c>
+      <c r="H144">
+        <v>219407.6666666667</v>
       </c>
     </row>
     <row r="145">
@@ -2830,13 +4132,22 @@
         <v>194.2</v>
       </c>
       <c r="C145">
-        <v>15091</v>
+        <v>15008.9</v>
       </c>
       <c r="D145">
-        <v>13353.9</v>
+        <v>13281.3</v>
       </c>
       <c r="E145">
         <v>-1</v>
+      </c>
+      <c r="F145">
+        <v>5047.666666666667</v>
+      </c>
+      <c r="G145">
+        <v>14072.33333333333</v>
+      </c>
+      <c r="H145">
+        <v>222763.6666666667</v>
       </c>
     </row>
     <row r="146">
@@ -2847,13 +4158,22 @@
         <v>195.1333333333334</v>
       </c>
       <c r="C146">
-        <v>15180.8</v>
+        <v>15095.2</v>
       </c>
       <c r="D146">
-        <v>13527.1</v>
+        <v>13450.8</v>
       </c>
       <c r="E146">
         <v>-1</v>
+      </c>
+      <c r="F146">
+        <v>5047</v>
+      </c>
+      <c r="G146">
+        <v>14098</v>
+      </c>
+      <c r="H146">
+        <v>230117.6666666667</v>
       </c>
     </row>
     <row r="147">
@@ -2864,13 +4184,22 @@
         <v>196.9333333333333</v>
       </c>
       <c r="C147">
-        <v>15267.9</v>
+        <v>15179.4</v>
       </c>
       <c r="D147">
-        <v>13718.6</v>
+        <v>13639</v>
       </c>
       <c r="E147">
         <v>-1</v>
+      </c>
+      <c r="F147">
+        <v>5068.333333333333</v>
+      </c>
+      <c r="G147">
+        <v>14119.66666666667</v>
+      </c>
+      <c r="H147">
+        <v>238436</v>
       </c>
     </row>
     <row r="148">
@@ -2881,13 +4210,22 @@
         <v>198.8</v>
       </c>
       <c r="C148">
-        <v>15350.5</v>
+        <v>15259.8</v>
       </c>
       <c r="D148">
-        <v>13889.3</v>
+        <v>13807.3</v>
       </c>
       <c r="E148">
         <v>-1</v>
+      </c>
+      <c r="F148">
+        <v>5086</v>
+      </c>
+      <c r="G148">
+        <v>14201</v>
+      </c>
+      <c r="H148">
+        <v>238965</v>
       </c>
     </row>
     <row r="149">
@@ -2898,13 +4236,22 @@
         <v>197.5666666666666</v>
       </c>
       <c r="C149">
-        <v>15428.1</v>
+        <v>15336.4</v>
       </c>
       <c r="D149">
-        <v>14011.1</v>
+        <v>13927.8</v>
       </c>
       <c r="E149">
         <v>-1</v>
+      </c>
+      <c r="F149">
+        <v>5098.333333333333</v>
+      </c>
+      <c r="G149">
+        <v>14251.33333333333</v>
+      </c>
+      <c r="H149">
+        <v>242956.3333333333</v>
       </c>
     </row>
     <row r="150">
@@ -2915,13 +4262,22 @@
         <v>199.553</v>
       </c>
       <c r="C150">
-        <v>15502.8</v>
+        <v>15412.4</v>
       </c>
       <c r="D150">
-        <v>14217.4</v>
+        <v>14134.4</v>
       </c>
       <c r="E150">
         <v>-1</v>
+      </c>
+      <c r="F150">
+        <v>5106.333333333333</v>
+      </c>
+      <c r="G150">
+        <v>14287.33333333333</v>
+      </c>
+      <c r="H150">
+        <v>258254.3333333333</v>
       </c>
     </row>
     <row r="151">
@@ -2932,13 +4288,22 @@
         <v>202.077</v>
       </c>
       <c r="C151">
-        <v>15577.8</v>
+        <v>15488</v>
       </c>
       <c r="D151">
-        <v>14378.4</v>
+        <v>14295.6</v>
       </c>
       <c r="E151">
         <v>-1</v>
+      </c>
+      <c r="F151">
+        <v>5124.333333333333</v>
+      </c>
+      <c r="G151">
+        <v>14336</v>
+      </c>
+      <c r="H151">
+        <v>266203.6666666667</v>
       </c>
     </row>
     <row r="152">
@@ -2949,13 +4314,22 @@
         <v>203.37</v>
       </c>
       <c r="C152">
-        <v>15652.9</v>
+        <v>15563.8</v>
       </c>
       <c r="D152">
-        <v>14522.2</v>
+        <v>14439.6</v>
       </c>
       <c r="E152">
         <v>-1</v>
+      </c>
+      <c r="F152">
+        <v>5122</v>
+      </c>
+      <c r="G152">
+        <v>14369.33333333333</v>
+      </c>
+      <c r="H152">
+        <v>271640.3333333333</v>
       </c>
     </row>
     <row r="153">
@@ -2966,13 +4340,22 @@
         <v>206.0856666666666</v>
       </c>
       <c r="C153">
-        <v>15727</v>
+        <v>15638.8</v>
       </c>
       <c r="D153">
-        <v>14648.9</v>
+        <v>14566.7</v>
       </c>
       <c r="E153">
         <v>1</v>
+      </c>
+      <c r="F153">
+        <v>5136</v>
+      </c>
+      <c r="G153">
+        <v>14455</v>
+      </c>
+      <c r="H153">
+        <v>276454.6666666667</v>
       </c>
     </row>
     <row r="154">
@@ -2983,13 +4366,22 @@
         <v>208.516</v>
       </c>
       <c r="C154">
-        <v>15799.8</v>
+        <v>15712.6</v>
       </c>
       <c r="D154">
-        <v>14771</v>
+        <v>14689.5</v>
       </c>
       <c r="E154">
         <v>1</v>
+      </c>
+      <c r="F154">
+        <v>5148.666666666667</v>
+      </c>
+      <c r="G154">
+        <v>14521.66666666667</v>
+      </c>
+      <c r="H154">
+        <v>278038.3333333333</v>
       </c>
     </row>
     <row r="155">
@@ -3000,13 +4392,22 @@
         <v>211.5026666666667</v>
       </c>
       <c r="C155">
-        <v>15869.5</v>
+        <v>15783.7</v>
       </c>
       <c r="D155">
-        <v>14915.8</v>
+        <v>14835.1</v>
       </c>
       <c r="E155">
         <v>1</v>
+      </c>
+      <c r="F155">
+        <v>5166</v>
+      </c>
+      <c r="G155">
+        <v>14560.33333333333</v>
+      </c>
+      <c r="H155">
+        <v>283074.3333333333</v>
       </c>
     </row>
     <row r="156">
@@ -3017,13 +4418,22 @@
         <v>215.13</v>
       </c>
       <c r="C156">
-        <v>15935</v>
+        <v>15850.9</v>
       </c>
       <c r="D156">
-        <v>15089</v>
+        <v>15009.3</v>
       </c>
       <c r="E156">
         <v>1</v>
+      </c>
+      <c r="F156">
+        <v>5196.333333333333</v>
+      </c>
+      <c r="G156">
+        <v>14594</v>
+      </c>
+      <c r="H156">
+        <v>287093.6666666667</v>
       </c>
     </row>
     <row r="157">
@@ -3034,13 +4444,22 @@
         <v>208.8386666666667</v>
       </c>
       <c r="C157">
-        <v>15995.8</v>
+        <v>15913.8</v>
       </c>
       <c r="D157">
-        <v>15193.9</v>
+        <v>15116</v>
       </c>
       <c r="E157">
         <v>1</v>
+      </c>
+      <c r="F157">
+        <v>5189</v>
+      </c>
+      <c r="G157">
+        <v>14591</v>
+      </c>
+      <c r="H157">
+        <v>288334</v>
       </c>
     </row>
     <row r="158">
@@ -3051,13 +4470,22 @@
         <v>206.9433333333334</v>
       </c>
       <c r="C158">
-        <v>16050.9</v>
+        <v>15971.4</v>
       </c>
       <c r="D158">
-        <v>15244.5</v>
+        <v>15169.1</v>
       </c>
       <c r="E158">
         <v>1</v>
+      </c>
+      <c r="F158">
+        <v>5192</v>
+      </c>
+      <c r="G158">
+        <v>14587</v>
+      </c>
+      <c r="H158">
+        <v>289591.3333333333</v>
       </c>
     </row>
     <row r="159">
@@ -3068,13 +4496,22 @@
         <v>208.3903333333334</v>
       </c>
       <c r="C159">
-        <v>16101.8</v>
+        <v>16025</v>
       </c>
       <c r="D159">
-        <v>15270.6</v>
+        <v>15197.8</v>
       </c>
       <c r="E159">
         <v>1</v>
+      </c>
+      <c r="F159">
+        <v>5181.666666666667</v>
+      </c>
+      <c r="G159">
+        <v>14576.33333333333</v>
+      </c>
+      <c r="H159">
+        <v>292223.6666666667</v>
       </c>
     </row>
     <row r="160">
@@ -3085,13 +4522,22 @@
         <v>210.695</v>
       </c>
       <c r="C160">
-        <v>16149.4</v>
+        <v>16075.4</v>
       </c>
       <c r="D160">
-        <v>15331.9</v>
+        <v>15261.7</v>
       </c>
       <c r="E160">
         <v>-1</v>
+      </c>
+      <c r="F160">
+        <v>5145.333333333333</v>
+      </c>
+      <c r="G160">
+        <v>14532</v>
+      </c>
+      <c r="H160">
+        <v>287368</v>
       </c>
     </row>
     <row r="161">
@@ -3102,13 +4548,22 @@
         <v>212.6326666666666</v>
       </c>
       <c r="C161">
-        <v>16195.6</v>
+        <v>16124.4</v>
       </c>
       <c r="D161">
-        <v>15427.7</v>
+        <v>15359.8</v>
       </c>
       <c r="E161">
         <v>-1</v>
+      </c>
+      <c r="F161">
+        <v>5153.333333333333</v>
+      </c>
+      <c r="G161">
+        <v>14521</v>
+      </c>
+      <c r="H161">
+        <v>274301</v>
       </c>
     </row>
     <row r="162">
@@ -3119,13 +4574,22 @@
         <v>213.237</v>
       </c>
       <c r="C162">
-        <v>16241.9</v>
+        <v>16173.6</v>
       </c>
       <c r="D162">
-        <v>15511</v>
+        <v>15445.7</v>
       </c>
       <c r="E162">
         <v>-1</v>
+      </c>
+      <c r="F162">
+        <v>5144</v>
+      </c>
+      <c r="G162">
+        <v>14466</v>
+      </c>
+      <c r="H162">
+        <v>268022</v>
       </c>
     </row>
     <row r="163">
@@ -3136,13 +4600,22 @@
         <v>213.1506666666667</v>
       </c>
       <c r="C163">
-        <v>16289.8</v>
+        <v>16224.4</v>
       </c>
       <c r="D163">
-        <v>15628.9</v>
+        <v>15566.2</v>
       </c>
       <c r="E163">
         <v>-1</v>
+      </c>
+      <c r="F163">
+        <v>5136.666666666667</v>
+      </c>
+      <c r="G163">
+        <v>14434</v>
+      </c>
+      <c r="H163">
+        <v>274526.6666666667</v>
       </c>
     </row>
     <row r="164">
@@ -3153,13 +4626,22 @@
         <v>213.82</v>
       </c>
       <c r="C164">
-        <v>16340.1</v>
+        <v>16277.7</v>
       </c>
       <c r="D164">
-        <v>15722.7</v>
+        <v>15662.7</v>
       </c>
       <c r="E164">
         <v>-1</v>
+      </c>
+      <c r="F164">
+        <v>5129.333333333333</v>
+      </c>
+      <c r="G164">
+        <v>14327.66666666667</v>
+      </c>
+      <c r="H164">
+        <v>277232.3333333333</v>
       </c>
     </row>
     <row r="165">
@@ -3170,13 +4652,22 @@
         <v>215.764</v>
       </c>
       <c r="C165">
-        <v>16392.4</v>
+        <v>16333.2</v>
       </c>
       <c r="D165">
-        <v>15861.8</v>
+        <v>15804.5</v>
       </c>
       <c r="E165">
         <v>-1</v>
+      </c>
+      <c r="F165">
+        <v>5137</v>
+      </c>
+      <c r="G165">
+        <v>14279</v>
+      </c>
+      <c r="H165">
+        <v>269906.3333333333</v>
       </c>
     </row>
     <row r="166">
@@ -3187,13 +4678,22 @@
         <v>218.4156666666667</v>
       </c>
       <c r="C166">
-        <v>16447.1</v>
+        <v>16390.9</v>
       </c>
       <c r="D166">
-        <v>16000.1</v>
+        <v>15945.5</v>
       </c>
       <c r="E166">
         <v>-1</v>
+      </c>
+      <c r="F166">
+        <v>5113.333333333333</v>
+      </c>
+      <c r="G166">
+        <v>14232.66666666667</v>
+      </c>
+      <c r="H166">
+        <v>258077</v>
       </c>
     </row>
     <row r="167">
@@ -3204,13 +4704,22 @@
         <v>221.2876666666667</v>
       </c>
       <c r="C167">
-        <v>16503.9</v>
+        <v>16450.9</v>
       </c>
       <c r="D167">
-        <v>16160.9</v>
+        <v>16109</v>
       </c>
       <c r="E167">
         <v>-1</v>
+      </c>
+      <c r="F167">
+        <v>5084.333333333333</v>
+      </c>
+      <c r="G167">
+        <v>14207.66666666667</v>
+      </c>
+      <c r="H167">
+        <v>251739</v>
       </c>
     </row>
     <row r="168">
@@ -3221,13 +4730,22 @@
         <v>222.738</v>
       </c>
       <c r="C168">
-        <v>16563</v>
+        <v>16513.3</v>
       </c>
       <c r="D168">
-        <v>16323.5</v>
+        <v>16274.4</v>
       </c>
       <c r="E168">
         <v>-1</v>
+      </c>
+      <c r="F168">
+        <v>5069.666666666667</v>
+      </c>
+      <c r="G168">
+        <v>14094</v>
+      </c>
+      <c r="H168">
+        <v>253215.3333333333</v>
       </c>
     </row>
     <row r="169">
@@ -3238,13 +4756,22 @@
         <v>223.7746666666667</v>
       </c>
       <c r="C169">
-        <v>16623.7</v>
+        <v>16577.3</v>
       </c>
       <c r="D169">
-        <v>16408.1</v>
+        <v>16362.2</v>
       </c>
       <c r="E169">
         <v>-1</v>
+      </c>
+      <c r="F169">
+        <v>5051</v>
+      </c>
+      <c r="G169">
+        <v>14080.66666666667</v>
+      </c>
+      <c r="H169">
+        <v>258046</v>
       </c>
     </row>
     <row r="170">
@@ -3255,13 +4782,22 @@
         <v>225.0873333333333</v>
       </c>
       <c r="C170">
-        <v>16686</v>
+        <v>16642.9</v>
       </c>
       <c r="D170">
-        <v>16572.7</v>
+        <v>16529.8</v>
       </c>
       <c r="E170">
         <v>-1</v>
+      </c>
+      <c r="F170">
+        <v>5048</v>
+      </c>
+      <c r="G170">
+        <v>14067.66666666667</v>
+      </c>
+      <c r="H170">
+        <v>254528.3333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3272,13 +4808,22 @@
         <v>225.4593333333333</v>
       </c>
       <c r="C171">
-        <v>16750.3</v>
+        <v>16710.5</v>
       </c>
       <c r="D171">
-        <v>16702.2</v>
+        <v>16662.5</v>
       </c>
       <c r="E171">
         <v>-1</v>
+      </c>
+      <c r="F171">
+        <v>5055.333333333333</v>
+      </c>
+      <c r="G171">
+        <v>14044.33333333333</v>
+      </c>
+      <c r="H171">
+        <v>254598.6666666667</v>
       </c>
     </row>
     <row r="172">
@@ -3289,13 +4834,22 @@
         <v>226.357</v>
       </c>
       <c r="C172">
-        <v>16816.1</v>
+        <v>16779.7</v>
       </c>
       <c r="D172">
-        <v>16854</v>
+        <v>16817.4</v>
       </c>
       <c r="E172">
         <v>-1</v>
+      </c>
+      <c r="F172">
+        <v>5064.666666666667</v>
+      </c>
+      <c r="G172">
+        <v>14034.33333333333</v>
+      </c>
+      <c r="H172">
+        <v>252248.6666666667</v>
       </c>
     </row>
     <row r="173">
@@ -3306,13 +4860,22 @@
         <v>227.9716666666667</v>
       </c>
       <c r="C173">
-        <v>16883.2</v>
+        <v>16850.1</v>
       </c>
       <c r="D173">
-        <v>17007.8</v>
+        <v>16974.5</v>
       </c>
       <c r="E173">
         <v>-1</v>
+      </c>
+      <c r="F173">
+        <v>5051.666666666667</v>
+      </c>
+      <c r="G173">
+        <v>14026.33333333333</v>
+      </c>
+      <c r="H173">
+        <v>246424.3333333333</v>
       </c>
     </row>
     <row r="174">
@@ -3323,13 +4886,22 @@
         <v>228.8366666666667</v>
       </c>
       <c r="C174">
-        <v>16951.5</v>
+        <v>16921.8</v>
       </c>
       <c r="D174">
-        <v>17144.6</v>
+        <v>17114.6</v>
       </c>
       <c r="E174">
         <v>-1</v>
+      </c>
+      <c r="F174">
+        <v>5042</v>
+      </c>
+      <c r="G174">
+        <v>14029.33333333333</v>
+      </c>
+      <c r="H174">
+        <v>242924.3333333333</v>
       </c>
     </row>
     <row r="175">
@@ -3340,13 +4912,22 @@
         <v>228.4096666666667</v>
       </c>
       <c r="C175">
-        <v>17021.3</v>
+        <v>16994.9</v>
       </c>
       <c r="D175">
-        <v>17264.8</v>
+        <v>17238</v>
       </c>
       <c r="E175">
         <v>-1</v>
+      </c>
+      <c r="F175">
+        <v>5044.666666666667</v>
+      </c>
+      <c r="G175">
+        <v>14033</v>
+      </c>
+      <c r="H175">
+        <v>245991.6666666667</v>
       </c>
     </row>
     <row r="176">
@@ -3357,13 +4938,22 @@
         <v>229.589</v>
       </c>
       <c r="C176">
-        <v>17091.8</v>
+        <v>17068.6</v>
       </c>
       <c r="D176">
-        <v>17419.5</v>
+        <v>17395.8</v>
       </c>
       <c r="E176">
         <v>-1</v>
+      </c>
+      <c r="F176">
+        <v>5040</v>
+      </c>
+      <c r="G176">
+        <v>14031</v>
+      </c>
+      <c r="H176">
+        <v>249225</v>
       </c>
     </row>
     <row r="177">
@@ -3374,13 +4964,22 @@
         <v>230.4336666666667</v>
       </c>
       <c r="C177">
-        <v>17163.4</v>
+        <v>17143.4</v>
       </c>
       <c r="D177">
-        <v>17595.5</v>
+        <v>17575</v>
       </c>
       <c r="E177">
         <v>-1</v>
+      </c>
+      <c r="F177">
+        <v>5055.333333333333</v>
+      </c>
+      <c r="G177">
+        <v>14033.66666666667</v>
+      </c>
+      <c r="H177">
+        <v>247543.3333333333</v>
       </c>
     </row>
     <row r="178">
@@ -3391,13 +4990,22 @@
         <v>231.95</v>
       </c>
       <c r="C178">
-        <v>17236.1</v>
+        <v>17219.3</v>
       </c>
       <c r="D178">
-        <v>17742.4</v>
+        <v>17725.1</v>
       </c>
       <c r="E178">
         <v>-1</v>
+      </c>
+      <c r="F178">
+        <v>5054.666666666667</v>
+      </c>
+      <c r="G178">
+        <v>14037.66666666667</v>
+      </c>
+      <c r="H178">
+        <v>242591.3333333333</v>
       </c>
     </row>
     <row r="179">
@@ -3408,13 +5016,22 @@
         <v>233.1013333333334</v>
       </c>
       <c r="C179">
-        <v>17309.7</v>
+        <v>17296.2</v>
       </c>
       <c r="D179">
-        <v>17917.6</v>
+        <v>17903.5</v>
       </c>
       <c r="E179">
         <v>-1</v>
+      </c>
+      <c r="F179">
+        <v>5054.666666666667</v>
+      </c>
+      <c r="G179">
+        <v>14077</v>
+      </c>
+      <c r="H179">
+        <v>251613.3333333333</v>
       </c>
     </row>
     <row r="180">
@@ -3425,13 +5042,22 @@
         <v>233.4943333333333</v>
       </c>
       <c r="C180">
-        <v>17384.6</v>
+        <v>17374.2</v>
       </c>
       <c r="D180">
-        <v>18072.6</v>
+        <v>18061.8</v>
       </c>
       <c r="E180">
         <v>-1</v>
+      </c>
+      <c r="F180">
+        <v>5030.666666666667</v>
+      </c>
+      <c r="G180">
+        <v>14120</v>
+      </c>
+      <c r="H180">
+        <v>257546.3333333333</v>
       </c>
     </row>
     <row r="181">
@@ -3442,13 +5068,22 @@
         <v>232.431</v>
       </c>
       <c r="C181">
-        <v>17460.2</v>
+        <v>17453</v>
       </c>
       <c r="D181">
-        <v>18180.2</v>
+        <v>18172.7</v>
       </c>
       <c r="E181">
         <v>-1</v>
+      </c>
+      <c r="F181">
+        <v>5052.666666666667</v>
+      </c>
+      <c r="G181">
+        <v>14140</v>
+      </c>
+      <c r="H181">
+        <v>260104.3333333333</v>
       </c>
     </row>
     <row r="182">
@@ -3459,13 +5094,22 @@
         <v>230.2366666666667</v>
       </c>
       <c r="C182">
-        <v>17535.8</v>
+        <v>17532.1</v>
       </c>
       <c r="D182">
-        <v>18252.9</v>
+        <v>18238.8</v>
       </c>
       <c r="E182">
         <v>-1</v>
+      </c>
+      <c r="F182">
+        <v>5067.666666666667</v>
+      </c>
+      <c r="G182">
+        <v>14155</v>
+      </c>
+      <c r="H182">
+        <v>260731.6666666667</v>
       </c>
     </row>
     <row r="183">
@@ -3476,13 +5120,22 @@
         <v>231.9576666666667</v>
       </c>
       <c r="C183">
-        <v>17611.7</v>
+        <v>17611.2</v>
       </c>
       <c r="D183">
-        <v>18435.1</v>
+        <v>18420.6</v>
       </c>
       <c r="E183">
         <v>-1</v>
+      </c>
+      <c r="F183">
+        <v>5072.333333333333</v>
+      </c>
+      <c r="G183">
+        <v>14181.66666666667</v>
+      </c>
+      <c r="H183">
+        <v>274292.3333333333</v>
       </c>
     </row>
     <row r="184">
@@ -3493,13 +5146,22 @@
         <v>232.6933333333334</v>
       </c>
       <c r="C184">
-        <v>17687</v>
+        <v>17689.6</v>
       </c>
       <c r="D184">
-        <v>18579.8</v>
+        <v>18561</v>
       </c>
       <c r="E184">
         <v>-1</v>
+      </c>
+      <c r="F184">
+        <v>5077.666666666667</v>
+      </c>
+      <c r="G184">
+        <v>14214</v>
+      </c>
+      <c r="H184">
+        <v>278090.3333333333</v>
       </c>
     </row>
     <row r="185">
@@ -3510,13 +5172,22 @@
         <v>232.2803333333334</v>
       </c>
       <c r="C185">
-        <v>17761.5</v>
+        <v>17766.8</v>
       </c>
       <c r="D185">
-        <v>18658.1</v>
+        <v>18643.9</v>
       </c>
       <c r="E185">
         <v>-1</v>
+      </c>
+      <c r="F185">
+        <v>5087.333333333333</v>
+      </c>
+      <c r="G185">
+        <v>14223.66666666667</v>
+      </c>
+      <c r="H185">
+        <v>268417</v>
       </c>
     </row>
     <row r="186">
@@ -3527,13 +5198,22 @@
         <v>231.8976666666667</v>
       </c>
       <c r="C186">
-        <v>17836</v>
+        <v>17843.2</v>
       </c>
       <c r="D186">
-        <v>18717.3</v>
+        <v>18711.2</v>
       </c>
       <c r="E186">
         <v>-1</v>
+      </c>
+      <c r="F186">
+        <v>5089.333333333333</v>
+      </c>
+      <c r="G186">
+        <v>14280.33333333333</v>
+      </c>
+      <c r="H186">
+        <v>280145</v>
       </c>
     </row>
     <row r="187">
@@ -3544,13 +5224,22 @@
         <v>233.6383333333334</v>
       </c>
       <c r="C187">
-        <v>17908.6</v>
+        <v>17918.2</v>
       </c>
       <c r="D187">
-        <v>18921.7</v>
+        <v>18920.1</v>
       </c>
       <c r="E187">
         <v>-1</v>
+      </c>
+      <c r="F187">
+        <v>5099.333333333333</v>
+      </c>
+      <c r="G187">
+        <v>14298.33333333333</v>
+      </c>
+      <c r="H187">
+        <v>275022</v>
       </c>
     </row>
     <row r="188">
@@ -3561,13 +5250,22 @@
         <v>234.569</v>
       </c>
       <c r="C188">
-        <v>17980.7</v>
+        <v>17992</v>
       </c>
       <c r="D188">
-        <v>19067.1</v>
+        <v>19062.5</v>
       </c>
       <c r="E188">
         <v>-1</v>
+      </c>
+      <c r="F188">
+        <v>5125.333333333333</v>
+      </c>
+      <c r="G188">
+        <v>14357</v>
+      </c>
+      <c r="H188">
+        <v>271266.6666666667</v>
       </c>
     </row>
     <row r="189">
@@ -3578,13 +5276,22 @@
         <v>236.0903333333333</v>
       </c>
       <c r="C189">
-        <v>18052.4</v>
+        <v>18065.1</v>
       </c>
       <c r="D189">
-        <v>19235.1</v>
+        <v>19233.7</v>
       </c>
       <c r="E189">
         <v>-1</v>
+      </c>
+      <c r="F189">
+        <v>5138</v>
+      </c>
+      <c r="G189">
+        <v>14352</v>
+      </c>
+      <c r="H189">
+        <v>274719.6666666667</v>
       </c>
     </row>
     <row r="190">
@@ -3595,13 +5302,22 @@
         <v>237.8366666666667</v>
       </c>
       <c r="C190">
-        <v>18123.9</v>
+        <v>18137.7</v>
       </c>
       <c r="D190">
-        <v>19403.1</v>
+        <v>19409</v>
       </c>
       <c r="E190">
         <v>-1</v>
+      </c>
+      <c r="F190">
+        <v>5158</v>
+      </c>
+      <c r="G190">
+        <v>14344.33333333333</v>
+      </c>
+      <c r="H190">
+        <v>274527.6666666667</v>
       </c>
     </row>
     <row r="191">
@@ -3612,13 +5328,22 @@
         <v>237.876</v>
       </c>
       <c r="C191">
-        <v>18196.9</v>
+        <v>18211.1</v>
       </c>
       <c r="D191">
-        <v>19545.5</v>
+        <v>19547.7</v>
       </c>
       <c r="E191">
         <v>-1</v>
+      </c>
+      <c r="F191">
+        <v>5170</v>
+      </c>
+      <c r="G191">
+        <v>14361.33333333333</v>
+      </c>
+      <c r="H191">
+        <v>275545.6666666667</v>
       </c>
     </row>
     <row r="192">
@@ -3629,13 +5354,22 @@
         <v>239.2166666666667</v>
       </c>
       <c r="C192">
-        <v>18272.6</v>
+        <v>18287.1</v>
       </c>
       <c r="D192">
-        <v>19729.4</v>
+        <v>19726.8</v>
       </c>
       <c r="E192">
         <v>-1</v>
+      </c>
+      <c r="F192">
+        <v>5166.666666666667</v>
+      </c>
+      <c r="G192">
+        <v>14391</v>
+      </c>
+      <c r="H192">
+        <v>273887</v>
       </c>
     </row>
     <row r="193">
@@ -3646,13 +5380,22 @@
         <v>241.274</v>
       </c>
       <c r="C193">
-        <v>18350.5</v>
+        <v>18365.3</v>
       </c>
       <c r="D193">
-        <v>19949.3</v>
+        <v>19944.4</v>
       </c>
       <c r="E193">
         <v>-1</v>
+      </c>
+      <c r="F193">
+        <v>5161.666666666667</v>
+      </c>
+      <c r="G193">
+        <v>14423</v>
+      </c>
+      <c r="H193">
+        <v>278738</v>
       </c>
     </row>
     <row r="194">
@@ -3663,13 +5406,22 @@
         <v>243.3273333333333</v>
       </c>
       <c r="C194">
-        <v>18430.7</v>
+        <v>18446.4</v>
       </c>
       <c r="D194">
-        <v>20154.9</v>
+        <v>20150.3</v>
       </c>
       <c r="E194">
         <v>-1</v>
+      </c>
+      <c r="F194">
+        <v>5150.666666666667</v>
+      </c>
+      <c r="G194">
+        <v>14442</v>
+      </c>
+      <c r="H194">
+        <v>284701</v>
       </c>
     </row>
     <row r="195">
@@ -3680,13 +5432,22 @@
         <v>244.6613333333334</v>
       </c>
       <c r="C195">
-        <v>18513.4</v>
+        <v>18530.5</v>
       </c>
       <c r="D195">
-        <v>20416.8</v>
+        <v>20416.2</v>
       </c>
       <c r="E195">
         <v>-1</v>
+      </c>
+      <c r="F195">
+        <v>5173.666666666667</v>
+      </c>
+      <c r="G195">
+        <v>14466.66666666667</v>
+      </c>
+      <c r="H195">
+        <v>293031</v>
       </c>
     </row>
     <row r="196">
@@ -3697,13 +5458,22 @@
         <v>245.9633333333333</v>
       </c>
       <c r="C196">
-        <v>18598.3</v>
+        <v>18617.4</v>
       </c>
       <c r="D196">
-        <v>20600.9</v>
+        <v>20593.4</v>
       </c>
       <c r="E196">
         <v>-1</v>
+      </c>
+      <c r="F196">
+        <v>5184.666666666667</v>
+      </c>
+      <c r="G196">
+        <v>14494.66666666667</v>
+      </c>
+      <c r="H196">
+        <v>291638.3333333333</v>
       </c>
     </row>
     <row r="197">
@@ -3714,13 +5484,22 @@
         <v>246.6076666666667</v>
       </c>
       <c r="C197">
-        <v>18684</v>
+        <v>18705.5</v>
       </c>
       <c r="D197">
-        <v>20787</v>
+        <v>20789.5</v>
       </c>
       <c r="E197">
         <v>-1</v>
+      </c>
+      <c r="F197">
+        <v>5176.666666666667</v>
+      </c>
+      <c r="G197">
+        <v>14503.66666666667</v>
+      </c>
+      <c r="H197">
+        <v>283060</v>
       </c>
     </row>
     <row r="198">
@@ -3731,13 +5510,22 @@
         <v>246.8373333333333</v>
       </c>
       <c r="C198">
-        <v>18770.2</v>
+        <v>18794.8</v>
       </c>
       <c r="D198">
-        <v>20923.6</v>
+        <v>20942.1</v>
       </c>
       <c r="E198">
         <v>-1</v>
+      </c>
+      <c r="F198">
+        <v>5173.333333333333</v>
+      </c>
+      <c r="G198">
+        <v>14529</v>
+      </c>
+      <c r="H198">
+        <v>299821.3333333333</v>
       </c>
     </row>
     <row r="199">
@@ -3748,13 +5536,22 @@
         <v>248.8213333333333</v>
       </c>
       <c r="C199">
-        <v>18856.7</v>
+        <v>18885.5</v>
       </c>
       <c r="D199">
-        <v>21155</v>
+        <v>21178.4</v>
       </c>
       <c r="E199">
         <v>-1</v>
+      </c>
+      <c r="F199">
+        <v>5161.333333333333</v>
+      </c>
+      <c r="G199">
+        <v>14565</v>
+      </c>
+      <c r="H199">
+        <v>314021</v>
       </c>
     </row>
     <row r="200">
@@ -3765,13 +5562,22 @@
         <v>249.831</v>
       </c>
       <c r="C200">
-        <v>18943.1</v>
+        <v>18976.5</v>
       </c>
       <c r="D200">
-        <v>21342</v>
+        <v>21354.4</v>
       </c>
       <c r="E200">
         <v>-1</v>
+      </c>
+      <c r="F200">
+        <v>5177.666666666667</v>
+      </c>
+      <c r="G200">
+        <v>14598.66666666667</v>
+      </c>
+      <c r="H200">
+        <v>311467.6666666667</v>
       </c>
     </row>
     <row r="201">
@@ -3782,13 +5588,22 @@
         <v>251.367</v>
       </c>
       <c r="C201">
-        <v>19029.6</v>
+        <v>19065.6</v>
       </c>
       <c r="D201">
-        <v>21511.7</v>
+        <v>21534.6</v>
       </c>
       <c r="E201">
         <v>1</v>
+      </c>
+      <c r="F201">
+        <v>5183</v>
+      </c>
+      <c r="G201">
+        <v>14631</v>
+      </c>
+      <c r="H201">
+        <v>312808.6666666667</v>
       </c>
     </row>
     <row r="202">
@@ -3799,13 +5614,22 @@
         <v>251.9656666666666</v>
       </c>
       <c r="C202">
-        <v>19115.9</v>
+        <v>19154</v>
       </c>
       <c r="D202">
-        <v>21696.9</v>
+        <v>21723.5</v>
       </c>
       <c r="E202">
         <v>1</v>
+      </c>
+      <c r="F202">
+        <v>5183.666666666667</v>
+      </c>
+      <c r="G202">
+        <v>14676</v>
+      </c>
+      <c r="H202">
+        <v>328551</v>
       </c>
     </row>
     <row r="203">
@@ -3816,13 +5640,22 @@
         <v>249.442</v>
       </c>
       <c r="C203">
-        <v>19203.8</v>
+        <v>19242</v>
       </c>
       <c r="D203">
-        <v>21657.2</v>
+        <v>21708.2</v>
       </c>
       <c r="E203">
         <v>1</v>
+      </c>
+      <c r="F203">
+        <v>4974</v>
+      </c>
+      <c r="G203">
+        <v>13591.66666666667</v>
+      </c>
+      <c r="H203">
+        <v>326980</v>
       </c>
     </row>
     <row r="204">
@@ -3833,13 +5666,22 @@
         <v>253.1416666666667</v>
       </c>
       <c r="C204">
-        <v>19267.7</v>
+        <v>19327.3</v>
       </c>
       <c r="D204">
-        <v>21803.7</v>
+        <v>22002.3</v>
       </c>
       <c r="E204">
         <v>1</v>
+      </c>
+      <c r="F204">
+        <v>4957.666666666667</v>
+      </c>
+      <c r="G204">
+        <v>13763.33333333333</v>
+      </c>
+      <c r="H204">
+        <v>318988.3333333333</v>
       </c>
     </row>
     <row r="205">
@@ -3850,13 +5692,22 @@
         <v>254.6403333333334</v>
       </c>
       <c r="C205">
-        <v>19330.8</v>
+        <v>19414.2</v>
       </c>
       <c r="D205">
-        <v>21896.2</v>
+        <v>22146</v>
       </c>
       <c r="E205">
         <v>1</v>
+      </c>
+      <c r="F205">
+        <v>4840.333333333333</v>
+      </c>
+      <c r="G205">
+        <v>13685</v>
+      </c>
+      <c r="H205">
+        <v>325241.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -3867,13 +5718,22 @@
         <v>252.408</v>
       </c>
       <c r="C206">
-        <v>19396.3</v>
+        <v>19502.8</v>
       </c>
       <c r="D206">
-        <v>22013.2</v>
+        <v>22361.5</v>
       </c>
       <c r="E206">
         <v>1</v>
+      </c>
+      <c r="F206">
+        <v>4924</v>
+      </c>
+      <c r="G206">
+        <v>13680</v>
+      </c>
+      <c r="H206">
+        <v>323736.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -3884,13 +5744,22 @@
         <v>253.3966666666667</v>
       </c>
       <c r="C207">
-        <v>19466.4</v>
+        <v>19594.2</v>
       </c>
       <c r="D207">
-        <v>22166.5</v>
+        <v>22558.5</v>
       </c>
       <c r="E207">
         <v>1</v>
+      </c>
+      <c r="F207">
+        <v>4907.333333333333</v>
+      </c>
+      <c r="G207">
+        <v>13709.44444444445</v>
+      </c>
+      <c r="H207">
+        <v>322655.5555555556</v>
       </c>
     </row>
     <row r="208">
@@ -3901,13 +5770,22 @@
         <v>253.4816666666667</v>
       </c>
       <c r="C208">
-        <v>19542.1</v>
+        <v>19687.7</v>
       </c>
       <c r="D208">
-        <v>22336.7</v>
+        <v>22781.6</v>
       </c>
       <c r="E208">
         <v>1</v>
+      </c>
+      <c r="F208">
+        <v>4890.555555555556</v>
+      </c>
+      <c r="G208">
+        <v>13691.48148148148</v>
+      </c>
+      <c r="H208">
+        <v>323877.962962963</v>
       </c>
     </row>
     <row r="209">
@@ -3918,13 +5796,22 @@
         <v>253.0954444444445</v>
       </c>
       <c r="C209">
-        <v>19623.7</v>
+        <v>19783.1</v>
       </c>
       <c r="D209">
-        <v>22513.3</v>
+        <v>22992.3</v>
       </c>
       <c r="E209">
         <v>1</v>
+      </c>
+      <c r="F209">
+        <v>4907.296296296297</v>
+      </c>
+      <c r="G209">
+        <v>13693.64197530864</v>
+      </c>
+      <c r="H209">
+        <v>323423.3950617284</v>
       </c>
     </row>
     <row r="210">
@@ -3935,13 +5822,22 @@
         <v>253.3245925925926</v>
       </c>
       <c r="C210">
-        <v>19708.4</v>
+        <v>19879.6</v>
       </c>
       <c r="D210">
-        <v>22704.4</v>
+        <v>23223.9</v>
       </c>
       <c r="E210">
         <v>1</v>
+      </c>
+      <c r="F210">
+        <v>4901.728395061728</v>
+      </c>
+      <c r="G210">
+        <v>13698.18930041152</v>
+      </c>
+      <c r="H210">
+        <v>323318.9711934156</v>
       </c>
     </row>
     <row r="211">
@@ -3952,13 +5848,22 @@
         <v>253.3005679012346</v>
       </c>
       <c r="C211">
-        <v>19794.5</v>
+        <v>19975.5</v>
       </c>
       <c r="D211">
-        <v>22907.1</v>
+        <v>23445.8</v>
       </c>
       <c r="E211">
         <v>1</v>
+      </c>
+      <c r="F211">
+        <v>4899.860082304527</v>
+      </c>
+      <c r="G211">
+        <v>13694.43758573388</v>
+      </c>
+      <c r="H211">
+        <v>323540.109739369</v>
       </c>
     </row>
     <row r="212">
@@ -3969,13 +5874,22 @@
         <v>253.2402016460906</v>
       </c>
       <c r="C212">
-        <v>19881.7</v>
+        <v>20069.9</v>
       </c>
       <c r="D212">
-        <v>23116.6</v>
+        <v>23668.9</v>
       </c>
       <c r="E212">
         <v>1</v>
+      </c>
+      <c r="F212">
+        <v>4902.961591220851</v>
+      </c>
+      <c r="G212">
+        <v>13695.42295381802</v>
+      </c>
+      <c r="H212">
+        <v>323427.491998171</v>
       </c>
     </row>
     <row r="213">
@@ -3986,13 +5900,22 @@
         <v>253.2884540466393</v>
       </c>
       <c r="C213">
-        <v>19970</v>
+        <v>20163.7</v>
       </c>
       <c r="D213">
-        <v>23327.7</v>
+        <v>23896.9</v>
       </c>
       <c r="E213">
         <v>1</v>
+      </c>
+      <c r="F213">
+        <v>4901.516689529036</v>
+      </c>
+      <c r="G213">
+        <v>13696.01661332114</v>
+      </c>
+      <c r="H213">
+        <v>323428.8576436519</v>
       </c>
     </row>
     <row r="214">
@@ -4003,13 +5926,22 @@
         <v>253.2764078646548</v>
       </c>
       <c r="C214">
-        <v>20059.6</v>
+        <v>20257.3</v>
       </c>
       <c r="D214">
-        <v>23541</v>
+        <v>24125.1</v>
       </c>
       <c r="E214">
         <v>1</v>
+      </c>
+      <c r="F214">
+        <v>4901.446121018138</v>
+      </c>
+      <c r="G214">
+        <v>13695.29238429101</v>
+      </c>
+      <c r="H214">
+        <v>323465.4864603973</v>
       </c>
     </row>
     <row r="215">
@@ -4020,13 +5952,22 @@
         <v>253.2683545191282</v>
       </c>
       <c r="C215">
-        <v>20149.6</v>
+        <v>20351.2</v>
       </c>
       <c r="D215">
-        <v>23760.7</v>
+        <v>24357.3</v>
       </c>
       <c r="E215">
         <v>1</v>
+      </c>
+      <c r="F215">
+        <v>4901.974800589342</v>
+      </c>
+      <c r="G215">
+        <v>13695.57731714339</v>
+      </c>
+      <c r="H215">
+        <v>323440.6120340734</v>
       </c>
     </row>
     <row r="216">
@@ -4037,13 +5978,22 @@
         <v>253.2777388101408</v>
       </c>
       <c r="C216">
-        <v>20240.9</v>
+        <v>20446</v>
       </c>
       <c r="D216">
-        <v>23985.2</v>
+        <v>24593.7</v>
       </c>
       <c r="E216">
         <v>1</v>
+      </c>
+      <c r="F216">
+        <v>4901.645870378839</v>
+      </c>
+      <c r="G216">
+        <v>13695.62877158518</v>
+      </c>
+      <c r="H216">
+        <v>323444.9853793742</v>
       </c>
     </row>
     <row r="217">
@@ -4054,13 +6004,22 @@
         <v>253.2741670646413</v>
       </c>
       <c r="C217">
-        <v>20333.5</v>
+        <v>20541.7</v>
       </c>
       <c r="D217">
-        <v>24212.9</v>
+        <v>24835.7</v>
       </c>
       <c r="E217">
         <v>1</v>
+      </c>
+      <c r="F217">
+        <v>4901.688930662106</v>
+      </c>
+      <c r="G217">
+        <v>13695.49949100653</v>
+      </c>
+      <c r="H217">
+        <v>323450.3612912817</v>
       </c>
     </row>
     <row r="218">
@@ -4071,13 +6030,22 @@
         <v>253.2734201313034</v>
       </c>
       <c r="C218">
-        <v>20427.1</v>
+        <v>20638</v>
       </c>
       <c r="D218">
-        <v>24447.6</v>
+        <v>25082.5</v>
       </c>
       <c r="E218">
         <v>1</v>
+      </c>
+      <c r="F218">
+        <v>4901.769867210095</v>
+      </c>
+      <c r="G218">
+        <v>13695.56852657837</v>
+      </c>
+      <c r="H218">
+        <v>323445.3195682431</v>
       </c>
     </row>
     <row r="219">
@@ -4088,13 +6056,22 @@
         <v>253.2751086686951</v>
       </c>
       <c r="C219">
-        <v>20520.9</v>
+        <v>20734.1</v>
       </c>
       <c r="D219">
-        <v>24685.7</v>
+        <v>25331.2</v>
       </c>
       <c r="E219">
         <v>1</v>
+      </c>
+      <c r="F219">
+        <v>4901.70155608368</v>
+      </c>
+      <c r="G219">
+        <v>13695.56559639003</v>
+      </c>
+      <c r="H219">
+        <v>323446.8887462996</v>
       </c>
     </row>
     <row r="220">
@@ -4105,13 +6082,22 @@
         <v>253.2742319548799</v>
       </c>
       <c r="C220">
-        <v>20615.2</v>
+        <v>20830.5</v>
       </c>
       <c r="D220">
-        <v>24925.4</v>
+        <v>25582.8</v>
       </c>
       <c r="E220">
         <v>1</v>
+      </c>
+      <c r="F220">
+        <v>4901.720117985294</v>
+      </c>
+      <c r="G220">
+        <v>13695.54453799164</v>
+      </c>
+      <c r="H220">
+        <v>323447.5232019415</v>
       </c>
     </row>
     <row r="221">
@@ -4122,13 +6108,22 @@
         <v>253.2742535849595</v>
       </c>
       <c r="C221">
-        <v>20710</v>
+        <v>20927.1</v>
       </c>
       <c r="D221">
-        <v>25167.5</v>
+        <v>25837.4</v>
       </c>
       <c r="E221">
         <v>1</v>
+      </c>
+      <c r="F221">
+        <v>4901.73051375969</v>
+      </c>
+      <c r="G221">
+        <v>13695.55955365334</v>
+      </c>
+      <c r="H221">
+        <v>323446.5771721614</v>
       </c>
     </row>
     <row r="222">
@@ -4139,13 +6134,22 @@
         <v>253.2745314028448</v>
       </c>
       <c r="C222">
-        <v>20805</v>
+        <v>21023.6</v>
       </c>
       <c r="D222">
-        <v>25410.6</v>
+        <v>26092.8</v>
       </c>
       <c r="E222">
         <v>1</v>
+      </c>
+      <c r="F222">
+        <v>4901.717395942887</v>
+      </c>
+      <c r="G222">
+        <v>13695.55656267834</v>
+      </c>
+      <c r="H222">
+        <v>323446.9963734675</v>
       </c>
     </row>
     <row r="223">
@@ -4156,13 +6160,22 @@
         <v>253.2743389808948</v>
       </c>
       <c r="C223">
-        <v>20899.5</v>
+        <v>21118.9</v>
       </c>
       <c r="D223">
-        <v>25656.1</v>
+        <v>26350</v>
       </c>
       <c r="E223">
         <v>1</v>
+      </c>
+      <c r="F223">
+        <v>4901.722675895957</v>
+      </c>
+      <c r="G223">
+        <v>13695.55355144111</v>
+      </c>
+      <c r="H223">
+        <v>323447.0322491901</v>
       </c>
     </row>
     <row r="224">
@@ -4173,13 +6186,22 @@
         <v>253.274374656233</v>
       </c>
       <c r="C224">
-        <v>20994.1</v>
+        <v>21213.5</v>
       </c>
       <c r="D224">
-        <v>25903.9</v>
+        <v>26608.2</v>
       </c>
       <c r="E224">
         <v>1</v>
+      </c>
+      <c r="F224">
+        <v>4901.723528532844</v>
+      </c>
+      <c r="G224">
+        <v>13695.55655592426</v>
+      </c>
+      <c r="H224">
+        <v>323446.868598273</v>
       </c>
     </row>
     <row r="225">
@@ -4190,13 +6212,22 @@
         <v>253.2744150133242</v>
       </c>
       <c r="C225">
-        <v>21088.7</v>
+        <v>21307.4</v>
       </c>
       <c r="D225">
-        <v>26153.3</v>
+        <v>26868.4</v>
       </c>
       <c r="E225">
         <v>1</v>
+      </c>
+      <c r="F225">
+        <v>4901.721200123896</v>
+      </c>
+      <c r="G225">
+        <v>13695.55555668124</v>
+      </c>
+      <c r="H225">
+        <v>323446.9657403102</v>
       </c>
     </row>
     <row r="226">
@@ -4207,13 +6238,22 @@
         <v>253.2743762168173</v>
       </c>
       <c r="C226">
-        <v>21183.2</v>
+        <v>21400.7</v>
       </c>
       <c r="D226">
-        <v>26404.5</v>
+        <v>27130.7</v>
       </c>
       <c r="E226">
         <v>1</v>
+      </c>
+      <c r="F226">
+        <v>4901.722468184233</v>
+      </c>
+      <c r="G226">
+        <v>13695.55522134887</v>
+      </c>
+      <c r="H226">
+        <v>323446.9555292578</v>
       </c>
     </row>
     <row r="227">
@@ -4224,13 +6264,22 @@
         <v>253.2743886287915</v>
       </c>
       <c r="C227">
-        <v>21277.3</v>
+        <v>21493.1</v>
       </c>
       <c r="D227">
-        <v>26656.7</v>
+        <v>27394</v>
       </c>
       <c r="E227">
         <v>1</v>
+      </c>
+      <c r="F227">
+        <v>4901.722398946991</v>
+      </c>
+      <c r="G227">
+        <v>13695.55577798479</v>
+      </c>
+      <c r="H227">
+        <v>323446.929955947</v>
       </c>
     </row>
     <row r="228">
@@ -4241,13 +6290,22 @@
         <v>253.274393286311</v>
       </c>
       <c r="C228">
-        <v>21371.1</v>
+        <v>21585.4</v>
       </c>
       <c r="D228">
-        <v>26910.6</v>
+        <v>27659.8</v>
       </c>
       <c r="E228">
         <v>1</v>
+      </c>
+      <c r="F228">
+        <v>4901.722022418373</v>
+      </c>
+      <c r="G228">
+        <v>13695.55551867163</v>
+      </c>
+      <c r="H228">
+        <v>323446.950408505</v>
       </c>
     </row>
     <row r="229">
@@ -4258,13 +6316,22 @@
         <v>253.2743860439733</v>
       </c>
       <c r="C229">
-        <v>21465.2</v>
+        <v>21677.8</v>
       </c>
       <c r="D229">
-        <v>27166.5</v>
+        <v>27928.2</v>
       </c>
       <c r="E229">
         <v>1</v>
+      </c>
+      <c r="F229">
+        <v>4901.722296516532</v>
+      </c>
+      <c r="G229">
+        <v>13695.55550600176</v>
+      </c>
+      <c r="H229">
+        <v>323446.9452979033</v>
       </c>
     </row>
     <row r="230">
@@ -4275,13 +6342,22 @@
         <v>253.274389319692</v>
       </c>
       <c r="C230">
-        <v>21559.9</v>
+        <v>21770.3</v>
       </c>
       <c r="D230">
-        <v>27424.5</v>
+        <v>28199.4</v>
       </c>
       <c r="E230">
         <v>1</v>
+      </c>
+      <c r="F230">
+        <v>4901.722239293966</v>
+      </c>
+      <c r="G230">
+        <v>13695.55560088606</v>
+      </c>
+      <c r="H230">
+        <v>323446.9418874517</v>
       </c>
     </row>
     <row r="231">
@@ -4292,13 +6368,22 @@
         <v>253.2743895499921</v>
       </c>
       <c r="C231">
-        <v>21654.9</v>
+        <v>21862.9</v>
       </c>
       <c r="D231">
-        <v>27684.5</v>
+        <v>28472.8</v>
       </c>
       <c r="E231">
         <v>1</v>
+      </c>
+      <c r="F231">
+        <v>4901.72218607629</v>
+      </c>
+      <c r="G231">
+        <v>13695.55554185315</v>
+      </c>
+      <c r="H231">
+        <v>323446.94586462</v>
       </c>
     </row>
     <row r="232">
@@ -4309,13 +6394,22 @@
         <v>253.2743883045525</v>
       </c>
       <c r="C232">
-        <v>21750.6</v>
+        <v>21956.1</v>
       </c>
       <c r="D232">
-        <v>27947.3</v>
+        <v>28749.1</v>
       </c>
       <c r="E232">
         <v>1</v>
+      </c>
+      <c r="F232">
+        <v>4901.722240628929</v>
+      </c>
+      <c r="G232">
+        <v>13695.55554958033</v>
+      </c>
+      <c r="H232">
+        <v>323446.9443499917</v>
       </c>
     </row>
     <row r="233">
@@ -4326,13 +6420,22 @@
         <v>253.2743890580788</v>
       </c>
       <c r="C233">
-        <v>21847.3</v>
+        <v>22049.5</v>
       </c>
       <c r="D233">
-        <v>28213</v>
+        <v>29028.4</v>
       </c>
       <c r="E233">
         <v>1</v>
+      </c>
+      <c r="F233">
+        <v>4901.722221999728</v>
+      </c>
+      <c r="G233">
+        <v>13695.55556410651</v>
+      </c>
+      <c r="H233">
+        <v>323446.9440340211</v>
       </c>
     </row>
     <row r="234">
@@ -4343,13 +6446,22 @@
         <v>253.2743889708745</v>
       </c>
       <c r="C234">
-        <v>21944.5</v>
+        <v>22143.3</v>
       </c>
       <c r="D234">
-        <v>28481.1</v>
+        <v>29309.3</v>
       </c>
       <c r="E234">
         <v>1</v>
+      </c>
+      <c r="F234">
+        <v>4901.722216234983</v>
+      </c>
+      <c r="G234">
+        <v>13695.55555184666</v>
+      </c>
+      <c r="H234">
+        <v>323446.9447495443</v>
       </c>
     </row>
     <row r="235">
@@ -4360,13 +6472,22 @@
         <v>253.2743887778352</v>
       </c>
       <c r="C235">
-        <v>22042.9</v>
+        <v>22238.3</v>
       </c>
       <c r="D235">
-        <v>28752.4</v>
+        <v>29593.1</v>
       </c>
       <c r="E235">
         <v>1</v>
+      </c>
+      <c r="F235">
+        <v>4901.72222628788</v>
+      </c>
+      <c r="G235">
+        <v>13695.55555517783</v>
+      </c>
+      <c r="H235">
+        <v>323446.9443778524</v>
       </c>
     </row>
     <row r="236">
@@ -4377,13 +6498,22 @@
         <v>253.2743889355962</v>
       </c>
       <c r="C236">
-        <v>22142.1</v>
+        <v>22334.3</v>
       </c>
       <c r="D236">
-        <v>29026.6</v>
+        <v>29879.7</v>
       </c>
       <c r="E236">
         <v>1</v>
+      </c>
+      <c r="F236">
+        <v>4901.722221507531</v>
+      </c>
+      <c r="G236">
+        <v>13695.55555704367</v>
+      </c>
+      <c r="H236">
+        <v>323446.9443871392</v>
       </c>
     </row>
     <row r="237">
@@ -4394,13 +6524,22 @@
         <v>253.2743888947686</v>
       </c>
       <c r="C237">
-        <v>22242.1</v>
+        <v>22431.4</v>
       </c>
       <c r="D237">
-        <v>29303.7</v>
+        <v>30169.2</v>
       </c>
       <c r="E237">
         <v>1</v>
+      </c>
+      <c r="F237">
+        <v>4901.722221343464</v>
+      </c>
+      <c r="G237">
+        <v>13695.55555468939</v>
+      </c>
+      <c r="H237">
+        <v>323446.9445048453</v>
       </c>
     </row>
     <row r="238">
@@ -4411,13 +6550,22 @@
         <v>253.2743888694</v>
       </c>
       <c r="C238">
-        <v>22342.8</v>
+        <v>22529.4</v>
       </c>
       <c r="D238">
-        <v>29583.5</v>
+        <v>30461.2</v>
       </c>
       <c r="E238">
         <v>1</v>
+      </c>
+      <c r="F238">
+        <v>4901.722223046292</v>
+      </c>
+      <c r="G238">
+        <v>13695.55555563697</v>
+      </c>
+      <c r="H238">
+        <v>323446.944423279</v>
       </c>
     </row>
     <row r="239">
@@ -4428,13 +6576,22 @@
         <v>253.2743888999216</v>
       </c>
       <c r="C239">
-        <v>22444</v>
+        <v>22628.1</v>
       </c>
       <c r="D239">
-        <v>29865.7</v>
+        <v>30755.7</v>
       </c>
       <c r="E239">
         <v>1</v>
+      </c>
+      <c r="F239">
+        <v>4901.722221965762</v>
+      </c>
+      <c r="G239">
+        <v>13695.55555579001</v>
+      </c>
+      <c r="H239">
+        <v>323446.9444384212</v>
       </c>
     </row>
     <row r="240">
@@ -4445,13 +6602,22 @@
         <v>253.2743888880301</v>
       </c>
       <c r="C240">
-        <v>22544.9</v>
+        <v>22726.7</v>
       </c>
       <c r="D240">
-        <v>30149.6</v>
+        <v>31051.6</v>
       </c>
       <c r="E240">
         <v>1</v>
+      </c>
+      <c r="F240">
+        <v>4901.722222118507</v>
+      </c>
+      <c r="G240">
+        <v>13695.55555537212</v>
+      </c>
+      <c r="H240">
+        <v>323446.9444555151</v>
       </c>
     </row>
     <row r="241">
@@ -4462,13 +6628,22 @@
         <v>253.2743888857839</v>
       </c>
       <c r="C241">
-        <v>22645.8</v>
+        <v>22825.1</v>
       </c>
       <c r="D241">
-        <v>30435.5</v>
+        <v>31349.1</v>
       </c>
       <c r="E241">
         <v>1</v>
+      </c>
+      <c r="F241">
+        <v>4901.722222376854</v>
+      </c>
+      <c r="G241">
+        <v>13695.5555555997</v>
+      </c>
+      <c r="H241">
+        <v>323446.9444390718</v>
       </c>
     </row>
     <row r="242">
@@ -4479,13 +6654,22 @@
         <v>253.2743888912452</v>
       </c>
       <c r="C242">
-        <v>22746.7</v>
+        <v>22923.6</v>
       </c>
       <c r="D242">
-        <v>30723.8</v>
+        <v>31648.4</v>
       </c>
       <c r="E242">
         <v>1</v>
+      </c>
+      <c r="F242">
+        <v>4901.722222153708</v>
+      </c>
+      <c r="G242">
+        <v>13695.55555558728</v>
+      </c>
+      <c r="H242">
+        <v>323446.944444336</v>
       </c>
     </row>
     <row r="243">
@@ -4496,13 +6680,22 @@
         <v>253.2743888883531</v>
       </c>
       <c r="C243">
-        <v>22847.3</v>
+        <v>23022.1</v>
       </c>
       <c r="D243">
-        <v>31013.8</v>
+        <v>31949.1</v>
       </c>
       <c r="E243">
         <v>1</v>
+      </c>
+      <c r="F243">
+        <v>4901.722222216356</v>
+      </c>
+      <c r="G243">
+        <v>13695.5555555197</v>
+      </c>
+      <c r="H243">
+        <v>323446.9444463076</v>
       </c>
     </row>
     <row r="244">
@@ -4513,13 +6706,22 @@
         <v>253.2743888884607</v>
       </c>
       <c r="C244">
-        <v>22947.4</v>
+        <v>23120.6</v>
       </c>
       <c r="D244">
-        <v>31305.3</v>
+        <v>32251.7</v>
       </c>
       <c r="E244">
         <v>1</v>
+      </c>
+      <c r="F244">
+        <v>4901.722222248973</v>
+      </c>
+      <c r="G244">
+        <v>13695.55555556889</v>
+      </c>
+      <c r="H244">
+        <v>323446.9444432384</v>
       </c>
     </row>
     <row r="245">
@@ -4530,13 +6732,126 @@
         <v>253.274388889353</v>
       </c>
       <c r="C245">
-        <v>23047.2</v>
+        <v>23219.4</v>
       </c>
       <c r="D245">
-        <v>31598.5</v>
+        <v>32556.4</v>
       </c>
       <c r="E245">
         <v>1</v>
+      </c>
+      <c r="F245">
+        <v>4901.722222206346</v>
+      </c>
+      <c r="G245">
+        <v>13695.55555555862</v>
+      </c>
+      <c r="H245">
+        <v>323446.9444446273</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>47938</v>
+      </c>
+      <c r="B246">
+        <v>253.2743888887223</v>
+      </c>
+      <c r="C246">
+        <v>23318.3</v>
+      </c>
+      <c r="D246">
+        <v>32863.2</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>4901.722222223892</v>
+      </c>
+      <c r="G246">
+        <v>13695.55555554907</v>
+      </c>
+      <c r="H246">
+        <v>323446.9444447245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>48029</v>
+      </c>
+      <c r="B247">
+        <v>253.2743888888453</v>
+      </c>
+      <c r="C247">
+        <v>23417.4</v>
+      </c>
+      <c r="D247">
+        <v>33172</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>4901.722222226404</v>
+      </c>
+      <c r="G247">
+        <v>13695.55555555886</v>
+      </c>
+      <c r="H247">
+        <v>323446.9444441968</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>48121</v>
+      </c>
+      <c r="B248">
+        <v>253.2743888889735</v>
+      </c>
+      <c r="C248">
+        <v>23516.4</v>
+      </c>
+      <c r="D248">
+        <v>33482.6</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>4901.72222221888</v>
+      </c>
+      <c r="G248">
+        <v>13695.55555555552</v>
+      </c>
+      <c r="H248">
+        <v>323446.9444445162</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>48213</v>
+      </c>
+      <c r="B249">
+        <v>253.274388888847</v>
+      </c>
+      <c r="C249">
+        <v>23615.3</v>
+      </c>
+      <c r="D249">
+        <v>33795</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>4901.722222223059</v>
+      </c>
+      <c r="G249">
+        <v>13695.55555555448</v>
+      </c>
+      <c r="H249">
+        <v>323446.9444444791</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -5195,7 +5195,7 @@
         <v>42460</v>
       </c>
       <c r="B186">
-        <v>231.8976666666667</v>
+        <v>231.781</v>
       </c>
       <c r="C186">
         <v>17843.2</v>
@@ -5207,10 +5207,10 @@
         <v>-1</v>
       </c>
       <c r="F186">
-        <v>5089.333333333333</v>
+        <v>5089</v>
       </c>
       <c r="G186">
-        <v>14280.33333333333</v>
+        <v>14277</v>
       </c>
       <c r="H186">
         <v>280145</v>
@@ -5221,7 +5221,7 @@
         <v>42551</v>
       </c>
       <c r="B187">
-        <v>233.6383333333334</v>
+        <v>233.774</v>
       </c>
       <c r="C187">
         <v>17918.2</v>
@@ -5233,10 +5233,10 @@
         <v>-1</v>
       </c>
       <c r="F187">
-        <v>5099.333333333333</v>
+        <v>5098.666666666667</v>
       </c>
       <c r="G187">
-        <v>14298.33333333333</v>
+        <v>14297.66666666667</v>
       </c>
       <c r="H187">
         <v>275022</v>
@@ -5247,7 +5247,7 @@
         <v>42643</v>
       </c>
       <c r="B188">
-        <v>234.569</v>
+        <v>234.5966666666667</v>
       </c>
       <c r="C188">
         <v>17992</v>
@@ -5259,10 +5259,10 @@
         <v>-1</v>
       </c>
       <c r="F188">
-        <v>5125.333333333333</v>
+        <v>5126.666666666667</v>
       </c>
       <c r="G188">
-        <v>14357</v>
+        <v>14369</v>
       </c>
       <c r="H188">
         <v>271266.6666666667</v>
@@ -5273,7 +5273,7 @@
         <v>42735</v>
       </c>
       <c r="B189">
-        <v>236.0903333333333</v>
+        <v>236.1406666666667</v>
       </c>
       <c r="C189">
         <v>18065.1</v>
@@ -5285,10 +5285,10 @@
         <v>-1</v>
       </c>
       <c r="F189">
-        <v>5138</v>
+        <v>5135.333333333333</v>
       </c>
       <c r="G189">
-        <v>14352</v>
+        <v>14351</v>
       </c>
       <c r="H189">
         <v>274719.6666666667</v>
@@ -5299,7 +5299,7 @@
         <v>42825</v>
       </c>
       <c r="B190">
-        <v>237.8366666666667</v>
+        <v>237.75</v>
       </c>
       <c r="C190">
         <v>18137.7</v>
@@ -5314,7 +5314,7 @@
         <v>5158</v>
       </c>
       <c r="G190">
-        <v>14344.33333333333</v>
+        <v>14347</v>
       </c>
       <c r="H190">
         <v>274527.6666666667</v>
@@ -5325,7 +5325,7 @@
         <v>42916</v>
       </c>
       <c r="B191">
-        <v>237.876</v>
+        <v>238.0306666666667</v>
       </c>
       <c r="C191">
         <v>18211.1</v>
@@ -5337,10 +5337,10 @@
         <v>-1</v>
       </c>
       <c r="F191">
-        <v>5170</v>
+        <v>5170.333333333333</v>
       </c>
       <c r="G191">
-        <v>14361.33333333333</v>
+        <v>14363</v>
       </c>
       <c r="H191">
         <v>275545.6666666667</v>
@@ -5351,7 +5351,7 @@
         <v>43008</v>
       </c>
       <c r="B192">
-        <v>239.2166666666667</v>
+        <v>239.2</v>
       </c>
       <c r="C192">
         <v>18287.1</v>
@@ -5363,10 +5363,10 @@
         <v>-1</v>
       </c>
       <c r="F192">
-        <v>5166.666666666667</v>
+        <v>5168.333333333333</v>
       </c>
       <c r="G192">
-        <v>14391</v>
+        <v>14401.66666666667</v>
       </c>
       <c r="H192">
         <v>273887</v>
@@ -5377,7 +5377,7 @@
         <v>43100</v>
       </c>
       <c r="B193">
-        <v>241.274</v>
+        <v>241.3036666666667</v>
       </c>
       <c r="C193">
         <v>18365.3</v>
@@ -5389,10 +5389,10 @@
         <v>-1</v>
       </c>
       <c r="F193">
-        <v>5161.666666666667</v>
+        <v>5160.333333333333</v>
       </c>
       <c r="G193">
-        <v>14423</v>
+        <v>14428.66666666667</v>
       </c>
       <c r="H193">
         <v>278738</v>
@@ -5403,7 +5403,7 @@
         <v>43190</v>
       </c>
       <c r="B194">
-        <v>243.3273333333333</v>
+        <v>243.2743333333333</v>
       </c>
       <c r="C194">
         <v>18446.4</v>
@@ -5415,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="F194">
-        <v>5150.666666666667</v>
+        <v>5150.333333333333</v>
       </c>
       <c r="G194">
-        <v>14442</v>
+        <v>14442.33333333333</v>
       </c>
       <c r="H194">
         <v>284701</v>
@@ -5429,7 +5429,7 @@
         <v>43281</v>
       </c>
       <c r="B195">
-        <v>244.6613333333334</v>
+        <v>244.813</v>
       </c>
       <c r="C195">
         <v>18530.5</v>
@@ -5441,10 +5441,10 @@
         <v>-1</v>
       </c>
       <c r="F195">
-        <v>5173.666666666667</v>
+        <v>5173</v>
       </c>
       <c r="G195">
-        <v>14466.66666666667</v>
+        <v>14468.66666666667</v>
       </c>
       <c r="H195">
         <v>293031</v>
@@ -5455,7 +5455,7 @@
         <v>43373</v>
       </c>
       <c r="B196">
-        <v>245.9633333333333</v>
+        <v>245.793</v>
       </c>
       <c r="C196">
         <v>18617.4</v>
@@ -5467,10 +5467,10 @@
         <v>-1</v>
       </c>
       <c r="F196">
-        <v>5184.666666666667</v>
+        <v>5185.333333333333</v>
       </c>
       <c r="G196">
-        <v>14494.66666666667</v>
+        <v>14494.33333333333</v>
       </c>
       <c r="H196">
         <v>291638.3333333333</v>
@@ -5481,7 +5481,7 @@
         <v>43465</v>
       </c>
       <c r="B197">
-        <v>246.6076666666667</v>
+        <v>246.681</v>
       </c>
       <c r="C197">
         <v>18705.5</v>
@@ -5493,10 +5493,10 @@
         <v>-1</v>
       </c>
       <c r="F197">
-        <v>5176.666666666667</v>
+        <v>5177</v>
       </c>
       <c r="G197">
-        <v>14503.66666666667</v>
+        <v>14510</v>
       </c>
       <c r="H197">
         <v>283060</v>
@@ -5507,7 +5507,7 @@
         <v>43555</v>
       </c>
       <c r="B198">
-        <v>246.8373333333333</v>
+        <v>246.765</v>
       </c>
       <c r="C198">
         <v>18794.8</v>
@@ -5519,10 +5519,10 @@
         <v>-1</v>
       </c>
       <c r="F198">
-        <v>5173.333333333333</v>
+        <v>5171.333333333333</v>
       </c>
       <c r="G198">
-        <v>14529</v>
+        <v>14527.66666666667</v>
       </c>
       <c r="H198">
         <v>299821.3333333333</v>
@@ -5533,7 +5533,7 @@
         <v>43646</v>
       </c>
       <c r="B199">
-        <v>248.8213333333333</v>
+        <v>249.0076666666667</v>
       </c>
       <c r="C199">
         <v>18885.5</v>
@@ -5545,10 +5545,10 @@
         <v>-1</v>
       </c>
       <c r="F199">
-        <v>5161.333333333333</v>
+        <v>5177.333333333333</v>
       </c>
       <c r="G199">
-        <v>14565</v>
+        <v>14558.33333333333</v>
       </c>
       <c r="H199">
         <v>314021</v>
@@ -5559,7 +5559,7 @@
         <v>43738</v>
       </c>
       <c r="B200">
-        <v>249.831</v>
+        <v>249.665</v>
       </c>
       <c r="C200">
         <v>18976.5</v>
@@ -5571,10 +5571,10 @@
         <v>-1</v>
       </c>
       <c r="F200">
-        <v>5177.666666666667</v>
+        <v>5218.333333333333</v>
       </c>
       <c r="G200">
-        <v>14598.66666666667</v>
+        <v>14590</v>
       </c>
       <c r="H200">
         <v>311467.6666666667</v>
@@ -5585,7 +5585,7 @@
         <v>43830</v>
       </c>
       <c r="B201">
-        <v>251.367</v>
+        <v>251.4253333333334</v>
       </c>
       <c r="C201">
         <v>19065.6</v>
@@ -5597,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>5183</v>
+        <v>5250.333333333333</v>
       </c>
       <c r="G201">
-        <v>14631</v>
+        <v>14620.33333333333</v>
       </c>
       <c r="H201">
         <v>312808.6666666667</v>
@@ -5611,7 +5611,7 @@
         <v>43921</v>
       </c>
       <c r="B202">
-        <v>251.9656666666666</v>
+        <v>251.8853333333333</v>
       </c>
       <c r="C202">
         <v>19154</v>
@@ -5623,10 +5623,10 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>5183.666666666667</v>
+        <v>5276.333333333333</v>
       </c>
       <c r="G202">
-        <v>14676</v>
+        <v>14658.33333333333</v>
       </c>
       <c r="H202">
         <v>328551</v>
@@ -5637,7 +5637,7 @@
         <v>44012</v>
       </c>
       <c r="B203">
-        <v>249.442</v>
+        <v>249.576</v>
       </c>
       <c r="C203">
         <v>19242</v>
@@ -5649,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>4974</v>
+        <v>5049.333333333333</v>
       </c>
       <c r="G203">
-        <v>13591.66666666667</v>
+        <v>13569.66666666667</v>
       </c>
       <c r="H203">
         <v>326980</v>
@@ -5663,7 +5663,7 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>253.1416666666667</v>
+        <v>253.0136666666666</v>
       </c>
       <c r="C204">
         <v>19327.3</v>
@@ -5675,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>4957.666666666667</v>
+        <v>5036.333333333333</v>
       </c>
       <c r="G204">
-        <v>13763.33333333333</v>
+        <v>13736.66666666667</v>
       </c>
       <c r="H204">
         <v>318988.3333333333</v>
@@ -5689,7 +5689,7 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>254.6403333333334</v>
+        <v>254.6803333333333</v>
       </c>
       <c r="C205">
         <v>19414.2</v>
@@ -5701,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>4840.333333333333</v>
+        <v>4938.666666666667</v>
       </c>
       <c r="G205">
-        <v>13685</v>
+        <v>13656</v>
       </c>
       <c r="H205">
         <v>325241.6666666667</v>
@@ -5715,7 +5715,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>252.408</v>
+        <v>252.4233333333333</v>
       </c>
       <c r="C206">
         <v>19502.8</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>4924</v>
+        <v>5008.111111111111</v>
       </c>
       <c r="G206">
-        <v>13680</v>
+        <v>13654.11111111111</v>
       </c>
       <c r="H206">
         <v>323736.6666666667</v>
@@ -5741,7 +5741,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>253.3966666666667</v>
+        <v>253.3724444444444</v>
       </c>
       <c r="C207">
         <v>19594.2</v>
@@ -5753,10 +5753,10 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4907.333333333333</v>
+        <v>4994.37037037037</v>
       </c>
       <c r="G207">
-        <v>13709.44444444445</v>
+        <v>13682.25925925926</v>
       </c>
       <c r="H207">
         <v>322655.5555555556</v>
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>253.4816666666667</v>
+        <v>253.492037037037</v>
       </c>
       <c r="C208">
         <v>19687.7</v>
@@ -5779,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4890.555555555556</v>
+        <v>4980.382716049383</v>
       </c>
       <c r="G208">
-        <v>13691.48148148148</v>
+        <v>13664.12345679012</v>
       </c>
       <c r="H208">
         <v>323877.962962963</v>
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>253.0954444444445</v>
+        <v>253.0959382716049</v>
       </c>
       <c r="C209">
         <v>19783.1</v>
@@ -5805,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4907.296296296297</v>
+        <v>4994.288065843622</v>
       </c>
       <c r="G209">
-        <v>13693.64197530864</v>
+        <v>13666.83127572016</v>
       </c>
       <c r="H209">
         <v>323423.3950617284</v>
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>253.3245925925926</v>
+        <v>253.3201399176955</v>
       </c>
       <c r="C210">
         <v>19879.6</v>
@@ -5831,10 +5831,10 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4901.728395061728</v>
+        <v>4989.680384087792</v>
       </c>
       <c r="G210">
-        <v>13698.18930041152</v>
+        <v>13671.07133058985</v>
       </c>
       <c r="H210">
         <v>323318.9711934156</v>
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>253.3005679012346</v>
+        <v>253.3027050754458</v>
       </c>
       <c r="C211">
         <v>19975.5</v>
@@ -5857,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4899.860082304527</v>
+        <v>4988.117055326932</v>
       </c>
       <c r="G211">
-        <v>13694.43758573388</v>
+        <v>13667.34202103338</v>
       </c>
       <c r="H211">
         <v>323540.109739369</v>
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>253.2402016460906</v>
+        <v>253.2395944215821</v>
       </c>
       <c r="C212">
         <v>20069.9</v>
@@ -5883,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4902.961591220851</v>
+        <v>4990.695168419448</v>
       </c>
       <c r="G212">
-        <v>13695.42295381802</v>
+        <v>13668.41487578113</v>
       </c>
       <c r="H212">
         <v>323427.491998171</v>
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>253.2884540466393</v>
+        <v>253.2874798049078</v>
       </c>
       <c r="C213">
         <v>20163.7</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4901.516689529036</v>
+        <v>4989.497535944724</v>
       </c>
       <c r="G213">
-        <v>13696.01661332114</v>
+        <v>13668.94274246812</v>
       </c>
       <c r="H213">
         <v>323428.8576436519</v>
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>253.2764078646548</v>
+        <v>253.2765931006452</v>
       </c>
       <c r="C214">
         <v>20257.3</v>
@@ -5935,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4901.446121018138</v>
+        <v>4989.436586563702</v>
       </c>
       <c r="G214">
-        <v>13695.29238429101</v>
+        <v>13668.23321309421</v>
       </c>
       <c r="H214">
         <v>323465.4864603973</v>
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>253.2683545191282</v>
+        <v>253.267889109045</v>
       </c>
       <c r="C215">
         <v>20351.2</v>
@@ -5961,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4901.974800589342</v>
+        <v>4989.876430309291</v>
       </c>
       <c r="G215">
-        <v>13695.57731714339</v>
+        <v>13668.53027711449</v>
       </c>
       <c r="H215">
         <v>323440.6120340734</v>
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>253.2777388101408</v>
+        <v>253.2773206715327</v>
       </c>
       <c r="C216">
         <v>20446</v>
@@ -5987,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4901.645870378839</v>
+        <v>4989.603517605906</v>
       </c>
       <c r="G216">
-        <v>13695.62877158518</v>
+        <v>13668.56874422561</v>
       </c>
       <c r="H216">
         <v>323444.9853793742</v>
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>253.2741670646413</v>
+        <v>253.273934293741</v>
       </c>
       <c r="C217">
         <v>20541.7</v>
@@ -6013,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4901.688930662106</v>
+        <v>4989.6388448263</v>
       </c>
       <c r="G217">
-        <v>13695.49949100653</v>
+        <v>13668.44407814477</v>
       </c>
       <c r="H217">
         <v>323450.3612912817</v>
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>253.2734201313034</v>
+        <v>253.2730480247729</v>
       </c>
       <c r="C218">
         <v>20638</v>
@@ -6039,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4901.769867210095</v>
+        <v>4989.706264247166</v>
       </c>
       <c r="G218">
-        <v>13695.56852657837</v>
+        <v>13668.51436649495</v>
       </c>
       <c r="H218">
         <v>323445.3195682431</v>
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>253.2751086686951</v>
+        <v>253.2747676633489</v>
       </c>
       <c r="C219">
         <v>20734.1</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4901.70155608368</v>
+        <v>4989.649542226457</v>
       </c>
       <c r="G219">
-        <v>13695.56559639003</v>
+        <v>13668.50906295511</v>
       </c>
       <c r="H219">
         <v>323446.8887462996</v>
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>253.2742319548799</v>
+        <v>253.2739166606209</v>
       </c>
       <c r="C220">
         <v>20830.5</v>
@@ -6091,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4901.720117985294</v>
+        <v>4989.664883766641</v>
       </c>
       <c r="G220">
-        <v>13695.54453799164</v>
+        <v>13668.48916919828</v>
       </c>
       <c r="H220">
         <v>323447.5232019415</v>
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>253.2742535849595</v>
+        <v>253.2739107829142</v>
       </c>
       <c r="C221">
         <v>20927.1</v>
@@ -6117,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4901.73051375969</v>
+        <v>4989.673563413421</v>
       </c>
       <c r="G221">
-        <v>13695.55955365334</v>
+        <v>13668.50419954945</v>
       </c>
       <c r="H221">
         <v>323446.5771721614</v>
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>253.2745314028448</v>
+        <v>253.2741983689613</v>
       </c>
       <c r="C222">
         <v>21023.6</v>
@@ -6143,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4901.717395942887</v>
+        <v>4989.662663135507</v>
       </c>
       <c r="G222">
-        <v>13695.55656267834</v>
+        <v>13668.50081056761</v>
       </c>
       <c r="H222">
         <v>323446.9963734675</v>
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>253.2743389808948</v>
+        <v>253.2740086041655</v>
       </c>
       <c r="C223">
         <v>21118.9</v>
@@ -6169,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4901.722675895957</v>
+        <v>4989.667036771856</v>
       </c>
       <c r="G223">
-        <v>13695.55355144111</v>
+        <v>13668.49805977178</v>
       </c>
       <c r="H223">
         <v>323447.0322491901</v>
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>253.274374656233</v>
+        <v>253.2740392520137</v>
       </c>
       <c r="C224">
         <v>21213.5</v>
@@ -6195,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4901.723528532844</v>
+        <v>4989.667754440261</v>
       </c>
       <c r="G224">
-        <v>13695.55655592426</v>
+        <v>13668.50102329628</v>
       </c>
       <c r="H224">
         <v>323446.868598273</v>
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>253.2744150133242</v>
+        <v>253.2740820750468</v>
       </c>
       <c r="C225">
         <v>21307.4</v>
@@ -6221,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4901.721200123896</v>
+        <v>4989.665818115875</v>
       </c>
       <c r="G225">
-        <v>13695.55555668124</v>
+        <v>13668.49996454522</v>
       </c>
       <c r="H225">
         <v>323446.9657403102</v>
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>253.2743762168173</v>
+        <v>253.2740433104087</v>
       </c>
       <c r="C226">
         <v>21400.7</v>
@@ -6247,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4901.722468184233</v>
+        <v>4989.666869775997</v>
       </c>
       <c r="G226">
-        <v>13695.55522134887</v>
+        <v>13668.49968253776</v>
       </c>
       <c r="H226">
         <v>323446.9555292578</v>
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>253.2743886287915</v>
+        <v>253.2740548791564</v>
       </c>
       <c r="C227">
         <v>21493.1</v>
@@ -6273,10 +6273,10 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4901.722398946991</v>
+        <v>4989.666814110711</v>
       </c>
       <c r="G227">
-        <v>13695.55577798479</v>
+        <v>13668.50022345975</v>
       </c>
       <c r="H227">
         <v>323446.929955947</v>
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>253.274393286311</v>
+        <v>253.274060088204</v>
       </c>
       <c r="C228">
         <v>21585.4</v>
@@ -6299,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4901.722022418373</v>
+        <v>4989.666500667528</v>
       </c>
       <c r="G228">
-        <v>13695.55551867163</v>
+        <v>13668.49995684758</v>
       </c>
       <c r="H228">
         <v>323446.950408505</v>
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>253.2743860439733</v>
+        <v>253.2740527592563</v>
       </c>
       <c r="C229">
         <v>21677.8</v>
@@ -6325,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4901.722296516532</v>
+        <v>4989.666728184745</v>
       </c>
       <c r="G229">
-        <v>13695.55550600176</v>
+        <v>13668.4999542817</v>
       </c>
       <c r="H229">
         <v>323446.9452979033</v>
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>253.274389319692</v>
+        <v>253.2740559088722</v>
       </c>
       <c r="C230">
         <v>21770.3</v>
@@ -6351,10 +6351,10 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4901.722239293966</v>
+        <v>4989.666680987662</v>
       </c>
       <c r="G230">
-        <v>13695.55560088606</v>
+        <v>13668.50004486301</v>
       </c>
       <c r="H230">
         <v>323446.9418874517</v>
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>253.2743895499921</v>
+        <v>253.2740562521108</v>
       </c>
       <c r="C231">
         <v>21862.9</v>
@@ -6377,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4901.72218607629</v>
+        <v>4989.666636613311</v>
       </c>
       <c r="G231">
-        <v>13695.55554185315</v>
+        <v>13668.49998533076</v>
       </c>
       <c r="H231">
         <v>323446.94586462</v>
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>253.2743883045525</v>
+        <v>253.2740549734131</v>
       </c>
       <c r="C232">
         <v>21956.1</v>
@@ -6403,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4901.722240628929</v>
+        <v>4989.666681928573</v>
       </c>
       <c r="G232">
-        <v>13695.55554958033</v>
+        <v>13668.49999482516</v>
       </c>
       <c r="H232">
         <v>323446.9443499917</v>
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>253.2743890580788</v>
+        <v>253.2740557114654</v>
       </c>
       <c r="C233">
         <v>22049.5</v>
@@ -6429,10 +6429,10 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4901.722221999728</v>
+        <v>4989.666666509848</v>
       </c>
       <c r="G233">
-        <v>13695.55556410651</v>
+        <v>13668.50000833964</v>
       </c>
       <c r="H233">
         <v>323446.9440340211</v>
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>253.2743889708745</v>
+        <v>253.2740556456631</v>
       </c>
       <c r="C234">
         <v>22143.3</v>
@@ -6455,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4901.722216234983</v>
+        <v>4989.666661683911</v>
       </c>
       <c r="G234">
-        <v>13695.55555184666</v>
+        <v>13668.49999616519</v>
       </c>
       <c r="H234">
         <v>323446.9447495443</v>
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>253.2743887778352</v>
+        <v>253.2740554435139</v>
       </c>
       <c r="C235">
         <v>22238.3</v>
@@ -6481,10 +6481,10 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4901.72222628788</v>
+        <v>4989.666670040778</v>
       </c>
       <c r="G235">
-        <v>13695.55555517783</v>
+        <v>13668.49999977666</v>
       </c>
       <c r="H235">
         <v>323446.9443778524</v>
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>253.2743889355962</v>
+        <v>253.2740556002141</v>
       </c>
       <c r="C236">
         <v>22334.3</v>
@@ -6507,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4901.722221507531</v>
+        <v>4989.666666078179</v>
       </c>
       <c r="G236">
-        <v>13695.55555704367</v>
+        <v>13668.50000142717</v>
       </c>
       <c r="H236">
         <v>323446.9443871392</v>
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>253.2743888947686</v>
+        <v>253.2740555631304</v>
       </c>
       <c r="C237">
         <v>22431.4</v>
@@ -6533,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4901.722221343464</v>
+        <v>4989.666665934289</v>
       </c>
       <c r="G237">
-        <v>13695.55555468939</v>
+        <v>13668.49999912301</v>
       </c>
       <c r="H237">
         <v>323446.9445048453</v>
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>253.2743888694</v>
+        <v>253.2740555356195</v>
       </c>
       <c r="C238">
         <v>22529.4</v>
@@ -6559,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4901.722223046292</v>
+        <v>4989.666667351082</v>
       </c>
       <c r="G238">
-        <v>13695.55555563697</v>
+        <v>13668.50000010895</v>
       </c>
       <c r="H238">
         <v>323446.944423279</v>
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>253.2743888999216</v>
+        <v>253.2740555663213</v>
       </c>
       <c r="C239">
         <v>22628.1</v>
@@ -6585,10 +6585,10 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4901.722221965762</v>
+        <v>4989.666666454516</v>
       </c>
       <c r="G239">
-        <v>13695.55555579001</v>
+        <v>13668.50000021971</v>
       </c>
       <c r="H239">
         <v>323446.9444384212</v>
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>253.2743888880301</v>
+        <v>253.2740555550237</v>
       </c>
       <c r="C240">
         <v>22726.7</v>
@@ -6611,10 +6611,10 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4901.722222118507</v>
+        <v>4989.666666579962</v>
       </c>
       <c r="G240">
-        <v>13695.55555537212</v>
+        <v>13668.49999981722</v>
       </c>
       <c r="H240">
         <v>323446.9444555151</v>
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>253.2743888857839</v>
+        <v>253.2740555523215</v>
       </c>
       <c r="C241">
         <v>22825.1</v>
@@ -6637,10 +6637,10 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4901.722222376854</v>
+        <v>4989.666666795187</v>
       </c>
       <c r="G241">
-        <v>13695.5555555997</v>
+        <v>13668.50000004862</v>
       </c>
       <c r="H241">
         <v>323446.9444390718</v>
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>253.2743888912452</v>
+        <v>253.2740555578889</v>
       </c>
       <c r="C242">
         <v>22923.6</v>
@@ -6663,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4901.722222153708</v>
+        <v>4989.666666609888</v>
       </c>
       <c r="G242">
-        <v>13695.55555558728</v>
+        <v>13668.50000002852</v>
       </c>
       <c r="H242">
         <v>323446.944444336</v>
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>253.2743888883531</v>
+        <v>253.274055555078</v>
       </c>
       <c r="C243">
         <v>23022.1</v>
@@ -6689,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4901.722222216356</v>
+        <v>4989.666666661679</v>
       </c>
       <c r="G243">
-        <v>13695.5555555197</v>
+        <v>13668.49999996479</v>
       </c>
       <c r="H243">
         <v>323446.9444463076</v>
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>253.2743888884607</v>
+        <v>253.2740555550961</v>
       </c>
       <c r="C244">
         <v>23120.6</v>
@@ -6715,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4901.722222248973</v>
+        <v>4989.666666688918</v>
       </c>
       <c r="G244">
-        <v>13695.55555556889</v>
+        <v>13668.50000001398</v>
       </c>
       <c r="H244">
         <v>323446.9444432384</v>
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>253.274388889353</v>
+        <v>253.274055556021</v>
       </c>
       <c r="C245">
         <v>23219.4</v>
@@ -6741,10 +6741,10 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4901.722222206346</v>
+        <v>4989.666666653495</v>
       </c>
       <c r="G245">
-        <v>13695.55555555862</v>
+        <v>13668.50000000243</v>
       </c>
       <c r="H245">
         <v>323446.9444446273</v>
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>253.2743888887223</v>
+        <v>253.2740555553984</v>
       </c>
       <c r="C246">
         <v>23318.3</v>
@@ -6767,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4901.722222223892</v>
+        <v>4989.66666666803</v>
       </c>
       <c r="G246">
-        <v>13695.55555554907</v>
+        <v>13668.49999999373</v>
       </c>
       <c r="H246">
         <v>323446.9444447245</v>
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>253.2743888888453</v>
+        <v>253.2740555555052</v>
       </c>
       <c r="C247">
         <v>23417.4</v>
@@ -6793,10 +6793,10 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4901.722222226404</v>
+        <v>4989.666666670148</v>
       </c>
       <c r="G247">
-        <v>13695.55555555886</v>
+        <v>13668.50000000338</v>
       </c>
       <c r="H247">
         <v>323446.9444441968</v>
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>253.2743888889735</v>
+        <v>253.2740555556415</v>
       </c>
       <c r="C248">
         <v>23516.4</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4901.72222221888</v>
+        <v>4989.666666663891</v>
       </c>
       <c r="G248">
-        <v>13695.55555555552</v>
+        <v>13668.49999999985</v>
       </c>
       <c r="H248">
         <v>323446.9444445162</v>
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>253.274388888847</v>
+        <v>253.2740555555151</v>
       </c>
       <c r="C249">
         <v>23615.3</v>
@@ -6845,10 +6845,10 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4901.722222223059</v>
+        <v>4989.666666667356</v>
       </c>
       <c r="G249">
-        <v>13695.55555555448</v>
+        <v>13668.49999999899</v>
       </c>
       <c r="H249">
         <v>323446.9444444791</v>

--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -5701,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>4938.666666666667</v>
+        <v>4935.333333333333</v>
       </c>
       <c r="G205">
-        <v>13656</v>
+        <v>13655.33333333333</v>
       </c>
       <c r="H205">
-        <v>325241.6666666667</v>
+        <v>327589.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>5008.111111111111</v>
+        <v>5007</v>
       </c>
       <c r="G206">
-        <v>13654.11111111111</v>
+        <v>13653.88888888889</v>
       </c>
       <c r="H206">
-        <v>323736.6666666667</v>
+        <v>324519.3333333333</v>
       </c>
     </row>
     <row r="207">
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4994.37037037037</v>
+        <v>4992.888888888889</v>
       </c>
       <c r="G207">
-        <v>13682.25925925926</v>
+        <v>13681.96296296296</v>
       </c>
       <c r="H207">
-        <v>322655.5555555556</v>
+        <v>323699.1111111111</v>
       </c>
     </row>
     <row r="208">
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4980.382716049383</v>
+        <v>4978.407407407407</v>
       </c>
       <c r="G208">
-        <v>13664.12345679012</v>
+        <v>13663.72839506173</v>
       </c>
       <c r="H208">
-        <v>323877.962962963</v>
+        <v>325269.3703703704</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4994.288065843622</v>
+        <v>4992.765432098765</v>
       </c>
       <c r="G209">
-        <v>13666.83127572016</v>
+        <v>13666.52674897119</v>
       </c>
       <c r="H209">
-        <v>323423.3950617284</v>
+        <v>324495.9382716049</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4989.680384087792</v>
+        <v>4988.020576131687</v>
       </c>
       <c r="G210">
-        <v>13671.07133058985</v>
+        <v>13670.73936899863</v>
       </c>
       <c r="H210">
-        <v>323318.9711934156</v>
+        <v>324488.1399176955</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4988.117055326932</v>
+        <v>4986.39780521262</v>
       </c>
       <c r="G211">
-        <v>13667.34202103338</v>
+        <v>13666.99817101052</v>
       </c>
       <c r="H211">
-        <v>323540.109739369</v>
+        <v>324751.1495198903</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4990.695168419448</v>
+        <v>4989.061271147691</v>
       </c>
       <c r="G212">
-        <v>13668.41487578113</v>
+        <v>13668.08809632678</v>
       </c>
       <c r="H212">
-        <v>323427.491998171</v>
+        <v>324578.4092363969</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4989.497535944724</v>
+        <v>4987.826550830666</v>
       </c>
       <c r="G213">
-        <v>13668.94274246812</v>
+        <v>13668.60854544531</v>
       </c>
       <c r="H213">
-        <v>323428.8576436519</v>
+        <v>324605.8995579942</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4989.436586563702</v>
+        <v>4987.761875730325</v>
       </c>
       <c r="G214">
-        <v>13668.23321309421</v>
+        <v>13667.89827092754</v>
       </c>
       <c r="H214">
-        <v>323465.4864603973</v>
+        <v>324645.1527714271</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4989.876430309291</v>
+        <v>4988.216565902894</v>
       </c>
       <c r="G215">
-        <v>13668.53027711449</v>
+        <v>13668.19830423321</v>
       </c>
       <c r="H215">
-        <v>323440.6120340734</v>
+        <v>324609.8205219394</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4989.603517605906</v>
+        <v>4987.934997487962</v>
       </c>
       <c r="G216">
-        <v>13668.56874422561</v>
+        <v>13668.23504020202</v>
       </c>
       <c r="H216">
-        <v>323444.9853793742</v>
+        <v>324620.2909504536</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4989.6388448263</v>
+        <v>4987.971146373727</v>
       </c>
       <c r="G217">
-        <v>13668.44407814477</v>
+        <v>13668.11053845425</v>
       </c>
       <c r="H217">
-        <v>323450.3612912817</v>
+        <v>324625.0880812734</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4989.706264247166</v>
+        <v>4988.040903254861</v>
       </c>
       <c r="G218">
-        <v>13668.51436649495</v>
+        <v>13668.18129429649</v>
       </c>
       <c r="H218">
-        <v>323445.3195682431</v>
+        <v>324618.3998512221</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4989.649542226457</v>
+        <v>4987.98234903885</v>
       </c>
       <c r="G219">
-        <v>13668.50906295511</v>
+        <v>13668.17562431759</v>
       </c>
       <c r="H219">
-        <v>323446.8887462996</v>
+        <v>324621.2596276497</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4989.664883766641</v>
+        <v>4987.998132889145</v>
       </c>
       <c r="G220">
-        <v>13668.48916919828</v>
+        <v>13668.15581902278</v>
       </c>
       <c r="H220">
-        <v>323447.5232019415</v>
+        <v>324621.5825200484</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4989.673563413421</v>
+        <v>4988.007128394285</v>
       </c>
       <c r="G221">
-        <v>13668.50419954945</v>
+        <v>13668.17091254562</v>
       </c>
       <c r="H221">
-        <v>323446.5771721614</v>
+        <v>324620.41399964</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4989.662663135507</v>
+        <v>4987.995870107427</v>
       </c>
       <c r="G222">
-        <v>13668.50081056761</v>
+        <v>13668.16745196199</v>
       </c>
       <c r="H222">
-        <v>323446.9963734675</v>
+        <v>324621.085382446</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4989.667036771856</v>
+        <v>4988.000377130285</v>
       </c>
       <c r="G223">
-        <v>13668.49805977178</v>
+        <v>13668.16472784346</v>
       </c>
       <c r="H223">
-        <v>323447.0322491901</v>
+        <v>324621.0273007115</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4989.667754440261</v>
+        <v>4988.001125210666</v>
       </c>
       <c r="G224">
-        <v>13668.50102329628</v>
+        <v>13668.16769745036</v>
       </c>
       <c r="H224">
-        <v>323446.868598273</v>
+        <v>324620.8422275992</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4989.665818115875</v>
+        <v>4987.999124149459</v>
       </c>
       <c r="G225">
-        <v>13668.49996454522</v>
+        <v>13668.16662575194</v>
       </c>
       <c r="H225">
-        <v>323446.9657403102</v>
+        <v>324620.9849702522</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4989.666869775997</v>
+        <v>4988.000208830137</v>
       </c>
       <c r="G226">
-        <v>13668.49968253776</v>
+        <v>13668.16635034859</v>
       </c>
       <c r="H226">
-        <v>323446.9555292578</v>
+        <v>324620.951499521</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4989.666814110711</v>
+        <v>4988.000152730087</v>
       </c>
       <c r="G227">
-        <v>13668.50022345975</v>
+        <v>13668.16689118363</v>
       </c>
       <c r="H227">
-        <v>323446.929955947</v>
+        <v>324620.9262324575</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4989.666500667528</v>
+        <v>4987.999828569895</v>
       </c>
       <c r="G228">
-        <v>13668.49995684758</v>
+        <v>13668.16662242805</v>
       </c>
       <c r="H228">
-        <v>323446.950408505</v>
+        <v>324620.9542340769</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4989.666728184745</v>
+        <v>4988.000063376707</v>
       </c>
       <c r="G229">
-        <v>13668.4999542817</v>
+        <v>13668.16662132009</v>
       </c>
       <c r="H229">
-        <v>323446.9452979033</v>
+        <v>324620.9439886851</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4989.666680987662</v>
+        <v>4988.00001489223</v>
       </c>
       <c r="G230">
-        <v>13668.50004486301</v>
+        <v>13668.16671164392</v>
       </c>
       <c r="H230">
-        <v>323446.9418874517</v>
+        <v>324620.9414850731</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4989.666636613311</v>
+        <v>4987.999968946278</v>
       </c>
       <c r="G231">
-        <v>13668.49998533076</v>
+        <v>13668.16665179735</v>
       </c>
       <c r="H231">
-        <v>323446.94586462</v>
+        <v>324620.9465692784</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4989.666681928573</v>
+        <v>4988.000015738405</v>
       </c>
       <c r="G232">
-        <v>13668.49999482516</v>
+        <v>13668.16666158712</v>
       </c>
       <c r="H232">
-        <v>323446.9443499917</v>
+        <v>324620.9440143455</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4989.666666509848</v>
+        <v>4987.999999858971</v>
       </c>
       <c r="G233">
-        <v>13668.50000833964</v>
+        <v>13668.16667500947</v>
       </c>
       <c r="H233">
-        <v>323446.9440340211</v>
+        <v>324620.944022899</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4989.666661683911</v>
+        <v>4987.999994847884</v>
       </c>
       <c r="G234">
-        <v>13668.49999616519</v>
+        <v>13668.16666279798</v>
       </c>
       <c r="H234">
-        <v>323446.9447495443</v>
+        <v>324620.944868841</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4989.666670040778</v>
+        <v>4988.000003481753</v>
       </c>
       <c r="G235">
-        <v>13668.49999977666</v>
+        <v>13668.16666646486</v>
       </c>
       <c r="H235">
-        <v>323446.9443778524</v>
+        <v>324620.9443020285</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4989.666666078179</v>
+        <v>4987.999999396203</v>
       </c>
       <c r="G236">
-        <v>13668.50000142717</v>
+        <v>13668.16666809077</v>
       </c>
       <c r="H236">
-        <v>323446.9443871392</v>
+        <v>324620.9443979228</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4989.666665934289</v>
+        <v>4987.999999241947</v>
       </c>
       <c r="G237">
-        <v>13668.49999912301</v>
+        <v>13668.16666578453</v>
       </c>
       <c r="H237">
-        <v>323446.9445048453</v>
+        <v>324620.9445229308</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4989.666667351082</v>
+        <v>4988.000000706635</v>
       </c>
       <c r="G238">
-        <v>13668.50000010895</v>
+        <v>13668.16666678005</v>
       </c>
       <c r="H238">
-        <v>323446.944423279</v>
+        <v>324620.9444076274</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4989.666666454516</v>
+        <v>4987.999999781595</v>
       </c>
       <c r="G239">
-        <v>13668.50000021971</v>
+        <v>13668.16666688512</v>
       </c>
       <c r="H239">
-        <v>323446.9444384212</v>
+        <v>324620.944442827</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4989.666666579962</v>
+        <v>4987.999999910059</v>
       </c>
       <c r="G240">
-        <v>13668.49999981722</v>
+        <v>13668.16666648324</v>
       </c>
       <c r="H240">
-        <v>323446.9444555151</v>
+        <v>324620.9444577951</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4989.666666795187</v>
+        <v>4988.000000132763</v>
       </c>
       <c r="G241">
-        <v>13668.50000004862</v>
+        <v>13668.16666671614</v>
       </c>
       <c r="H241">
-        <v>323446.9444390718</v>
+        <v>324620.9444360831</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4989.666666609888</v>
+        <v>4987.999999941472</v>
       </c>
       <c r="G242">
-        <v>13668.50000002852</v>
+        <v>13668.16666669483</v>
       </c>
       <c r="H242">
-        <v>323446.944444336</v>
+        <v>324620.9444455684</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4989.666666661679</v>
+        <v>4987.999999994765</v>
       </c>
       <c r="G243">
-        <v>13668.49999996479</v>
+        <v>13668.1666666314</v>
       </c>
       <c r="H243">
-        <v>323446.9444463076</v>
+        <v>324620.9444464822</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4989.666666688918</v>
+        <v>4988.000000023</v>
       </c>
       <c r="G244">
-        <v>13668.50000001398</v>
+        <v>13668.16666668079</v>
       </c>
       <c r="H244">
-        <v>323446.9444432384</v>
+        <v>324620.9444427113</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4989.666666653495</v>
+        <v>4987.999999986412</v>
       </c>
       <c r="G245">
-        <v>13668.50000000243</v>
+        <v>13668.16666666901</v>
       </c>
       <c r="H245">
-        <v>323446.9444446273</v>
+        <v>324620.9444449206</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4989.66666666803</v>
+        <v>4988.000000001392</v>
       </c>
       <c r="G246">
-        <v>13668.49999999373</v>
+        <v>13668.1666666604</v>
       </c>
       <c r="H246">
-        <v>323446.9444447245</v>
+        <v>324620.9444447047</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4989.666666670148</v>
+        <v>4988.000000003602</v>
       </c>
       <c r="G247">
-        <v>13668.50000000338</v>
+        <v>13668.16666667006</v>
       </c>
       <c r="H247">
-        <v>323446.9444441968</v>
+        <v>324620.9444441122</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4989.666666663891</v>
+        <v>4987.999999997135</v>
       </c>
       <c r="G248">
-        <v>13668.49999999985</v>
+        <v>13668.16666666649</v>
       </c>
       <c r="H248">
-        <v>323446.9444445162</v>
+        <v>324620.9444445792</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4989.666666667356</v>
+        <v>4988.000000000709</v>
       </c>
       <c r="G249">
-        <v>13668.49999999899</v>
+        <v>13668.16666666565</v>
       </c>
       <c r="H249">
-        <v>323446.9444444791</v>
+        <v>324620.9444444653</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -5701,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>4935.333333333333</v>
+        <v>4938.666666666667</v>
       </c>
       <c r="G205">
-        <v>13655.33333333333</v>
+        <v>13656</v>
       </c>
       <c r="H205">
-        <v>327589.6666666667</v>
+        <v>325241.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>5007</v>
+        <v>5008.111111111111</v>
       </c>
       <c r="G206">
-        <v>13653.88888888889</v>
+        <v>13654.11111111111</v>
       </c>
       <c r="H206">
-        <v>324519.3333333333</v>
+        <v>323736.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4992.888888888889</v>
+        <v>4994.37037037037</v>
       </c>
       <c r="G207">
-        <v>13681.96296296296</v>
+        <v>13682.25925925926</v>
       </c>
       <c r="H207">
-        <v>323699.1111111111</v>
+        <v>322655.5555555556</v>
       </c>
     </row>
     <row r="208">
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4978.407407407407</v>
+        <v>4980.382716049383</v>
       </c>
       <c r="G208">
-        <v>13663.72839506173</v>
+        <v>13664.12345679012</v>
       </c>
       <c r="H208">
-        <v>325269.3703703704</v>
+        <v>323877.962962963</v>
       </c>
     </row>
     <row r="209">
@@ -5805,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4992.765432098765</v>
+        <v>4994.288065843622</v>
       </c>
       <c r="G209">
-        <v>13666.52674897119</v>
+        <v>13666.83127572016</v>
       </c>
       <c r="H209">
-        <v>324495.9382716049</v>
+        <v>323423.3950617284</v>
       </c>
     </row>
     <row r="210">
@@ -5831,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4988.020576131687</v>
+        <v>4989.680384087792</v>
       </c>
       <c r="G210">
-        <v>13670.73936899863</v>
+        <v>13671.07133058985</v>
       </c>
       <c r="H210">
-        <v>324488.1399176955</v>
+        <v>323318.9711934156</v>
       </c>
     </row>
     <row r="211">
@@ -5857,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4986.39780521262</v>
+        <v>4988.117055326932</v>
       </c>
       <c r="G211">
-        <v>13666.99817101052</v>
+        <v>13667.34202103338</v>
       </c>
       <c r="H211">
-        <v>324751.1495198903</v>
+        <v>323540.109739369</v>
       </c>
     </row>
     <row r="212">
@@ -5883,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4989.061271147691</v>
+        <v>4990.695168419448</v>
       </c>
       <c r="G212">
-        <v>13668.08809632678</v>
+        <v>13668.41487578113</v>
       </c>
       <c r="H212">
-        <v>324578.4092363969</v>
+        <v>323427.491998171</v>
       </c>
     </row>
     <row r="213">
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4987.826550830666</v>
+        <v>4989.497535944724</v>
       </c>
       <c r="G213">
-        <v>13668.60854544531</v>
+        <v>13668.94274246812</v>
       </c>
       <c r="H213">
-        <v>324605.8995579942</v>
+        <v>323428.8576436519</v>
       </c>
     </row>
     <row r="214">
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4987.761875730325</v>
+        <v>4989.436586563702</v>
       </c>
       <c r="G214">
-        <v>13667.89827092754</v>
+        <v>13668.23321309421</v>
       </c>
       <c r="H214">
-        <v>324645.1527714271</v>
+        <v>323465.4864603973</v>
       </c>
     </row>
     <row r="215">
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4988.216565902894</v>
+        <v>4989.876430309291</v>
       </c>
       <c r="G215">
-        <v>13668.19830423321</v>
+        <v>13668.53027711449</v>
       </c>
       <c r="H215">
-        <v>324609.8205219394</v>
+        <v>323440.6120340734</v>
       </c>
     </row>
     <row r="216">
@@ -5987,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4987.934997487962</v>
+        <v>4989.603517605906</v>
       </c>
       <c r="G216">
-        <v>13668.23504020202</v>
+        <v>13668.56874422561</v>
       </c>
       <c r="H216">
-        <v>324620.2909504536</v>
+        <v>323444.9853793742</v>
       </c>
     </row>
     <row r="217">
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4987.971146373727</v>
+        <v>4989.6388448263</v>
       </c>
       <c r="G217">
-        <v>13668.11053845425</v>
+        <v>13668.44407814477</v>
       </c>
       <c r="H217">
-        <v>324625.0880812734</v>
+        <v>323450.3612912817</v>
       </c>
     </row>
     <row r="218">
@@ -6039,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4988.040903254861</v>
+        <v>4989.706264247166</v>
       </c>
       <c r="G218">
-        <v>13668.18129429649</v>
+        <v>13668.51436649495</v>
       </c>
       <c r="H218">
-        <v>324618.3998512221</v>
+        <v>323445.3195682431</v>
       </c>
     </row>
     <row r="219">
@@ -6065,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4987.98234903885</v>
+        <v>4989.649542226457</v>
       </c>
       <c r="G219">
-        <v>13668.17562431759</v>
+        <v>13668.50906295511</v>
       </c>
       <c r="H219">
-        <v>324621.2596276497</v>
+        <v>323446.8887462996</v>
       </c>
     </row>
     <row r="220">
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4987.998132889145</v>
+        <v>4989.664883766641</v>
       </c>
       <c r="G220">
-        <v>13668.15581902278</v>
+        <v>13668.48916919828</v>
       </c>
       <c r="H220">
-        <v>324621.5825200484</v>
+        <v>323447.5232019415</v>
       </c>
     </row>
     <row r="221">
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4988.007128394285</v>
+        <v>4989.673563413421</v>
       </c>
       <c r="G221">
-        <v>13668.17091254562</v>
+        <v>13668.50419954945</v>
       </c>
       <c r="H221">
-        <v>324620.41399964</v>
+        <v>323446.5771721614</v>
       </c>
     </row>
     <row r="222">
@@ -6143,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4987.995870107427</v>
+        <v>4989.662663135507</v>
       </c>
       <c r="G222">
-        <v>13668.16745196199</v>
+        <v>13668.50081056761</v>
       </c>
       <c r="H222">
-        <v>324621.085382446</v>
+        <v>323446.9963734675</v>
       </c>
     </row>
     <row r="223">
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4988.000377130285</v>
+        <v>4989.667036771856</v>
       </c>
       <c r="G223">
-        <v>13668.16472784346</v>
+        <v>13668.49805977178</v>
       </c>
       <c r="H223">
-        <v>324621.0273007115</v>
+        <v>323447.0322491901</v>
       </c>
     </row>
     <row r="224">
@@ -6195,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4988.001125210666</v>
+        <v>4989.667754440261</v>
       </c>
       <c r="G224">
-        <v>13668.16769745036</v>
+        <v>13668.50102329628</v>
       </c>
       <c r="H224">
-        <v>324620.8422275992</v>
+        <v>323446.868598273</v>
       </c>
     </row>
     <row r="225">
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4987.999124149459</v>
+        <v>4989.665818115875</v>
       </c>
       <c r="G225">
-        <v>13668.16662575194</v>
+        <v>13668.49996454522</v>
       </c>
       <c r="H225">
-        <v>324620.9849702522</v>
+        <v>323446.9657403102</v>
       </c>
     </row>
     <row r="226">
@@ -6247,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4988.000208830137</v>
+        <v>4989.666869775997</v>
       </c>
       <c r="G226">
-        <v>13668.16635034859</v>
+        <v>13668.49968253776</v>
       </c>
       <c r="H226">
-        <v>324620.951499521</v>
+        <v>323446.9555292578</v>
       </c>
     </row>
     <row r="227">
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4988.000152730087</v>
+        <v>4989.666814110711</v>
       </c>
       <c r="G227">
-        <v>13668.16689118363</v>
+        <v>13668.50022345975</v>
       </c>
       <c r="H227">
-        <v>324620.9262324575</v>
+        <v>323446.929955947</v>
       </c>
     </row>
     <row r="228">
@@ -6299,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4987.999828569895</v>
+        <v>4989.666500667528</v>
       </c>
       <c r="G228">
-        <v>13668.16662242805</v>
+        <v>13668.49995684758</v>
       </c>
       <c r="H228">
-        <v>324620.9542340769</v>
+        <v>323446.950408505</v>
       </c>
     </row>
     <row r="229">
@@ -6325,13 +6325,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4988.000063376707</v>
+        <v>4989.666728184745</v>
       </c>
       <c r="G229">
-        <v>13668.16662132009</v>
+        <v>13668.4999542817</v>
       </c>
       <c r="H229">
-        <v>324620.9439886851</v>
+        <v>323446.9452979033</v>
       </c>
     </row>
     <row r="230">
@@ -6351,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4988.00001489223</v>
+        <v>4989.666680987662</v>
       </c>
       <c r="G230">
-        <v>13668.16671164392</v>
+        <v>13668.50004486301</v>
       </c>
       <c r="H230">
-        <v>324620.9414850731</v>
+        <v>323446.9418874517</v>
       </c>
     </row>
     <row r="231">
@@ -6377,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4987.999968946278</v>
+        <v>4989.666636613311</v>
       </c>
       <c r="G231">
-        <v>13668.16665179735</v>
+        <v>13668.49998533076</v>
       </c>
       <c r="H231">
-        <v>324620.9465692784</v>
+        <v>323446.94586462</v>
       </c>
     </row>
     <row r="232">
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4988.000015738405</v>
+        <v>4989.666681928573</v>
       </c>
       <c r="G232">
-        <v>13668.16666158712</v>
+        <v>13668.49999482516</v>
       </c>
       <c r="H232">
-        <v>324620.9440143455</v>
+        <v>323446.9443499917</v>
       </c>
     </row>
     <row r="233">
@@ -6429,13 +6429,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4987.999999858971</v>
+        <v>4989.666666509848</v>
       </c>
       <c r="G233">
-        <v>13668.16667500947</v>
+        <v>13668.50000833964</v>
       </c>
       <c r="H233">
-        <v>324620.944022899</v>
+        <v>323446.9440340211</v>
       </c>
     </row>
     <row r="234">
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4987.999994847884</v>
+        <v>4989.666661683911</v>
       </c>
       <c r="G234">
-        <v>13668.16666279798</v>
+        <v>13668.49999616519</v>
       </c>
       <c r="H234">
-        <v>324620.944868841</v>
+        <v>323446.9447495443</v>
       </c>
     </row>
     <row r="235">
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4988.000003481753</v>
+        <v>4989.666670040778</v>
       </c>
       <c r="G235">
-        <v>13668.16666646486</v>
+        <v>13668.49999977666</v>
       </c>
       <c r="H235">
-        <v>324620.9443020285</v>
+        <v>323446.9443778524</v>
       </c>
     </row>
     <row r="236">
@@ -6507,13 +6507,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4987.999999396203</v>
+        <v>4989.666666078179</v>
       </c>
       <c r="G236">
-        <v>13668.16666809077</v>
+        <v>13668.50000142717</v>
       </c>
       <c r="H236">
-        <v>324620.9443979228</v>
+        <v>323446.9443871392</v>
       </c>
     </row>
     <row r="237">
@@ -6533,13 +6533,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4987.999999241947</v>
+        <v>4989.666665934289</v>
       </c>
       <c r="G237">
-        <v>13668.16666578453</v>
+        <v>13668.49999912301</v>
       </c>
       <c r="H237">
-        <v>324620.9445229308</v>
+        <v>323446.9445048453</v>
       </c>
     </row>
     <row r="238">
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4988.000000706635</v>
+        <v>4989.666667351082</v>
       </c>
       <c r="G238">
-        <v>13668.16666678005</v>
+        <v>13668.50000010895</v>
       </c>
       <c r="H238">
-        <v>324620.9444076274</v>
+        <v>323446.944423279</v>
       </c>
     </row>
     <row r="239">
@@ -6585,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4987.999999781595</v>
+        <v>4989.666666454516</v>
       </c>
       <c r="G239">
-        <v>13668.16666688512</v>
+        <v>13668.50000021971</v>
       </c>
       <c r="H239">
-        <v>324620.944442827</v>
+        <v>323446.9444384212</v>
       </c>
     </row>
     <row r="240">
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4987.999999910059</v>
+        <v>4989.666666579962</v>
       </c>
       <c r="G240">
-        <v>13668.16666648324</v>
+        <v>13668.49999981722</v>
       </c>
       <c r="H240">
-        <v>324620.9444577951</v>
+        <v>323446.9444555151</v>
       </c>
     </row>
     <row r="241">
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4988.000000132763</v>
+        <v>4989.666666795187</v>
       </c>
       <c r="G241">
-        <v>13668.16666671614</v>
+        <v>13668.50000004862</v>
       </c>
       <c r="H241">
-        <v>324620.9444360831</v>
+        <v>323446.9444390718</v>
       </c>
     </row>
     <row r="242">
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4987.999999941472</v>
+        <v>4989.666666609888</v>
       </c>
       <c r="G242">
-        <v>13668.16666669483</v>
+        <v>13668.50000002852</v>
       </c>
       <c r="H242">
-        <v>324620.9444455684</v>
+        <v>323446.944444336</v>
       </c>
     </row>
     <row r="243">
@@ -6689,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4987.999999994765</v>
+        <v>4989.666666661679</v>
       </c>
       <c r="G243">
-        <v>13668.1666666314</v>
+        <v>13668.49999996479</v>
       </c>
       <c r="H243">
-        <v>324620.9444464822</v>
+        <v>323446.9444463076</v>
       </c>
     </row>
     <row r="244">
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4988.000000023</v>
+        <v>4989.666666688918</v>
       </c>
       <c r="G244">
-        <v>13668.16666668079</v>
+        <v>13668.50000001398</v>
       </c>
       <c r="H244">
-        <v>324620.9444427113</v>
+        <v>323446.9444432384</v>
       </c>
     </row>
     <row r="245">
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4987.999999986412</v>
+        <v>4989.666666653495</v>
       </c>
       <c r="G245">
-        <v>13668.16666666901</v>
+        <v>13668.50000000243</v>
       </c>
       <c r="H245">
-        <v>324620.9444449206</v>
+        <v>323446.9444446273</v>
       </c>
     </row>
     <row r="246">
@@ -6767,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4988.000000001392</v>
+        <v>4989.66666666803</v>
       </c>
       <c r="G246">
-        <v>13668.1666666604</v>
+        <v>13668.49999999373</v>
       </c>
       <c r="H246">
-        <v>324620.9444447047</v>
+        <v>323446.9444447245</v>
       </c>
     </row>
     <row r="247">
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4988.000000003602</v>
+        <v>4989.666666670148</v>
       </c>
       <c r="G247">
-        <v>13668.16666667006</v>
+        <v>13668.50000000338</v>
       </c>
       <c r="H247">
-        <v>324620.9444441122</v>
+        <v>323446.9444441968</v>
       </c>
     </row>
     <row r="248">
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4987.999999997135</v>
+        <v>4989.666666663891</v>
       </c>
       <c r="G248">
-        <v>13668.16666666649</v>
+        <v>13668.49999999985</v>
       </c>
       <c r="H248">
-        <v>324620.9444445792</v>
+        <v>323446.9444445162</v>
       </c>
     </row>
     <row r="249">
@@ -6845,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4988.000000000709</v>
+        <v>4989.666666667356</v>
       </c>
       <c r="G249">
-        <v>13668.16666666565</v>
+        <v>13668.49999999899</v>
       </c>
       <c r="H249">
-        <v>324620.9444444653</v>
+        <v>323446.9444444791</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/economic_statistics.xlsx
+++ b/data/raw/haver/economic_statistics.xlsx
@@ -5707,7 +5707,7 @@
         <v>13655.33333333333</v>
       </c>
       <c r="H205">
-        <v>327589.6666666667</v>
+        <v>327773.6666666667</v>
       </c>
     </row>
     <row r="206">
@@ -5715,7 +5715,7 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>252.4233333333333</v>
+        <v>257.3506666666667</v>
       </c>
       <c r="C206">
         <v>19502.8</v>
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>5007</v>
+        <v>4988.666666666667</v>
       </c>
       <c r="G206">
-        <v>13653.88888888889</v>
+        <v>13686</v>
       </c>
       <c r="H206">
-        <v>324519.3333333333</v>
+        <v>324580.6666666667</v>
       </c>
     </row>
     <row r="207">
@@ -5741,7 +5741,7 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>253.3724444444444</v>
+        <v>255.0148888888889</v>
       </c>
       <c r="C207">
         <v>19594.2</v>
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>4992.888888888889</v>
+        <v>4986.777777777777</v>
       </c>
       <c r="G207">
-        <v>13681.96296296296</v>
+        <v>13692.66666666667</v>
       </c>
       <c r="H207">
-        <v>323699.1111111111</v>
+        <v>323780.8888888889</v>
       </c>
     </row>
     <row r="208">
@@ -5767,7 +5767,7 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>253.492037037037</v>
+        <v>255.681962962963</v>
       </c>
       <c r="C208">
         <v>19687.7</v>
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>4978.407407407407</v>
+        <v>4970.259259259259</v>
       </c>
       <c r="G208">
-        <v>13663.72839506173</v>
+        <v>13678</v>
       </c>
       <c r="H208">
-        <v>325269.3703703704</v>
+        <v>325378.4074074074</v>
       </c>
     </row>
     <row r="209">
@@ -5793,7 +5793,7 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>253.0959382716049</v>
+        <v>256.0158395061728</v>
       </c>
       <c r="C209">
         <v>19783.1</v>
@@ -5805,13 +5805,13 @@
         <v>1</v>
       </c>
       <c r="F209">
-        <v>4992.765432098765</v>
+        <v>4981.901234567901</v>
       </c>
       <c r="G209">
-        <v>13666.52674897119</v>
+        <v>13685.55555555556</v>
       </c>
       <c r="H209">
-        <v>324495.9382716049</v>
+        <v>324579.987654321</v>
       </c>
     </row>
     <row r="210">
@@ -5819,7 +5819,7 @@
         <v>44651</v>
       </c>
       <c r="B210">
-        <v>253.3201399176955</v>
+        <v>255.5708971193415</v>
       </c>
       <c r="C210">
         <v>19879.6</v>
@@ -5831,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>4988.020576131687</v>
+        <v>4979.64609053498</v>
       </c>
       <c r="G210">
-        <v>13670.73936899863</v>
+        <v>13685.40740740741</v>
       </c>
       <c r="H210">
-        <v>324488.1399176955</v>
+        <v>324579.7613168724</v>
       </c>
     </row>
     <row r="211">
@@ -5845,7 +5845,7 @@
         <v>44742</v>
       </c>
       <c r="B211">
-        <v>253.3027050754458</v>
+        <v>255.7562331961591</v>
       </c>
       <c r="C211">
         <v>19975.5</v>
@@ -5857,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>4986.39780521262</v>
+        <v>4977.268861454047</v>
       </c>
       <c r="G211">
-        <v>13666.99817101052</v>
+        <v>13682.98765432099</v>
       </c>
       <c r="H211">
-        <v>324751.1495198903</v>
+        <v>324846.0521262003</v>
       </c>
     </row>
     <row r="212">
@@ -5871,7 +5871,7 @@
         <v>44834</v>
       </c>
       <c r="B212">
-        <v>253.2395944215821</v>
+        <v>255.7809899405578</v>
       </c>
       <c r="C212">
         <v>20069.9</v>
@@ -5883,13 +5883,13 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>4989.061271147691</v>
+        <v>4979.605395518976</v>
       </c>
       <c r="G212">
-        <v>13668.08809632678</v>
+        <v>13684.65020576132</v>
       </c>
       <c r="H212">
-        <v>324578.4092363969</v>
+        <v>324668.6003657979</v>
       </c>
     </row>
     <row r="213">
@@ -5897,7 +5897,7 @@
         <v>44926</v>
       </c>
       <c r="B213">
-        <v>253.2874798049078</v>
+        <v>255.7027067520195</v>
       </c>
       <c r="C213">
         <v>20163.7</v>
@@ -5909,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>4987.826550830666</v>
+        <v>4978.840115836</v>
       </c>
       <c r="G213">
-        <v>13668.60854544531</v>
+        <v>13684.34842249657</v>
       </c>
       <c r="H213">
-        <v>324605.8995579942</v>
+        <v>324698.1379362902</v>
       </c>
     </row>
     <row r="214">
@@ -5923,7 +5923,7 @@
         <v>45016</v>
       </c>
       <c r="B214">
-        <v>253.2765931006452</v>
+        <v>255.7466432962455</v>
       </c>
       <c r="C214">
         <v>20257.3</v>
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>4987.761875730325</v>
+        <v>4978.571457603008</v>
       </c>
       <c r="G214">
-        <v>13667.89827092754</v>
+        <v>13683.99542752629</v>
       </c>
       <c r="H214">
-        <v>324645.1527714271</v>
+        <v>324737.5968094295</v>
       </c>
     </row>
     <row r="215">
@@ -5949,7 +5949,7 @@
         <v>45107</v>
       </c>
       <c r="B215">
-        <v>253.267889109045</v>
+        <v>255.7434466629409</v>
       </c>
       <c r="C215">
         <v>20351.2</v>
@@ -5961,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>4988.216565902894</v>
+        <v>4979.005656319328</v>
       </c>
       <c r="G215">
-        <v>13668.19830423321</v>
+        <v>13684.33135192806</v>
       </c>
       <c r="H215">
-        <v>324609.8205219394</v>
+        <v>324701.4450371725</v>
       </c>
     </row>
     <row r="216">
@@ -5975,7 +5975,7 @@
         <v>45199</v>
       </c>
       <c r="B216">
-        <v>253.2773206715327</v>
+        <v>255.7309322370686</v>
       </c>
       <c r="C216">
         <v>20446</v>
@@ -5987,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>4987.934997487962</v>
+        <v>4978.805743252779</v>
       </c>
       <c r="G216">
-        <v>13668.23504020202</v>
+        <v>13684.22506731698</v>
       </c>
       <c r="H216">
-        <v>324620.2909504536</v>
+        <v>324712.3932609641</v>
       </c>
     </row>
     <row r="217">
@@ -6001,7 +6001,7 @@
         <v>45291</v>
       </c>
       <c r="B217">
-        <v>253.273934293741</v>
+        <v>255.740340732085</v>
       </c>
       <c r="C217">
         <v>20541.7</v>
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>4987.971146373727</v>
+        <v>4978.794285725038</v>
       </c>
       <c r="G217">
-        <v>13668.11053845425</v>
+        <v>13684.18394892378</v>
       </c>
       <c r="H217">
-        <v>324625.0880812734</v>
+        <v>324717.1450358554</v>
       </c>
     </row>
     <row r="218">
@@ -6027,7 +6027,7 @@
         <v>45382</v>
       </c>
       <c r="B218">
-        <v>253.2730480247729</v>
+        <v>255.7382398773649</v>
       </c>
       <c r="C218">
         <v>20638</v>
@@ -6039,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>4988.040903254861</v>
+        <v>4978.868561765715</v>
       </c>
       <c r="G218">
-        <v>13668.18129429649</v>
+        <v>13684.2467893896</v>
       </c>
       <c r="H218">
-        <v>324618.3998512221</v>
+        <v>324710.3277779973</v>
       </c>
     </row>
     <row r="219">
@@ -6053,7 +6053,7 @@
         <v>45473</v>
       </c>
       <c r="B219">
-        <v>253.2747676633489</v>
+        <v>255.7365042821728</v>
       </c>
       <c r="C219">
         <v>20734.1</v>
@@ -6065,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>4987.98234903885</v>
+        <v>4978.822863581177</v>
       </c>
       <c r="G219">
-        <v>13668.17562431759</v>
+        <v>13684.21860187678</v>
       </c>
       <c r="H219">
-        <v>324621.2596276497</v>
+        <v>324713.2886916056</v>
       </c>
     </row>
     <row r="220">
@@ -6079,7 +6079,7 @@
         <v>45565</v>
       </c>
       <c r="B220">
-        <v>253.2739166606209</v>
+        <v>255.7383616305409</v>
       </c>
       <c r="C220">
         <v>20830.5</v>
@@ -6091,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>4987.998132889145</v>
+        <v>4978.82857035731</v>
       </c>
       <c r="G220">
-        <v>13668.15581902278</v>
+        <v>13684.21644673005</v>
       </c>
       <c r="H220">
-        <v>324621.5825200484</v>
+        <v>324713.5871684861</v>
       </c>
     </row>
     <row r="221">
@@ -6105,7 +6105,7 @@
         <v>45657</v>
       </c>
       <c r="B221">
-        <v>253.2739107829142</v>
+        <v>255.7377019300262</v>
       </c>
       <c r="C221">
         <v>20927.1</v>
@@ -6117,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>4988.007128394285</v>
+        <v>4978.839998568067</v>
       </c>
       <c r="G221">
-        <v>13668.17091254562</v>
+        <v>13684.22727933215</v>
       </c>
       <c r="H221">
-        <v>324620.41399964</v>
+        <v>324712.4012126963</v>
       </c>
     </row>
     <row r="222">
@@ -6131,7 +6131,7 @@
         <v>45747</v>
       </c>
       <c r="B222">
-        <v>253.2741983689613</v>
+        <v>255.7375226142466</v>
       </c>
       <c r="C222">
         <v>21023.6</v>
@@ -6143,13 +6143,13 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>4987.995870107427</v>
+        <v>4978.830477502185</v>
       </c>
       <c r="G222">
-        <v>13668.16745196199</v>
+        <v>13684.22077597966</v>
       </c>
       <c r="H222">
-        <v>324621.085382446</v>
+        <v>324713.092357596</v>
       </c>
     </row>
     <row r="223">
@@ -6157,7 +6157,7 @@
         <v>45838</v>
       </c>
       <c r="B223">
-        <v>253.2740086041655</v>
+        <v>255.7378620582713</v>
       </c>
       <c r="C223">
         <v>21118.9</v>
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>4988.000377130285</v>
+        <v>4978.833015475854</v>
       </c>
       <c r="G223">
-        <v>13668.16472784346</v>
+        <v>13684.22150068062</v>
       </c>
       <c r="H223">
-        <v>324621.0273007115</v>
+        <v>324713.0269129261</v>
       </c>
     </row>
     <row r="224">
@@ -6183,7 +6183,7 @@
         <v>45930</v>
       </c>
       <c r="B224">
-        <v>253.2740392520137</v>
+        <v>255.7376955341814</v>
       </c>
       <c r="C224">
         <v>21213.5</v>
@@ -6195,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>4988.001125210666</v>
+        <v>4978.834497182035</v>
       </c>
       <c r="G224">
-        <v>13668.16769745036</v>
+        <v>13684.22318533081</v>
       </c>
       <c r="H224">
-        <v>324620.8422275992</v>
+        <v>324712.8401610728</v>
       </c>
     </row>
     <row r="225">
@@ -6209,7 +6209,7 @@
         <v>46022</v>
       </c>
       <c r="B225">
-        <v>253.2740820750468</v>
+        <v>255.7376934022331</v>
       </c>
       <c r="C225">
         <v>21307.4</v>
@@ -6221,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>4987.999124149459</v>
+        <v>4978.832663386692</v>
       </c>
       <c r="G225">
-        <v>13668.16662575194</v>
+        <v>13684.2218206637</v>
       </c>
       <c r="H225">
-        <v>324620.9849702522</v>
+        <v>324712.9864771983</v>
       </c>
     </row>
     <row r="226">
@@ -6235,7 +6235,7 @@
         <v>46112</v>
       </c>
       <c r="B226">
-        <v>253.2740433104087</v>
+        <v>255.7377503315619</v>
       </c>
       <c r="C226">
         <v>21400.7</v>
@@ -6247,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>4988.000208830137</v>
+        <v>4978.833392014861</v>
       </c>
       <c r="G226">
-        <v>13668.16635034859</v>
+        <v>13684.22216889171</v>
       </c>
       <c r="H226">
-        <v>324620.951499521</v>
+        <v>324712.9511837324</v>
       </c>
     </row>
     <row r="227">
@@ -6261,7 +6261,7 @@
         <v>46203</v>
       </c>
       <c r="B227">
-        <v>253.2740548791564</v>
+        <v>255.7377130893254</v>
       </c>
       <c r="C227">
         <v>21493.1</v>
@@ -6273,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>4988.000152730087</v>
+        <v>4978.833517527863</v>
       </c>
       <c r="G227">
-        <v>13668.16689118363</v>
+        <v>13684.22239162874</v>
       </c>
       <c r="H227">
-        <v>324620.9262324575</v>
+        <v>324712.9259406679</v>
       </c>
     </row>
     <row r="228">
@@ -6287,7 +6287,7 @@
         <v>46295</v>
       </c>
       <c r="B228">
-        <v>253.274060088204</v>
+        <v>255.7377189410401</v>
       </c>
       <c r="C228">
         <v>21585.4</v>
@@ -6299,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>4987.999828569895</v>
+        <v>4978.833190976472</v>
       </c>
       <c r="G228">
-        <v>13668.16662242805</v>
+        <v>13684.22212706138</v>
       </c>
       <c r="H228">
-        <v>324620.9542340769</v>
+        <v>324712.9545338662</v>
       </c>
     </row>
     <row r="229">
@@ -6313,7 +6313,7 @@
         <v>46387</v>
       </c>
       <c r="B229">
-        <v>253.2740527592563</v>
+        <v>255.7377274539758</v>
       </c>
       <c r="C229">
         <v>21677.8</v>
@@ -6325,13 +6325,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4988.000063376707</v>
+        <v>4978.833366839732</v>
       </c>
       <c r="G229">
-        <v>13668.16662132009</v>
+        <v>13684.22222919394</v>
       </c>
       <c r="H229">
-        <v>324620.9439886851</v>
+        <v>324712.9438860889</v>
       </c>
     </row>
     <row r="230">
@@ -6339,7 +6339,7 @@
         <v>46477</v>
       </c>
       <c r="B230">
-        <v>253.2740559088722</v>
+        <v>255.7377198281138</v>
       </c>
       <c r="C230">
         <v>21770.3</v>
@@ -6351,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>4988.00001489223</v>
+        <v>4978.833358448022</v>
       </c>
       <c r="G230">
-        <v>13668.16671164392</v>
+        <v>13684.22224929469</v>
       </c>
       <c r="H230">
-        <v>324620.9414850731</v>
+        <v>324712.941453541</v>
       </c>
     </row>
     <row r="231">
@@ -6365,7 +6365,7 @@
         <v>46568</v>
       </c>
       <c r="B231">
-        <v>253.2740562521108</v>
+        <v>255.7377220743766</v>
       </c>
       <c r="C231">
         <v>21862.9</v>
@@ -6377,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>4987.999968946278</v>
+        <v>4978.833305421409</v>
       </c>
       <c r="G231">
-        <v>13668.16665179735</v>
+        <v>13684.22220185</v>
       </c>
       <c r="H231">
-        <v>324620.9465692784</v>
+        <v>324712.9466244987</v>
       </c>
     </row>
     <row r="232">
@@ -6391,7 +6391,7 @@
         <v>46660</v>
       </c>
       <c r="B232">
-        <v>253.2740549734131</v>
+        <v>255.7377231188221</v>
       </c>
       <c r="C232">
         <v>21956.1</v>
@@ -6403,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>4988.000015738405</v>
+        <v>4978.833343569721</v>
       </c>
       <c r="G232">
-        <v>13668.16666158712</v>
+        <v>13684.22222677954</v>
       </c>
       <c r="H232">
-        <v>324620.9440143455</v>
+        <v>324712.9439880428</v>
       </c>
     </row>
     <row r="233">
@@ -6417,7 +6417,7 @@
         <v>46752</v>
       </c>
       <c r="B233">
-        <v>253.2740557114654</v>
+        <v>255.7377216737708</v>
       </c>
       <c r="C233">
         <v>22049.5</v>
@@ -6429,13 +6429,13 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>4987.999999858971</v>
+        <v>4978.833335813051</v>
       </c>
       <c r="G233">
-        <v>13668.16667500947</v>
+        <v>13684.22222597475</v>
       </c>
       <c r="H233">
-        <v>324620.944022899</v>
+        <v>324712.9440220275</v>
       </c>
     </row>
     <row r="234">
@@ -6443,7 +6443,7 @@
         <v>46843</v>
       </c>
       <c r="B234">
-        <v>253.2740556456631</v>
+        <v>255.7377222889898</v>
       </c>
       <c r="C234">
         <v>22143.3</v>
@@ -6455,13 +6455,13 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>4987.999994847884</v>
+        <v>4978.833328268061</v>
       </c>
       <c r="G234">
-        <v>13668.16666279798</v>
+        <v>13684.22221820143</v>
       </c>
       <c r="H234">
-        <v>324620.944868841</v>
+        <v>324712.9448781897</v>
       </c>
     </row>
     <row r="235">
@@ -6469,7 +6469,7 @@
         <v>46934</v>
       </c>
       <c r="B235">
-        <v>253.2740554435139</v>
+        <v>255.7377223605276</v>
       </c>
       <c r="C235">
         <v>22238.3</v>
@@ -6481,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>4988.000003481753</v>
+        <v>4978.833335883611</v>
       </c>
       <c r="G235">
-        <v>13668.16666646486</v>
+        <v>13684.22222365191</v>
       </c>
       <c r="H235">
-        <v>324620.9443020285</v>
+        <v>324712.9442960867</v>
       </c>
     </row>
     <row r="236">
@@ -6495,7 +6495,7 @@
         <v>47026</v>
       </c>
       <c r="B236">
-        <v>253.2740556002141</v>
+        <v>255.7377221077627</v>
       </c>
       <c r="C236">
         <v>22334.3</v>
@@ -6507,13 +6507,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>4987.999999396203</v>
+        <v>4978.833333321574</v>
       </c>
       <c r="G236">
-        <v>13668.16666809077</v>
+        <v>13684.22222260936</v>
       </c>
       <c r="H236">
-        <v>324620.9443979228</v>
+        <v>324712.944398768</v>
       </c>
     </row>
     <row r="237">
@@ -6521,7 +6521,7 @@
         <v>47118</v>
       </c>
       <c r="B237">
-        <v>253.2740555631304</v>
+        <v>255.7377222524267</v>
       </c>
       <c r="C237">
         <v>22431.4</v>
@@ -6533,13 +6533,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>4987.999999241947</v>
+        <v>4978.833332491082</v>
       </c>
       <c r="G237">
-        <v>13668.16666578453</v>
+        <v>13684.22222148757</v>
       </c>
       <c r="H237">
-        <v>324620.9445229308</v>
+        <v>324712.9445243481</v>
       </c>
     </row>
     <row r="238">
@@ -6547,7 +6547,7 @@
         <v>47208</v>
       </c>
       <c r="B238">
-        <v>253.2740555356195</v>
+        <v>255.737722240239</v>
       </c>
       <c r="C238">
         <v>22529.4</v>
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>4988.000000706635</v>
+        <v>4978.833333898756</v>
       </c>
       <c r="G238">
-        <v>13668.16666678005</v>
+        <v>13684.22222258295</v>
       </c>
       <c r="H238">
-        <v>324620.9444076274</v>
+        <v>324712.9444064009</v>
       </c>
     </row>
     <row r="239">
@@ -6573,7 +6573,7 @@
         <v>47299</v>
       </c>
       <c r="B239">
-        <v>253.2740555663213</v>
+        <v>255.7377222001428</v>
       </c>
       <c r="C239">
         <v>22628.1</v>
@@ -6585,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>4987.999999781595</v>
+        <v>4978.833333237138</v>
       </c>
       <c r="G239">
-        <v>13668.16666688512</v>
+        <v>13684.22222222662</v>
       </c>
       <c r="H239">
-        <v>324620.944442827</v>
+        <v>324712.9444431723</v>
       </c>
     </row>
     <row r="240">
@@ -6599,7 +6599,7 @@
         <v>47391</v>
       </c>
       <c r="B240">
-        <v>253.2740555550237</v>
+        <v>255.7377222309362</v>
       </c>
       <c r="C240">
         <v>22726.7</v>
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>4987.999999910059</v>
+        <v>4978.833333208992</v>
       </c>
       <c r="G240">
-        <v>13668.16666648324</v>
+        <v>13684.22222209904</v>
       </c>
       <c r="H240">
-        <v>324620.9444577951</v>
+        <v>324712.9444579738</v>
       </c>
     </row>
     <row r="241">
@@ -6625,7 +6625,7 @@
         <v>47483</v>
       </c>
       <c r="B241">
-        <v>253.2740555523215</v>
+        <v>255.7377222237726</v>
       </c>
       <c r="C241">
         <v>22825.1</v>
@@ -6637,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>4988.000000132763</v>
+        <v>4978.833333448295</v>
       </c>
       <c r="G241">
-        <v>13668.16666671614</v>
+        <v>13684.22222230287</v>
       </c>
       <c r="H241">
-        <v>324620.9444360831</v>
+        <v>324712.944435849</v>
       </c>
     </row>
     <row r="242">
@@ -6651,7 +6651,7 @@
         <v>47573</v>
       </c>
       <c r="B242">
-        <v>253.2740555578889</v>
+        <v>255.7377222182839</v>
       </c>
       <c r="C242">
         <v>22923.6</v>
@@ -6663,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>4987.999999941472</v>
+        <v>4978.833333298141</v>
       </c>
       <c r="G242">
-        <v>13668.16666669483</v>
+        <v>13684.22222220951</v>
       </c>
       <c r="H242">
-        <v>324620.9444455684</v>
+        <v>324712.944445665</v>
       </c>
     </row>
     <row r="243">
@@ -6677,7 +6677,7 @@
         <v>47664</v>
       </c>
       <c r="B243">
-        <v>253.274055555078</v>
+        <v>255.7377222243309</v>
       </c>
       <c r="C243">
         <v>23022.1</v>
@@ -6689,13 +6689,13 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>4987.999999994765</v>
+        <v>4978.833333318476</v>
       </c>
       <c r="G243">
-        <v>13668.1666666314</v>
+        <v>13684.22222220381</v>
       </c>
       <c r="H243">
-        <v>324620.9444464822</v>
+        <v>324712.9444464959</v>
       </c>
     </row>
     <row r="244">
@@ -6703,7 +6703,7 @@
         <v>47756</v>
       </c>
       <c r="B244">
-        <v>253.2740555550961</v>
+        <v>255.7377222221291</v>
       </c>
       <c r="C244">
         <v>23120.6</v>
@@ -6715,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>4988.000000023</v>
+        <v>4978.833333354971</v>
       </c>
       <c r="G244">
-        <v>13668.16666668079</v>
+        <v>13684.22222223873</v>
       </c>
       <c r="H244">
-        <v>324620.9444427113</v>
+        <v>324712.94444267</v>
       </c>
     </row>
     <row r="245">
@@ -6729,7 +6729,7 @@
         <v>47848</v>
       </c>
       <c r="B245">
-        <v>253.274055556021</v>
+        <v>255.7377222215813</v>
       </c>
       <c r="C245">
         <v>23219.4</v>
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>4987.999999986412</v>
+        <v>4978.833333323863</v>
       </c>
       <c r="G245">
-        <v>13668.16666666901</v>
+        <v>13684.22222221735</v>
       </c>
       <c r="H245">
-        <v>324620.9444449206</v>
+        <v>324712.9444449436</v>
       </c>
     </row>
     <row r="246">
@@ -6755,7 +6755,7 @@
         <v>47938</v>
       </c>
       <c r="B246">
-        <v>253.2740555553984</v>
+        <v>255.7377222226805</v>
       </c>
       <c r="C246">
         <v>23318.3</v>
@@ -6767,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>4988.000000001392</v>
+        <v>4978.833333332436</v>
       </c>
       <c r="G246">
-        <v>13668.1666666604</v>
+        <v>13684.22222221996</v>
       </c>
       <c r="H246">
-        <v>324620.9444447047</v>
+        <v>324712.9444447032</v>
       </c>
     </row>
     <row r="247">
@@ -6781,7 +6781,7 @@
         <v>48029</v>
       </c>
       <c r="B247">
-        <v>253.2740555555052</v>
+        <v>255.7377222221303</v>
       </c>
       <c r="C247">
         <v>23417.4</v>
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>4988.000000003602</v>
+        <v>4978.83333333709</v>
       </c>
       <c r="G247">
-        <v>13668.16666667006</v>
+        <v>13684.22222222535</v>
       </c>
       <c r="H247">
-        <v>324620.9444441122</v>
+        <v>324712.9444441056</v>
       </c>
     </row>
     <row r="248">
@@ -6807,7 +6807,7 @@
         <v>48121</v>
       </c>
       <c r="B248">
-        <v>253.2740555556415</v>
+        <v>255.7377222221307</v>
       </c>
       <c r="C248">
         <v>23516.4</v>
@@ -6819,13 +6819,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>4987.999999997135</v>
+        <v>4978.833333331129</v>
       </c>
       <c r="G248">
-        <v>13668.16666666649</v>
+        <v>13684.22222222089</v>
       </c>
       <c r="H248">
-        <v>324620.9444445792</v>
+        <v>324712.9444445841</v>
       </c>
     </row>
     <row r="249">
@@ -6833,7 +6833,7 @@
         <v>48213</v>
       </c>
       <c r="B249">
-        <v>253.2740555555151</v>
+        <v>255.7377222223138</v>
       </c>
       <c r="C249">
         <v>23615.3</v>
@@ -6845,13 +6845,13 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>4988.000000000709</v>
+        <v>4978.833333333552</v>
       </c>
       <c r="G249">
-        <v>13668.16666666565</v>
+        <v>13684.22222222207</v>
       </c>
       <c r="H249">
-        <v>324620.9444444653</v>
+        <v>324712.9444444643</v>
       </c>
     </row>
   </sheetData>
